--- a/reports/report.xlsx
+++ b/reports/report.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="99">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="101">
   <si>
     <t>ANNEX 2</t>
   </si>
@@ -121,22 +121,22 @@
     <t>Learner Reference No. (LRN)</t>
   </si>
   <si>
-    <t>LRN405592-2685B0FBF2DE4</t>
-  </si>
-  <si>
-    <t>GRADE 1</t>
+    <t>LRN40559200000001</t>
+  </si>
+  <si>
+    <t>GRADE 5</t>
   </si>
   <si>
     <t>LAST NAME:</t>
   </si>
   <si>
-    <t>TV</t>
+    <t>IRVING</t>
   </si>
   <si>
     <t>FIRST NAME</t>
   </si>
   <si>
-    <t>CONG</t>
+    <t>KYRIE</t>
   </si>
   <si>
     <t>MIDDLE NAME</t>
@@ -146,9 +146,6 @@
   </si>
   <si>
     <t xml:space="preserve">DATE OF BIRTH     </t>
-  </si>
-  <si>
-    <t>01</t>
   </si>
   <si>
     <t>/</t>
@@ -210,7 +207,7 @@
     <t>RELIGION</t>
   </si>
   <si>
-    <t>PIRATE</t>
+    <t>ROMAN CATHOLIC</t>
   </si>
   <si>
     <t>ADDRESS</t>
@@ -219,13 +216,13 @@
     <t>House Number and Street</t>
   </si>
   <si>
-    <t>PUROK 23</t>
+    <t>CABILI</t>
   </si>
   <si>
     <t>Barangay</t>
   </si>
   <si>
-    <t>KATUALAN</t>
+    <t>QUEZON</t>
   </si>
   <si>
     <t>City/Municipality/Province/Country</t>
@@ -246,13 +243,19 @@
     <t xml:space="preserve">Mother's (Maiden Name) </t>
   </si>
   <si>
-    <t>PAPASHOUTOUTTV</t>
-  </si>
-  <si>
-    <t>MMMMM</t>
-  </si>
-  <si>
-    <t>T</t>
+    <t>JAMES</t>
+  </si>
+  <si>
+    <t>LEBRON</t>
+  </si>
+  <si>
+    <t>TERESA</t>
+  </si>
+  <si>
+    <t>MAMA</t>
+  </si>
+  <si>
+    <t>STA</t>
   </si>
   <si>
     <t>(Last Name)                                            (First Name)                             (Middle Name)</t>
@@ -295,10 +298,10 @@
     </r>
   </si>
   <si>
-    <t>VLOGGER</t>
-  </si>
-  <si>
-    <t>HOUSE WIFE</t>
+    <t>BUSINESSMAN</t>
+  </si>
+  <si>
+    <t>HOUSEWIFE</t>
   </si>
   <si>
     <t>Educational Attainment (Father)</t>
@@ -324,22 +327,25 @@
     <t>COLLEGE GRADUATE</t>
   </si>
   <si>
+    <t>ELEMENTARY GRADUATE</t>
+  </si>
+  <si>
     <t>Cellphone No.</t>
   </si>
   <si>
-    <t>09912021547</t>
-  </si>
-  <si>
     <t>09912021990</t>
   </si>
   <si>
+    <t>0991020202</t>
+  </si>
+  <si>
     <t>FB acccount:</t>
   </si>
   <si>
-    <t>PAPASHOUT OUT TV</t>
-  </si>
-  <si>
-    <t>MAMA TV</t>
+    <t>KALYE IRVING</t>
+  </si>
+  <si>
+    <t>MOTHER TERESA</t>
   </si>
   <si>
     <t xml:space="preserve">Guardian's Name </t>
@@ -2211,40 +2217,40 @@
       <c r="A26" t="s">
         <v>24</v>
       </c>
-      <c r="B26" s="78" t="s">
+      <c r="B26" s="78">
+        <v>12</v>
+      </c>
+      <c r="C26" s="78" t="s">
         <v>25</v>
       </c>
-      <c r="C26" s="78" t="s">
+      <c r="D26" s="78">
+        <v>12</v>
+      </c>
+      <c r="E26" s="78" t="s">
+        <v>25</v>
+      </c>
+      <c r="F26" s="78">
+        <v>2015</v>
+      </c>
+      <c r="G26" s="1" t="s">
         <v>26</v>
       </c>
-      <c r="D26" s="78" t="s">
-        <v>25</v>
-      </c>
-      <c r="E26" s="78" t="s">
-        <v>26</v>
-      </c>
-      <c r="F26" s="78">
-        <v>2003</v>
-      </c>
-      <c r="G26" s="1" t="s">
+      <c r="H26" s="15" t="s">
         <v>27</v>
       </c>
-      <c r="H26" s="15" t="s">
+      <c r="I26" s="6" t="s">
         <v>28</v>
       </c>
-      <c r="I26" s="6" t="s">
+      <c r="J26" s="79" t="s">
         <v>29</v>
       </c>
-      <c r="J26" s="79" t="s">
-        <v>30</v>
-      </c>
       <c r="K26" s="84">
-        <v>21</v>
+        <v>8</v>
       </c>
     </row>
     <row r="27" spans="1:18" customHeight="1" ht="9">
       <c r="A27" s="13" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="C27" s="14"/>
       <c r="G27" s="1"/>
@@ -2254,17 +2260,17 @@
     </row>
     <row r="28" spans="1:18" customHeight="1" ht="15">
       <c r="A28" s="7" t="s">
+        <v>31</v>
+      </c>
+      <c r="B28" s="85" t="s">
         <v>32</v>
-      </c>
-      <c r="B28" s="85" t="s">
-        <v>33</v>
       </c>
       <c r="C28" s="85"/>
       <c r="D28" s="85"/>
       <c r="E28" s="85"/>
       <c r="F28" s="85"/>
       <c r="G28" s="61" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="H28" s="61"/>
       <c r="I28" s="61"/>
@@ -2273,15 +2279,15 @@
     </row>
     <row r="29" spans="1:18" customHeight="1" ht="16.5">
       <c r="A29" s="7" t="s">
+        <v>34</v>
+      </c>
+      <c r="D29" s="54" t="s">
         <v>35</v>
-      </c>
-      <c r="D29" s="54" t="s">
-        <v>36</v>
       </c>
       <c r="E29" s="54"/>
       <c r="F29" s="54"/>
       <c r="G29" s="55" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="H29" s="55"/>
       <c r="I29" s="2"/>
@@ -2289,7 +2295,7 @@
     </row>
     <row r="30" spans="1:18" customHeight="1" ht="11.25">
       <c r="A30" s="12" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="D30" s="54"/>
       <c r="E30" s="54"/>
@@ -2302,13 +2308,13 @@
     </row>
     <row r="31" spans="1:18" customHeight="1" ht="18">
       <c r="A31" s="28" t="s">
+        <v>38</v>
+      </c>
+      <c r="G31" t="s">
         <v>39</v>
       </c>
-      <c r="G31" t="s">
+      <c r="H31" s="81" t="s">
         <v>40</v>
-      </c>
-      <c r="H31" s="81" t="s">
-        <v>41</v>
       </c>
       <c r="I31" s="81"/>
       <c r="J31" s="81"/>
@@ -2317,7 +2323,7 @@
     <row r="32" spans="1:18" customHeight="1" ht="4.5"/>
     <row r="33" spans="1:18" customHeight="1" ht="13.5" s="36" customFormat="1">
       <c r="A33" s="37" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="B33" s="38"/>
       <c r="C33" s="38"/>
@@ -2332,12 +2338,12 @@
     </row>
     <row r="34" spans="1:18" customHeight="1" ht="10.5">
       <c r="A34" s="5" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
     </row>
     <row r="35" spans="1:18" customHeight="1" ht="12">
       <c r="A35" s="81" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="B35" s="81"/>
       <c r="C35" s="81"/>
@@ -2352,13 +2358,13 @@
     </row>
     <row r="36" spans="1:18" customHeight="1" ht="12">
       <c r="A36" s="24" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="B36" s="16"/>
     </row>
     <row r="37" spans="1:18">
       <c r="A37" s="81" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="B37" s="81"/>
       <c r="C37" s="81"/>
@@ -2373,19 +2379,19 @@
     </row>
     <row r="38" spans="1:18" customHeight="1" ht="12.75">
       <c r="A38" s="11" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="B38" s="7"/>
       <c r="C38" s="7"/>
       <c r="D38" s="7"/>
       <c r="E38" s="7"/>
       <c r="H38" s="48" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
     </row>
     <row r="39" spans="1:18" customHeight="1" ht="13.5">
       <c r="A39" s="81" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="B39" s="81"/>
       <c r="C39" s="81"/>
@@ -2398,7 +2404,7 @@
     <row r="40" spans="1:18" customHeight="1" ht="3.75"/>
     <row r="41" spans="1:18" customHeight="1" ht="15">
       <c r="A41" s="67" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="B41" s="68"/>
       <c r="C41" s="68"/>
@@ -2413,10 +2419,10 @@
     </row>
     <row r="42" spans="1:18" customHeight="1" ht="10.5">
       <c r="A42" s="31" t="s">
+        <v>50</v>
+      </c>
+      <c r="G42" s="31" t="s">
         <v>51</v>
-      </c>
-      <c r="G42" s="31" t="s">
-        <v>52</v>
       </c>
       <c r="H42" s="35"/>
       <c r="I42" s="35"/>
@@ -2425,7 +2431,7 @@
     </row>
     <row r="43" spans="1:18" customHeight="1" ht="16.5">
       <c r="A43" s="81" t="s">
-        <v>19</v>
+        <v>52</v>
       </c>
       <c r="B43" s="81"/>
       <c r="C43" s="81" t="s">
@@ -2438,23 +2444,23 @@
       </c>
       <c r="H43" s="81"/>
       <c r="I43" s="81" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="J43" s="81"/>
       <c r="K43" s="86" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
     </row>
     <row r="44" spans="1:18" customHeight="1" ht="16.5">
       <c r="A44" s="66" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="B44" s="66"/>
       <c r="C44" s="66"/>
       <c r="D44" s="66"/>
       <c r="E44" s="66"/>
       <c r="G44" s="29" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="H44" s="29"/>
       <c r="I44" s="29"/>
@@ -2462,10 +2468,10 @@
     </row>
     <row r="45" spans="1:18" customHeight="1" ht="11.25">
       <c r="A45" s="42" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="G45" s="42" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="H45" s="30"/>
       <c r="I45" s="30"/>
@@ -2473,14 +2479,14 @@
     </row>
     <row r="46" spans="1:18" customHeight="1" ht="15">
       <c r="A46" s="81" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="B46" s="81"/>
       <c r="C46" s="81"/>
       <c r="D46" s="81"/>
       <c r="E46" s="81"/>
       <c r="G46" s="87" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="H46" s="87"/>
       <c r="I46" s="87"/>
@@ -2489,10 +2495,10 @@
     </row>
     <row r="47" spans="1:18" customHeight="1" ht="11.25">
       <c r="A47" s="43" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="G47" s="42" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="H47" s="30"/>
       <c r="I47" s="30"/>
@@ -2500,14 +2506,14 @@
     </row>
     <row r="48" spans="1:18" customHeight="1" ht="15">
       <c r="A48" s="81" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="B48" s="81"/>
       <c r="C48" s="81"/>
       <c r="D48" s="81"/>
       <c r="E48" s="81"/>
       <c r="G48" s="81" t="s">
-        <v>64</v>
+        <v>66</v>
       </c>
       <c r="H48" s="81"/>
       <c r="I48" s="81"/>
@@ -2516,19 +2522,19 @@
     </row>
     <row r="49" spans="1:18" customHeight="1" ht="15.75">
       <c r="A49" s="44" t="s">
-        <v>65</v>
+        <v>67</v>
       </c>
       <c r="B49" s="82" t="s">
-        <v>66</v>
+        <v>68</v>
       </c>
       <c r="C49" s="82"/>
       <c r="D49" s="82"/>
       <c r="E49" s="82"/>
       <c r="G49" s="45" t="s">
-        <v>65</v>
+        <v>67</v>
       </c>
       <c r="H49" s="82" t="s">
-        <v>67</v>
+        <v>69</v>
       </c>
       <c r="I49" s="82"/>
       <c r="J49" s="82"/>
@@ -2536,19 +2542,19 @@
     </row>
     <row r="50" spans="1:18" customHeight="1" ht="15.75">
       <c r="A50" s="44" t="s">
-        <v>68</v>
+        <v>70</v>
       </c>
       <c r="B50" s="88" t="s">
-        <v>69</v>
+        <v>71</v>
       </c>
       <c r="C50" s="88"/>
       <c r="D50" s="88"/>
       <c r="E50" s="88"/>
       <c r="G50" s="44" t="s">
-        <v>68</v>
+        <v>70</v>
       </c>
       <c r="H50" s="82" t="s">
-        <v>70</v>
+        <v>72</v>
       </c>
       <c r="I50" s="82"/>
       <c r="J50" s="82"/>
@@ -2556,15 +2562,15 @@
     </row>
     <row r="51" spans="1:18" customHeight="1" ht="16.5">
       <c r="A51" s="31" t="s">
-        <v>71</v>
+        <v>73</v>
       </c>
       <c r="G51" s="31" t="s">
-        <v>72</v>
+        <v>74</v>
       </c>
     </row>
     <row r="52" spans="1:18" customHeight="1" ht="17.25">
       <c r="A52" t="s">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="E52" s="10"/>
       <c r="H52" s="10"/>
@@ -2574,14 +2580,14 @@
     </row>
     <row r="53" spans="1:18" customHeight="1" ht="18">
       <c r="A53" s="66" t="s">
-        <v>74</v>
+        <v>76</v>
       </c>
       <c r="B53" s="66"/>
       <c r="C53" s="66"/>
       <c r="D53" s="66"/>
       <c r="E53" s="66"/>
       <c r="G53" s="45" t="s">
-        <v>65</v>
+        <v>67</v>
       </c>
       <c r="H53" s="10"/>
       <c r="I53" s="10"/>
@@ -2591,7 +2597,7 @@
     <row r="54" spans="1:18" customHeight="1" ht="4.5"/>
     <row r="55" spans="1:18" customHeight="1" ht="13.5">
       <c r="A55" s="70" t="s">
-        <v>75</v>
+        <v>77</v>
       </c>
       <c r="B55" s="71"/>
       <c r="C55" s="71"/>
@@ -2606,13 +2612,13 @@
     </row>
     <row r="56" spans="1:18" customHeight="1" ht="15.75">
       <c r="A56" s="7" t="s">
-        <v>76</v>
+        <v>78</v>
       </c>
       <c r="B56" s="7"/>
       <c r="C56" s="17"/>
       <c r="D56" s="10"/>
       <c r="E56" s="7" t="s">
-        <v>77</v>
+        <v>79</v>
       </c>
       <c r="F56" s="3"/>
       <c r="G56" s="3"/>
@@ -2621,7 +2627,7 @@
     </row>
     <row r="57" spans="1:18" customHeight="1" ht="14.25">
       <c r="A57" s="7" t="s">
-        <v>78</v>
+        <v>80</v>
       </c>
       <c r="B57" s="10"/>
       <c r="C57" s="10"/>
@@ -2629,7 +2635,7 @@
       <c r="E57" s="10"/>
       <c r="F57" s="10"/>
       <c r="G57" s="62" t="s">
-        <v>79</v>
+        <v>81</v>
       </c>
       <c r="H57" s="34"/>
     </row>
@@ -2640,7 +2646,7 @@
     </row>
     <row r="59" spans="1:18" customHeight="1" ht="15">
       <c r="A59" s="7" t="s">
-        <v>80</v>
+        <v>82</v>
       </c>
       <c r="B59" s="10"/>
       <c r="C59" s="10"/>
@@ -2654,7 +2660,7 @@
     </row>
     <row r="61" spans="1:18" customHeight="1" ht="13.5">
       <c r="A61" s="63" t="s">
-        <v>81</v>
+        <v>83</v>
       </c>
       <c r="B61" s="64"/>
       <c r="C61" s="64"/>
@@ -2669,25 +2675,25 @@
     </row>
     <row r="62" spans="1:18" customHeight="1" ht="11.25">
       <c r="A62" s="7" t="s">
-        <v>82</v>
+        <v>84</v>
       </c>
       <c r="B62" s="18" t="s">
-        <v>83</v>
+        <v>85</v>
       </c>
       <c r="D62" s="18" t="s">
-        <v>84</v>
+        <v>86</v>
       </c>
       <c r="E62" s="18"/>
     </row>
     <row r="63" spans="1:18" customHeight="1" ht="14.25">
       <c r="A63" s="7" t="s">
-        <v>85</v>
+        <v>87</v>
       </c>
       <c r="B63" s="10"/>
       <c r="C63" s="10"/>
       <c r="D63" s="10"/>
       <c r="F63" s="7" t="s">
-        <v>86</v>
+        <v>88</v>
       </c>
       <c r="G63" s="17"/>
       <c r="H63" s="10"/>
@@ -2698,7 +2704,7 @@
     <row r="64" spans="1:18" customHeight="1" ht="12"/>
     <row r="65" spans="1:18" customHeight="1" ht="13.5">
       <c r="A65" s="89" t="s">
-        <v>87</v>
+        <v>89</v>
       </c>
       <c r="B65" s="89"/>
       <c r="C65" s="89"/>
@@ -2755,7 +2761,7 @@
     <row r="70" spans="1:18">
       <c r="A70" s="21"/>
       <c r="B70" s="32" t="s">
-        <v>88</v>
+        <v>90</v>
       </c>
       <c r="C70" s="21"/>
       <c r="D70" s="21"/>
@@ -2764,39 +2770,39 @@
       <c r="G70" s="21"/>
       <c r="I70" s="33"/>
       <c r="J70" s="41" t="s">
-        <v>89</v>
+        <v>91</v>
       </c>
       <c r="K70" s="21"/>
     </row>
     <row r="71" spans="1:18">
       <c r="A71" s="19" t="s">
-        <v>90</v>
+        <v>92</v>
       </c>
     </row>
     <row r="72" spans="1:18">
       <c r="B72" s="7" t="s">
-        <v>91</v>
+        <v>93</v>
       </c>
       <c r="F72" s="14" t="s">
-        <v>92</v>
+        <v>94</v>
       </c>
       <c r="G72" s="14"/>
     </row>
     <row r="73" spans="1:18">
       <c r="B73" s="22" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
     </row>
     <row r="74" spans="1:18">
       <c r="B74" s="7" t="s">
-        <v>93</v>
+        <v>95</v>
       </c>
       <c r="C74" s="10"/>
       <c r="D74" s="10"/>
       <c r="E74" s="10"/>
       <c r="F74" s="10"/>
       <c r="G74" s="7" t="s">
-        <v>94</v>
+        <v>96</v>
       </c>
       <c r="H74" s="10"/>
       <c r="I74" s="10"/>
@@ -2805,15 +2811,15 @@
     </row>
     <row r="75" spans="1:18">
       <c r="J75" s="31" t="s">
-        <v>95</v>
+        <v>97</v>
       </c>
     </row>
     <row r="82" spans="1:18" hidden="true">
       <c r="A82">
+        <v>1</v>
+      </c>
+      <c r="B82">
         <v>0</v>
-      </c>
-      <c r="B82">
-        <v>1</v>
       </c>
     </row>
   </sheetData>
@@ -3100,7 +3106,7 @@
     </row>
     <row r="3" spans="1:11" customHeight="1" ht="16">
       <c r="B3" s="73" t="s">
-        <v>96</v>
+        <v>98</v>
       </c>
       <c r="C3" s="59"/>
       <c r="D3" s="59"/>
@@ -3114,7 +3120,7 @@
     </row>
     <row r="4" spans="1:11">
       <c r="A4" s="74" t="s">
-        <v>97</v>
+        <v>99</v>
       </c>
       <c r="B4" s="75"/>
       <c r="C4" s="75"/>
@@ -3513,7 +3519,7 @@
     </row>
     <row r="38" spans="1:11" s="47" customFormat="1">
       <c r="A38" s="76" t="s">
-        <v>98</v>
+        <v>100</v>
       </c>
       <c r="B38" s="76"/>
       <c r="C38" s="76"/>

--- a/reports/report.xlsx
+++ b/reports/report.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="101">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="102">
   <si>
     <t>ANNEX 2</t>
   </si>
@@ -121,22 +121,22 @@
     <t>Learner Reference No. (LRN)</t>
   </si>
   <si>
-    <t>LRN40559200000001</t>
-  </si>
-  <si>
-    <t>GRADE 5</t>
+    <t>LRN40559200000003</t>
+  </si>
+  <si>
+    <t>GRADE 1</t>
   </si>
   <si>
     <t>LAST NAME:</t>
   </si>
   <si>
-    <t>IRVING</t>
+    <t>EDWARDS</t>
   </si>
   <si>
     <t>FIRST NAME</t>
   </si>
   <si>
-    <t>KYRIE</t>
+    <t>ANTHONY</t>
   </si>
   <si>
     <t>MIDDLE NAME</t>
@@ -146,6 +146,9 @@
   </si>
   <si>
     <t xml:space="preserve">DATE OF BIRTH     </t>
+  </si>
+  <si>
+    <t>09</t>
   </si>
   <si>
     <t>/</t>
@@ -216,13 +219,13 @@
     <t>House Number and Street</t>
   </si>
   <si>
-    <t>CABILI</t>
+    <t>PUROK 4</t>
   </si>
   <si>
     <t>Barangay</t>
   </si>
   <si>
-    <t>QUEZON</t>
+    <t>KIOTOY</t>
   </si>
   <si>
     <t>City/Municipality/Province/Country</t>
@@ -243,19 +246,19 @@
     <t xml:space="preserve">Mother's (Maiden Name) </t>
   </si>
   <si>
-    <t>JAMES</t>
-  </si>
-  <si>
-    <t>LEBRON</t>
-  </si>
-  <si>
-    <t>TERESA</t>
-  </si>
-  <si>
-    <t>MAMA</t>
-  </si>
-  <si>
-    <t>STA</t>
+    <t>JORDAN</t>
+  </si>
+  <si>
+    <t>MICHAEL</t>
+  </si>
+  <si>
+    <t>B</t>
+  </si>
+  <si>
+    <t>KYURI</t>
+  </si>
+  <si>
+    <t>STEPHEN</t>
   </si>
   <si>
     <t>(Last Name)                                            (First Name)                             (Middle Name)</t>
@@ -298,7 +301,7 @@
     </r>
   </si>
   <si>
-    <t>BUSINESSMAN</t>
+    <t>CHIEF EXECUTIVE OFFICER</t>
   </si>
   <si>
     <t>HOUSEWIFE</t>
@@ -324,28 +327,28 @@
     </r>
   </si>
   <si>
+    <t>HIGH SCHOOL GRADUATE</t>
+  </si>
+  <si>
     <t>COLLEGE GRADUATE</t>
   </si>
   <si>
-    <t>ELEMENTARY GRADUATE</t>
-  </si>
-  <si>
     <t>Cellphone No.</t>
   </si>
   <si>
-    <t>09912021990</t>
-  </si>
-  <si>
-    <t>0991020202</t>
+    <t>09918181818</t>
+  </si>
+  <si>
+    <t>0998112737123</t>
   </si>
   <si>
     <t>FB acccount:</t>
   </si>
   <si>
-    <t>KALYE IRVING</t>
-  </si>
-  <si>
-    <t>MOTHER TERESA</t>
+    <t>MJORDAN NIKE</t>
+  </si>
+  <si>
+    <t>STEPH</t>
   </si>
   <si>
     <t xml:space="preserve">Guardian's Name </t>
@@ -2217,40 +2220,40 @@
       <c r="A26" t="s">
         <v>24</v>
       </c>
-      <c r="B26" s="78">
-        <v>12</v>
+      <c r="B26" s="78" t="s">
+        <v>25</v>
       </c>
       <c r="C26" s="78" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="D26" s="78">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="E26" s="78" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="F26" s="78">
-        <v>2015</v>
+        <v>2014</v>
       </c>
       <c r="G26" s="1" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="H26" s="15" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="I26" s="6" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="J26" s="79" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="K26" s="84">
-        <v>8</v>
+        <v>9</v>
       </c>
     </row>
     <row r="27" spans="1:18" customHeight="1" ht="9">
       <c r="A27" s="13" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="C27" s="14"/>
       <c r="G27" s="1"/>
@@ -2260,17 +2263,17 @@
     </row>
     <row r="28" spans="1:18" customHeight="1" ht="15">
       <c r="A28" s="7" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="B28" s="85" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="C28" s="85"/>
       <c r="D28" s="85"/>
       <c r="E28" s="85"/>
       <c r="F28" s="85"/>
       <c r="G28" s="61" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="H28" s="61"/>
       <c r="I28" s="61"/>
@@ -2279,15 +2282,15 @@
     </row>
     <row r="29" spans="1:18" customHeight="1" ht="16.5">
       <c r="A29" s="7" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="D29" s="54" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="E29" s="54"/>
       <c r="F29" s="54"/>
       <c r="G29" s="55" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="H29" s="55"/>
       <c r="I29" s="2"/>
@@ -2295,7 +2298,7 @@
     </row>
     <row r="30" spans="1:18" customHeight="1" ht="11.25">
       <c r="A30" s="12" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="D30" s="54"/>
       <c r="E30" s="54"/>
@@ -2308,13 +2311,13 @@
     </row>
     <row r="31" spans="1:18" customHeight="1" ht="18">
       <c r="A31" s="28" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="G31" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="H31" s="81" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="I31" s="81"/>
       <c r="J31" s="81"/>
@@ -2323,7 +2326,7 @@
     <row r="32" spans="1:18" customHeight="1" ht="4.5"/>
     <row r="33" spans="1:18" customHeight="1" ht="13.5" s="36" customFormat="1">
       <c r="A33" s="37" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="B33" s="38"/>
       <c r="C33" s="38"/>
@@ -2338,12 +2341,12 @@
     </row>
     <row r="34" spans="1:18" customHeight="1" ht="10.5">
       <c r="A34" s="5" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
     </row>
     <row r="35" spans="1:18" customHeight="1" ht="12">
       <c r="A35" s="81" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="B35" s="81"/>
       <c r="C35" s="81"/>
@@ -2358,13 +2361,13 @@
     </row>
     <row r="36" spans="1:18" customHeight="1" ht="12">
       <c r="A36" s="24" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="B36" s="16"/>
     </row>
     <row r="37" spans="1:18">
       <c r="A37" s="81" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="B37" s="81"/>
       <c r="C37" s="81"/>
@@ -2379,19 +2382,19 @@
     </row>
     <row r="38" spans="1:18" customHeight="1" ht="12.75">
       <c r="A38" s="11" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="B38" s="7"/>
       <c r="C38" s="7"/>
       <c r="D38" s="7"/>
       <c r="E38" s="7"/>
       <c r="H38" s="48" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
     </row>
     <row r="39" spans="1:18" customHeight="1" ht="13.5">
       <c r="A39" s="81" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="B39" s="81"/>
       <c r="C39" s="81"/>
@@ -2404,7 +2407,7 @@
     <row r="40" spans="1:18" customHeight="1" ht="3.75"/>
     <row r="41" spans="1:18" customHeight="1" ht="15">
       <c r="A41" s="67" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="B41" s="68"/>
       <c r="C41" s="68"/>
@@ -2419,10 +2422,10 @@
     </row>
     <row r="42" spans="1:18" customHeight="1" ht="10.5">
       <c r="A42" s="31" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="G42" s="31" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="H42" s="35"/>
       <c r="I42" s="35"/>
@@ -2431,36 +2434,36 @@
     </row>
     <row r="43" spans="1:18" customHeight="1" ht="16.5">
       <c r="A43" s="81" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="B43" s="81"/>
       <c r="C43" s="81" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="D43" s="81"/>
-      <c r="E43" s="86"/>
+      <c r="E43" s="86" t="s">
+        <v>55</v>
+      </c>
       <c r="G43" s="81" t="s">
-        <v>54</v>
+        <v>56</v>
       </c>
       <c r="H43" s="81"/>
       <c r="I43" s="81" t="s">
-        <v>55</v>
+        <v>57</v>
       </c>
       <c r="J43" s="81"/>
-      <c r="K43" s="86" t="s">
-        <v>56</v>
-      </c>
+      <c r="K43" s="86"/>
     </row>
     <row r="44" spans="1:18" customHeight="1" ht="16.5">
       <c r="A44" s="66" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="B44" s="66"/>
       <c r="C44" s="66"/>
       <c r="D44" s="66"/>
       <c r="E44" s="66"/>
       <c r="G44" s="29" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="H44" s="29"/>
       <c r="I44" s="29"/>
@@ -2468,10 +2471,10 @@
     </row>
     <row r="45" spans="1:18" customHeight="1" ht="11.25">
       <c r="A45" s="42" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="G45" s="42" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="H45" s="30"/>
       <c r="I45" s="30"/>
@@ -2479,14 +2482,14 @@
     </row>
     <row r="46" spans="1:18" customHeight="1" ht="15">
       <c r="A46" s="81" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="B46" s="81"/>
       <c r="C46" s="81"/>
       <c r="D46" s="81"/>
       <c r="E46" s="81"/>
       <c r="G46" s="87" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="H46" s="87"/>
       <c r="I46" s="87"/>
@@ -2495,10 +2498,10 @@
     </row>
     <row r="47" spans="1:18" customHeight="1" ht="11.25">
       <c r="A47" s="43" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="G47" s="42" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="H47" s="30"/>
       <c r="I47" s="30"/>
@@ -2506,14 +2509,14 @@
     </row>
     <row r="48" spans="1:18" customHeight="1" ht="15">
       <c r="A48" s="81" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="B48" s="81"/>
       <c r="C48" s="81"/>
       <c r="D48" s="81"/>
       <c r="E48" s="81"/>
       <c r="G48" s="81" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="H48" s="81"/>
       <c r="I48" s="81"/>
@@ -2522,19 +2525,19 @@
     </row>
     <row r="49" spans="1:18" customHeight="1" ht="15.75">
       <c r="A49" s="44" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="B49" s="82" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="C49" s="82"/>
       <c r="D49" s="82"/>
       <c r="E49" s="82"/>
       <c r="G49" s="45" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="H49" s="82" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="I49" s="82"/>
       <c r="J49" s="82"/>
@@ -2542,19 +2545,19 @@
     </row>
     <row r="50" spans="1:18" customHeight="1" ht="15.75">
       <c r="A50" s="44" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="B50" s="88" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="C50" s="88"/>
       <c r="D50" s="88"/>
       <c r="E50" s="88"/>
       <c r="G50" s="44" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="H50" s="82" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="I50" s="82"/>
       <c r="J50" s="82"/>
@@ -2562,15 +2565,15 @@
     </row>
     <row r="51" spans="1:18" customHeight="1" ht="16.5">
       <c r="A51" s="31" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="G51" s="31" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
     </row>
     <row r="52" spans="1:18" customHeight="1" ht="17.25">
       <c r="A52" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="E52" s="10"/>
       <c r="H52" s="10"/>
@@ -2580,14 +2583,14 @@
     </row>
     <row r="53" spans="1:18" customHeight="1" ht="18">
       <c r="A53" s="66" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="B53" s="66"/>
       <c r="C53" s="66"/>
       <c r="D53" s="66"/>
       <c r="E53" s="66"/>
       <c r="G53" s="45" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="H53" s="10"/>
       <c r="I53" s="10"/>
@@ -2597,7 +2600,7 @@
     <row r="54" spans="1:18" customHeight="1" ht="4.5"/>
     <row r="55" spans="1:18" customHeight="1" ht="13.5">
       <c r="A55" s="70" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="B55" s="71"/>
       <c r="C55" s="71"/>
@@ -2612,13 +2615,13 @@
     </row>
     <row r="56" spans="1:18" customHeight="1" ht="15.75">
       <c r="A56" s="7" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="B56" s="7"/>
       <c r="C56" s="17"/>
       <c r="D56" s="10"/>
       <c r="E56" s="7" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="F56" s="3"/>
       <c r="G56" s="3"/>
@@ -2627,7 +2630,7 @@
     </row>
     <row r="57" spans="1:18" customHeight="1" ht="14.25">
       <c r="A57" s="7" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="B57" s="10"/>
       <c r="C57" s="10"/>
@@ -2635,7 +2638,7 @@
       <c r="E57" s="10"/>
       <c r="F57" s="10"/>
       <c r="G57" s="62" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="H57" s="34"/>
     </row>
@@ -2646,7 +2649,7 @@
     </row>
     <row r="59" spans="1:18" customHeight="1" ht="15">
       <c r="A59" s="7" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="B59" s="10"/>
       <c r="C59" s="10"/>
@@ -2660,7 +2663,7 @@
     </row>
     <row r="61" spans="1:18" customHeight="1" ht="13.5">
       <c r="A61" s="63" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="B61" s="64"/>
       <c r="C61" s="64"/>
@@ -2675,25 +2678,25 @@
     </row>
     <row r="62" spans="1:18" customHeight="1" ht="11.25">
       <c r="A62" s="7" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="B62" s="18" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="D62" s="18" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="E62" s="18"/>
     </row>
     <row r="63" spans="1:18" customHeight="1" ht="14.25">
       <c r="A63" s="7" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="B63" s="10"/>
       <c r="C63" s="10"/>
       <c r="D63" s="10"/>
       <c r="F63" s="7" t="s">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="G63" s="17"/>
       <c r="H63" s="10"/>
@@ -2704,7 +2707,7 @@
     <row r="64" spans="1:18" customHeight="1" ht="12"/>
     <row r="65" spans="1:18" customHeight="1" ht="13.5">
       <c r="A65" s="89" t="s">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="B65" s="89"/>
       <c r="C65" s="89"/>
@@ -2761,7 +2764,7 @@
     <row r="70" spans="1:18">
       <c r="A70" s="21"/>
       <c r="B70" s="32" t="s">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="C70" s="21"/>
       <c r="D70" s="21"/>
@@ -2770,39 +2773,39 @@
       <c r="G70" s="21"/>
       <c r="I70" s="33"/>
       <c r="J70" s="41" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="K70" s="21"/>
     </row>
     <row r="71" spans="1:18">
       <c r="A71" s="19" t="s">
-        <v>92</v>
+        <v>93</v>
       </c>
     </row>
     <row r="72" spans="1:18">
       <c r="B72" s="7" t="s">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="F72" s="14" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="G72" s="14"/>
     </row>
     <row r="73" spans="1:18">
       <c r="B73" s="22" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
     </row>
     <row r="74" spans="1:18">
       <c r="B74" s="7" t="s">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="C74" s="10"/>
       <c r="D74" s="10"/>
       <c r="E74" s="10"/>
       <c r="F74" s="10"/>
       <c r="G74" s="7" t="s">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="H74" s="10"/>
       <c r="I74" s="10"/>
@@ -2811,7 +2814,7 @@
     </row>
     <row r="75" spans="1:18">
       <c r="J75" s="31" t="s">
-        <v>97</v>
+        <v>98</v>
       </c>
     </row>
     <row r="82" spans="1:18" hidden="true">
@@ -3106,7 +3109,7 @@
     </row>
     <row r="3" spans="1:11" customHeight="1" ht="16">
       <c r="B3" s="73" t="s">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="C3" s="59"/>
       <c r="D3" s="59"/>
@@ -3120,7 +3123,7 @@
     </row>
     <row r="4" spans="1:11">
       <c r="A4" s="74" t="s">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="B4" s="75"/>
       <c r="C4" s="75"/>
@@ -3519,7 +3522,7 @@
     </row>
     <row r="38" spans="1:11" s="47" customFormat="1">
       <c r="A38" s="76" t="s">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="B38" s="76"/>
       <c r="C38" s="76"/>

--- a/reports/report.xlsx
+++ b/reports/report.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="102">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="103">
   <si>
     <t>ANNEX 2</t>
   </si>
@@ -121,7 +121,7 @@
     <t>Learner Reference No. (LRN)</t>
   </si>
   <si>
-    <t>LRN40559200000003</t>
+    <t>LRN40559200000004</t>
   </si>
   <si>
     <t>GRADE 1</t>
@@ -130,13 +130,13 @@
     <t>LAST NAME:</t>
   </si>
   <si>
-    <t>EDWARDS</t>
+    <t>TOWNS</t>
   </si>
   <si>
     <t>FIRST NAME</t>
   </si>
   <si>
-    <t>ANTHONY</t>
+    <t>KARL ANTONY</t>
   </si>
   <si>
     <t>MIDDLE NAME</t>
@@ -148,7 +148,7 @@
     <t xml:space="preserve">DATE OF BIRTH     </t>
   </si>
   <si>
-    <t>09</t>
+    <t>08</t>
   </si>
   <si>
     <t>/</t>
@@ -172,7 +172,7 @@
     <t>PLACE OF BIRTH</t>
   </si>
   <si>
-    <t>DAVAO CITY</t>
+    <t>CARMEN DDN</t>
   </si>
   <si>
     <t>CONDITION OF CHILD'S HEALTH</t>
@@ -219,13 +219,13 @@
     <t>House Number and Street</t>
   </si>
   <si>
-    <t>PUROK 4</t>
+    <t>LAGUNA STORE</t>
   </si>
   <si>
     <t>Barangay</t>
   </si>
   <si>
-    <t>KIOTOY</t>
+    <t>GREDU (POB.)</t>
   </si>
   <si>
     <t>City/Municipality/Province/Country</t>
@@ -246,19 +246,16 @@
     <t xml:space="preserve">Mother's (Maiden Name) </t>
   </si>
   <si>
-    <t>JORDAN</t>
-  </si>
-  <si>
-    <t>MICHAEL</t>
-  </si>
-  <si>
-    <t>B</t>
-  </si>
-  <si>
-    <t>KYURI</t>
-  </si>
-  <si>
-    <t>STEPHEN</t>
+    <t>DONCIC</t>
+  </si>
+  <si>
+    <t>LUCA</t>
+  </si>
+  <si>
+    <t>MADONNA</t>
+  </si>
+  <si>
+    <t>KAYRI</t>
   </si>
   <si>
     <t>(Last Name)                                            (First Name)                             (Middle Name)</t>
@@ -301,10 +298,10 @@
     </r>
   </si>
   <si>
-    <t>CHIEF EXECUTIVE OFFICER</t>
-  </si>
-  <si>
-    <t>HOUSEWIFE</t>
+    <t>BARANGAY POLICE</t>
+  </si>
+  <si>
+    <t>BUSINESS WOMAN</t>
   </si>
   <si>
     <t>Educational Attainment (Father)</t>
@@ -330,25 +327,22 @@
     <t>HIGH SCHOOL GRADUATE</t>
   </si>
   <si>
-    <t>COLLEGE GRADUATE</t>
-  </si>
-  <si>
     <t>Cellphone No.</t>
   </si>
   <si>
-    <t>09918181818</t>
-  </si>
-  <si>
-    <t>0998112737123</t>
+    <t>(+63) 9912021900</t>
+  </si>
+  <si>
+    <t>(+63) 9912029192</t>
   </si>
   <si>
     <t>FB acccount:</t>
   </si>
   <si>
-    <t>MJORDAN NIKE</t>
-  </si>
-  <si>
-    <t>STEPH</t>
+    <t>LUKA LUKA</t>
+  </si>
+  <si>
+    <t>KAIRI</t>
   </si>
   <si>
     <t xml:space="preserve">Guardian's Name </t>
@@ -357,10 +351,19 @@
     <t>Guardian's Occupation</t>
   </si>
   <si>
-    <t xml:space="preserve">                      ,</t>
-  </si>
-  <si>
-    <t>(Last Name)                    (First Name)                (Middle Name)</t>
+    <t>LIVELY</t>
+  </si>
+  <si>
+    <t>DEREK</t>
+  </si>
+  <si>
+    <t>NONE</t>
+  </si>
+  <si>
+    <t>(Last Name)                                               (First Name)                                (Middle Name)</t>
+  </si>
+  <si>
+    <t>(+63) 9910202022</t>
   </si>
   <si>
     <t>For Returning Learners (Balik-Aral) and Those Who Shall Transfer/Move In</t>
@@ -619,6 +622,16 @@
     </font>
     <font>
       <b val="1"/>
+      <i val="1"/>
+      <strike val="0"/>
+      <u val="none"/>
+      <sz val="11"/>
+      <color rgb="FF000000"/>
+      <name val="Calibri"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b val="1"/>
       <i val="0"/>
       <strike val="0"/>
       <u val="none"/>
@@ -644,16 +657,6 @@
       <sz val="12"/>
       <color rgb="FF000000"/>
       <name val="Bookman Old Style"/>
-    </font>
-    <font>
-      <b val="1"/>
-      <i val="1"/>
-      <strike val="0"/>
-      <u val="none"/>
-      <sz val="11"/>
-      <color rgb="FF000000"/>
-      <name val="Calibri"/>
-      <scheme val="minor"/>
     </font>
   </fonts>
   <fills count="3">
@@ -856,6 +859,70 @@
       <alignment vertical="bottom" textRotation="0" wrapText="true" shrinkToFit="false"/>
     </xf>
     <xf xfId="0" fontId="16" numFmtId="0" fillId="0" borderId="0" applyFont="1" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0"/>
+    <xf xfId="0" fontId="4" numFmtId="0" fillId="0" borderId="0" applyFont="1" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" shrinkToFit="false"/>
+    </xf>
+    <xf xfId="0" fontId="0" numFmtId="0" fillId="0" borderId="0" applyFont="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" shrinkToFit="false"/>
+    </xf>
+    <xf xfId="0" fontId="4" numFmtId="0" fillId="0" borderId="1" applyFont="1" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" textRotation="0" wrapText="false" shrinkToFit="false"/>
+    </xf>
+    <xf xfId="0" fontId="4" numFmtId="0" fillId="0" borderId="1" applyFont="1" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="0"/>
+    <xf xfId="0" fontId="4" numFmtId="0" fillId="0" borderId="1" applyFont="1" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="false" shrinkToFit="false"/>
+    </xf>
+    <xf xfId="0" fontId="4" numFmtId="0" fillId="0" borderId="6" applyFont="1" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="false" shrinkToFit="false"/>
+    </xf>
+    <xf xfId="0" fontId="1" numFmtId="0" fillId="0" borderId="0" applyFont="1" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="true" shrinkToFit="false"/>
+    </xf>
+    <xf xfId="0" fontId="4" numFmtId="0" fillId="0" borderId="0" applyFont="1" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" shrinkToFit="false"/>
+    </xf>
+    <xf xfId="0" fontId="6" numFmtId="0" fillId="0" borderId="1" applyFont="1" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="false" shrinkToFit="false"/>
+    </xf>
+    <xf xfId="0" fontId="3" numFmtId="0" fillId="0" borderId="0" applyFont="1" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" shrinkToFit="false"/>
+    </xf>
+    <xf xfId="0" fontId="15" numFmtId="0" fillId="2" borderId="5" applyFont="1" applyNumberFormat="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" shrinkToFit="false"/>
+    </xf>
+    <xf xfId="0" fontId="15" numFmtId="0" fillId="2" borderId="6" applyFont="1" applyNumberFormat="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" shrinkToFit="false"/>
+    </xf>
+    <xf xfId="0" fontId="15" numFmtId="0" fillId="2" borderId="7" applyFont="1" applyNumberFormat="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" shrinkToFit="false"/>
+    </xf>
+    <xf xfId="0" fontId="13" numFmtId="0" fillId="0" borderId="2" applyFont="1" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" textRotation="0" wrapText="false" shrinkToFit="false"/>
+    </xf>
+    <xf xfId="0" fontId="4" numFmtId="0" fillId="2" borderId="5" applyFont="1" applyNumberFormat="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" textRotation="0" wrapText="false" shrinkToFit="false"/>
+    </xf>
+    <xf xfId="0" fontId="4" numFmtId="0" fillId="2" borderId="6" applyFont="1" applyNumberFormat="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" textRotation="0" wrapText="false" shrinkToFit="false"/>
+    </xf>
+    <xf xfId="0" fontId="4" numFmtId="0" fillId="2" borderId="7" applyFont="1" applyNumberFormat="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" textRotation="0" wrapText="false" shrinkToFit="false"/>
+    </xf>
+    <xf xfId="0" fontId="4" numFmtId="0" fillId="2" borderId="5" applyFont="1" applyNumberFormat="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" shrinkToFit="false"/>
+    </xf>
+    <xf xfId="0" fontId="4" numFmtId="0" fillId="2" borderId="6" applyFont="1" applyNumberFormat="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" shrinkToFit="false"/>
+    </xf>
+    <xf xfId="0" fontId="4" numFmtId="0" fillId="2" borderId="7" applyFont="1" applyNumberFormat="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" shrinkToFit="false"/>
+    </xf>
+    <xf xfId="0" fontId="0" numFmtId="0" fillId="0" borderId="6" applyFont="0" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="false" shrinkToFit="false"/>
+    </xf>
+    <xf xfId="0" fontId="17" numFmtId="0" fillId="0" borderId="1" applyFont="1" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="false" shrinkToFit="false"/>
+    </xf>
     <xf xfId="0" fontId="12" numFmtId="0" fillId="0" borderId="0" applyFont="1" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" shrinkToFit="false"/>
     </xf>
@@ -865,13 +932,13 @@
     <xf xfId="0" fontId="0" numFmtId="0" fillId="0" borderId="7" applyFont="0" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" shrinkToFit="false"/>
     </xf>
-    <xf xfId="0" fontId="17" numFmtId="0" fillId="2" borderId="5" applyFont="1" applyNumberFormat="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf xfId="0" fontId="18" numFmtId="0" fillId="2" borderId="5" applyFont="1" applyNumberFormat="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" shrinkToFit="false"/>
     </xf>
-    <xf xfId="0" fontId="17" numFmtId="0" fillId="2" borderId="6" applyFont="1" applyNumberFormat="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf xfId="0" fontId="18" numFmtId="0" fillId="2" borderId="6" applyFont="1" applyNumberFormat="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" shrinkToFit="false"/>
     </xf>
-    <xf xfId="0" fontId="17" numFmtId="0" fillId="2" borderId="7" applyFont="1" applyNumberFormat="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf xfId="0" fontId="18" numFmtId="0" fillId="2" borderId="7" applyFont="1" applyNumberFormat="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" shrinkToFit="false"/>
     </xf>
     <xf xfId="0" fontId="0" numFmtId="0" fillId="0" borderId="0" applyFont="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="1">
@@ -892,46 +959,19 @@
     <xf xfId="0" fontId="0" numFmtId="0" fillId="0" borderId="0" applyFont="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="1">
       <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" shrinkToFit="false"/>
     </xf>
-    <xf xfId="0" fontId="18" numFmtId="0" fillId="0" borderId="0" applyFont="1" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="1">
+    <xf xfId="0" fontId="19" numFmtId="0" fillId="0" borderId="0" applyFont="1" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="1">
       <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" shrinkToFit="false"/>
     </xf>
     <xf xfId="0" fontId="3" numFmtId="0" fillId="0" borderId="0" applyFont="1" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="1">
       <alignment horizontal="right" vertical="bottom" textRotation="0" wrapText="false" shrinkToFit="false"/>
     </xf>
-    <xf xfId="0" fontId="3" numFmtId="0" fillId="0" borderId="0" applyFont="1" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" shrinkToFit="false"/>
-    </xf>
-    <xf xfId="0" fontId="15" numFmtId="0" fillId="2" borderId="5" applyFont="1" applyNumberFormat="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" shrinkToFit="false"/>
-    </xf>
-    <xf xfId="0" fontId="15" numFmtId="0" fillId="2" borderId="6" applyFont="1" applyNumberFormat="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" shrinkToFit="false"/>
-    </xf>
-    <xf xfId="0" fontId="15" numFmtId="0" fillId="2" borderId="7" applyFont="1" applyNumberFormat="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" shrinkToFit="false"/>
-    </xf>
-    <xf xfId="0" fontId="13" numFmtId="0" fillId="0" borderId="2" applyFont="1" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" textRotation="0" wrapText="false" shrinkToFit="false"/>
-    </xf>
-    <xf xfId="0" fontId="4" numFmtId="0" fillId="2" borderId="5" applyFont="1" applyNumberFormat="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" textRotation="0" wrapText="false" shrinkToFit="false"/>
-    </xf>
-    <xf xfId="0" fontId="4" numFmtId="0" fillId="2" borderId="6" applyFont="1" applyNumberFormat="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" textRotation="0" wrapText="false" shrinkToFit="false"/>
-    </xf>
-    <xf xfId="0" fontId="4" numFmtId="0" fillId="2" borderId="7" applyFont="1" applyNumberFormat="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" textRotation="0" wrapText="false" shrinkToFit="false"/>
-    </xf>
-    <xf xfId="0" fontId="4" numFmtId="0" fillId="2" borderId="5" applyFont="1" applyNumberFormat="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" shrinkToFit="false"/>
-    </xf>
-    <xf xfId="0" fontId="4" numFmtId="0" fillId="2" borderId="6" applyFont="1" applyNumberFormat="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" shrinkToFit="false"/>
-    </xf>
-    <xf xfId="0" fontId="4" numFmtId="0" fillId="2" borderId="7" applyFont="1" applyNumberFormat="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" shrinkToFit="false"/>
-    </xf>
-    <xf xfId="0" fontId="19" numFmtId="0" fillId="0" borderId="0" applyFont="1" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="1">
+    <xf xfId="0" fontId="4" numFmtId="0" fillId="0" borderId="0" applyFont="1" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="1">
+      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="false" shrinkToFit="false"/>
+    </xf>
+    <xf xfId="0" fontId="0" numFmtId="0" fillId="0" borderId="1" applyFont="0" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="false" shrinkToFit="false"/>
+    </xf>
+    <xf xfId="0" fontId="20" numFmtId="0" fillId="0" borderId="0" applyFont="1" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="1">
       <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" shrinkToFit="false"/>
     </xf>
     <xf xfId="0" fontId="16" numFmtId="0" fillId="0" borderId="0" applyFont="1" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="1">
@@ -942,43 +982,6 @@
     </xf>
     <xf xfId="0" fontId="16" numFmtId="0" fillId="0" borderId="2" applyFont="1" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" shrinkToFit="false"/>
-    </xf>
-    <xf xfId="0" fontId="4" numFmtId="0" fillId="0" borderId="0" applyFont="1" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="1">
-      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="false" shrinkToFit="false"/>
-    </xf>
-    <xf xfId="0" fontId="4" numFmtId="0" fillId="0" borderId="0" applyFont="1" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="1">
-      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" shrinkToFit="false"/>
-    </xf>
-    <xf xfId="0" fontId="0" numFmtId="0" fillId="0" borderId="0" applyFont="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" shrinkToFit="false"/>
-    </xf>
-    <xf xfId="0" fontId="4" numFmtId="0" fillId="0" borderId="0" applyFont="1" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="1">
-      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" shrinkToFit="false"/>
-    </xf>
-    <xf xfId="0" fontId="4" numFmtId="0" fillId="0" borderId="1" applyFont="1" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="false" shrinkToFit="false"/>
-    </xf>
-    <xf xfId="0" fontId="4" numFmtId="0" fillId="0" borderId="6" applyFont="1" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="false" shrinkToFit="false"/>
-    </xf>
-    <xf xfId="0" fontId="0" numFmtId="0" fillId="0" borderId="1" applyFont="0" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="false" shrinkToFit="false"/>
-    </xf>
-    <xf xfId="0" fontId="4" numFmtId="0" fillId="0" borderId="1" applyFont="1" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" textRotation="0" wrapText="false" shrinkToFit="false"/>
-    </xf>
-    <xf xfId="0" fontId="6" numFmtId="0" fillId="0" borderId="1" applyFont="1" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="false" shrinkToFit="false"/>
-    </xf>
-    <xf xfId="0" fontId="4" numFmtId="0" fillId="0" borderId="1" applyFont="1" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="0"/>
-    <xf xfId="0" fontId="20" numFmtId="0" fillId="0" borderId="1" applyFont="1" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="false" shrinkToFit="false"/>
-    </xf>
-    <xf xfId="0" fontId="0" numFmtId="0" fillId="0" borderId="6" applyFont="0" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="false" shrinkToFit="false"/>
-    </xf>
-    <xf xfId="0" fontId="1" numFmtId="0" fillId="0" borderId="0" applyFont="1" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="1">
-      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="true" shrinkToFit="false"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -1179,19 +1182,19 @@
         </xdr:from>
         <xdr:to>
           <xdr:col>4</xdr:col>
-          <xdr:colOff>63501</xdr:colOff>
+          <xdr:colOff>63500</xdr:colOff>
           <xdr:row>62</xdr:row>
           <xdr:rowOff>139700</xdr:rowOff>
         </xdr:to>
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
-            <xdr:cNvPr id="19" name="Check Box 2" hidden="1">
+            <xdr:cNvPr id="3" name="Check Box 2" hidden="1">
               <a:extLst>
                 <a:ext uri="{63B3BB69-23CF-44E3-9099-C40C66FF867C}">
                   <a14:compatExt spid="_x0000_s1026"/>
                 </a:ext>
                 <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000013000000}"/>
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000003000000}"/>
                 </a:ext>
               </a:extLst>
             </xdr:cNvPr>
@@ -1252,13 +1255,13 @@
         </xdr:to>
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
-            <xdr:cNvPr id="20" name="Check Box 4" hidden="1">
+            <xdr:cNvPr id="1028" name="Check Box 4" hidden="1">
               <a:extLst>
                 <a:ext uri="{63B3BB69-23CF-44E3-9099-C40C66FF867C}">
                   <a14:compatExt spid="_x0000_s1028"/>
                 </a:ext>
                 <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000014000000}"/>
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000004040000}"/>
                 </a:ext>
               </a:extLst>
             </xdr:cNvPr>
@@ -1313,7 +1316,7 @@
         </xdr:from>
         <xdr:to>
           <xdr:col>7</xdr:col>
-          <xdr:colOff>558799</xdr:colOff>
+          <xdr:colOff>558800</xdr:colOff>
           <xdr:row>10</xdr:row>
           <xdr:rowOff>38100</xdr:rowOff>
         </xdr:to>
@@ -1441,15 +1444,15 @@
       <xdr:twoCellAnchor editAs="oneCell">
         <xdr:from>
           <xdr:col>7</xdr:col>
-          <xdr:colOff>454024</xdr:colOff>
+          <xdr:colOff>457200</xdr:colOff>
           <xdr:row>23</xdr:row>
-          <xdr:rowOff>93663</xdr:rowOff>
+          <xdr:rowOff>88900</xdr:rowOff>
         </xdr:from>
         <xdr:to>
           <xdr:col>9</xdr:col>
-          <xdr:colOff>47625</xdr:colOff>
+          <xdr:colOff>50800</xdr:colOff>
           <xdr:row>27</xdr:row>
-          <xdr:rowOff>4763</xdr:rowOff>
+          <xdr:rowOff>0</xdr:rowOff>
         </xdr:to>
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
@@ -1514,7 +1517,7 @@
         </xdr:from>
         <xdr:to>
           <xdr:col>7</xdr:col>
-          <xdr:colOff>507999</xdr:colOff>
+          <xdr:colOff>508000</xdr:colOff>
           <xdr:row>27</xdr:row>
           <xdr:rowOff>12700</xdr:rowOff>
         </xdr:to>
@@ -2000,8 +2003,8 @@
   </sheetPr>
   <dimension ref="A1:R82"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0" zoomScale="160" zoomScaleNormal="55" view="pageBreakPreview" showGridLines="true" showRowColHeaders="1" topLeftCell="A6">
-      <selection activeCell="G68" sqref="G68"/>
+    <sheetView tabSelected="1" workbookViewId="0" zoomScale="160" zoomScaleNormal="55" view="pageBreakPreview" showGridLines="true" showRowColHeaders="1" topLeftCell="A43">
+      <selection activeCell="H52" sqref="H52:K52"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" defaultColWidth="9.1640625" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -2016,10 +2019,10 @@
   </cols>
   <sheetData>
     <row r="2" spans="1:18">
-      <c r="J2" s="49" t="s">
+      <c r="J2" s="71" t="s">
         <v>0</v>
       </c>
-      <c r="K2" s="50"/>
+      <c r="K2" s="72"/>
     </row>
     <row r="3" spans="1:18" customHeight="1" ht="16">
       <c r="B3"/>
@@ -2027,37 +2030,37 @@
       <c r="I3" s="26"/>
     </row>
     <row r="4" spans="1:18" customHeight="1" ht="13.5">
-      <c r="C4" s="56" t="s">
+      <c r="C4" s="78" t="s">
         <v>1</v>
       </c>
-      <c r="D4" s="57"/>
-      <c r="E4" s="57"/>
-      <c r="F4" s="57"/>
-      <c r="G4" s="57"/>
-      <c r="H4" s="57"/>
-      <c r="I4" s="57"/>
+      <c r="D4" s="79"/>
+      <c r="E4" s="79"/>
+      <c r="F4" s="79"/>
+      <c r="G4" s="79"/>
+      <c r="H4" s="79"/>
+      <c r="I4" s="79"/>
     </row>
     <row r="5" spans="1:18" customHeight="1" ht="16">
       <c r="C5" s="27"/>
-      <c r="D5" s="58" t="s">
+      <c r="D5" s="80" t="s">
         <v>2</v>
       </c>
-      <c r="E5" s="58"/>
-      <c r="F5" s="58"/>
-      <c r="G5" s="58"/>
-      <c r="H5" s="58"/>
+      <c r="E5" s="80"/>
+      <c r="F5" s="80"/>
+      <c r="G5" s="80"/>
+      <c r="H5" s="80"/>
       <c r="I5" s="27"/>
     </row>
     <row r="6" spans="1:18">
-      <c r="C6" s="60" t="s">
+      <c r="C6" s="82" t="s">
         <v>3</v>
       </c>
-      <c r="D6" s="59"/>
-      <c r="E6" s="59"/>
-      <c r="F6" s="59"/>
-      <c r="G6" s="59"/>
-      <c r="H6" s="59"/>
-      <c r="I6" s="59"/>
+      <c r="D6" s="81"/>
+      <c r="E6" s="81"/>
+      <c r="F6" s="81"/>
+      <c r="G6" s="81"/>
+      <c r="H6" s="81"/>
+      <c r="I6" s="81"/>
     </row>
     <row r="7" spans="1:18" customHeight="1" ht="4.5"/>
     <row r="8" spans="1:18">
@@ -2073,15 +2076,15 @@
       <c r="R8" s="4"/>
     </row>
     <row r="9" spans="1:18">
-      <c r="A9" s="59" t="s">
+      <c r="A9" s="81" t="s">
         <v>5</v>
       </c>
-      <c r="B9" s="59"/>
-      <c r="C9" s="77" t="s">
+      <c r="B9" s="81"/>
+      <c r="C9" s="84" t="s">
         <v>6</v>
       </c>
-      <c r="D9" s="77"/>
-      <c r="E9" s="77"/>
+      <c r="D9" s="84"/>
+      <c r="E9" s="84"/>
       <c r="G9" s="7" t="s">
         <v>7</v>
       </c>
@@ -2123,19 +2126,19 @@
     </row>
     <row r="13" spans="1:18" customHeight="1" ht="11.25"/>
     <row r="14" spans="1:18" customHeight="1" ht="14.25">
-      <c r="A14" s="51" t="s">
+      <c r="A14" s="73" t="s">
         <v>13</v>
       </c>
-      <c r="B14" s="52"/>
-      <c r="C14" s="52"/>
-      <c r="D14" s="52"/>
-      <c r="E14" s="52"/>
-      <c r="F14" s="52"/>
-      <c r="G14" s="52"/>
-      <c r="H14" s="52"/>
-      <c r="I14" s="52"/>
-      <c r="J14" s="52"/>
-      <c r="K14" s="53"/>
+      <c r="B14" s="74"/>
+      <c r="C14" s="74"/>
+      <c r="D14" s="74"/>
+      <c r="E14" s="74"/>
+      <c r="F14" s="74"/>
+      <c r="G14" s="74"/>
+      <c r="H14" s="74"/>
+      <c r="I14" s="74"/>
+      <c r="J14" s="74"/>
+      <c r="K14" s="75"/>
     </row>
     <row r="15" spans="1:18" customHeight="1" ht="12.75">
       <c r="A15" t="s">
@@ -2151,61 +2154,61 @@
       <c r="A16" t="s">
         <v>15</v>
       </c>
-      <c r="D16" s="82" t="s">
+      <c r="D16" s="53" t="s">
         <v>16</v>
       </c>
-      <c r="E16" s="82"/>
-      <c r="F16" s="82"/>
-      <c r="G16" s="82"/>
-      <c r="H16" s="82"/>
-      <c r="I16" s="80" t="s">
+      <c r="E16" s="53"/>
+      <c r="F16" s="53"/>
+      <c r="G16" s="53"/>
+      <c r="H16" s="53"/>
+      <c r="I16" s="55" t="s">
         <v>17</v>
       </c>
-      <c r="J16" s="80"/>
-      <c r="K16" s="80"/>
+      <c r="J16" s="55"/>
+      <c r="K16" s="55"/>
     </row>
     <row r="18" spans="1:18" customHeight="1" ht="12.75">
       <c r="A18" t="s">
         <v>18</v>
       </c>
-      <c r="B18" s="81" t="s">
+      <c r="B18" s="52" t="s">
         <v>19</v>
       </c>
-      <c r="C18" s="81"/>
-      <c r="D18" s="81"/>
-      <c r="E18" s="81"/>
-      <c r="F18" s="81"/>
-      <c r="G18" s="81"/>
-      <c r="H18" s="81"/>
-      <c r="I18" s="81"/>
+      <c r="C18" s="52"/>
+      <c r="D18" s="52"/>
+      <c r="E18" s="52"/>
+      <c r="F18" s="52"/>
+      <c r="G18" s="52"/>
+      <c r="H18" s="52"/>
+      <c r="I18" s="52"/>
     </row>
     <row r="20" spans="1:18">
       <c r="A20" t="s">
         <v>20</v>
       </c>
-      <c r="B20" s="81" t="s">
+      <c r="B20" s="52" t="s">
         <v>21</v>
       </c>
-      <c r="C20" s="81"/>
-      <c r="D20" s="81"/>
-      <c r="E20" s="81"/>
-      <c r="F20" s="81"/>
-      <c r="G20" s="81"/>
-      <c r="H20" s="81"/>
-      <c r="I20" s="81"/>
+      <c r="C20" s="52"/>
+      <c r="D20" s="52"/>
+      <c r="E20" s="52"/>
+      <c r="F20" s="52"/>
+      <c r="G20" s="52"/>
+      <c r="H20" s="52"/>
+      <c r="I20" s="52"/>
     </row>
     <row r="22" spans="1:18">
       <c r="A22" t="s">
         <v>22</v>
       </c>
-      <c r="B22" s="83"/>
-      <c r="C22" s="83"/>
-      <c r="D22" s="83"/>
-      <c r="E22" s="83"/>
-      <c r="F22" s="83"/>
-      <c r="G22" s="83"/>
-      <c r="H22" s="83"/>
-      <c r="I22" s="83"/>
+      <c r="B22" s="85"/>
+      <c r="C22" s="85"/>
+      <c r="D22" s="85"/>
+      <c r="E22" s="85"/>
+      <c r="F22" s="85"/>
+      <c r="G22" s="85"/>
+      <c r="H22" s="85"/>
+      <c r="I22" s="85"/>
     </row>
     <row r="23" spans="1:18" customHeight="1" ht="9.75"/>
     <row r="24" spans="1:18" customHeight="1" ht="11.25">
@@ -2220,20 +2223,20 @@
       <c r="A26" t="s">
         <v>24</v>
       </c>
-      <c r="B26" s="78" t="s">
+      <c r="B26" s="48" t="s">
         <v>25</v>
       </c>
-      <c r="C26" s="78" t="s">
+      <c r="C26" s="48" t="s">
         <v>26</v>
       </c>
-      <c r="D26" s="78">
-        <v>10</v>
-      </c>
-      <c r="E26" s="78" t="s">
+      <c r="D26" s="48" t="s">
+        <v>25</v>
+      </c>
+      <c r="E26" s="48" t="s">
         <v>26</v>
       </c>
-      <c r="F26" s="78">
-        <v>2014</v>
+      <c r="F26" s="48">
+        <v>2015</v>
       </c>
       <c r="G26" s="1" t="s">
         <v>27</v>
@@ -2244,11 +2247,11 @@
       <c r="I26" s="6" t="s">
         <v>29</v>
       </c>
-      <c r="J26" s="79" t="s">
+      <c r="J26" s="49" t="s">
         <v>30</v>
       </c>
-      <c r="K26" s="84">
-        <v>9</v>
+      <c r="K26" s="50">
+        <v>8</v>
       </c>
     </row>
     <row r="27" spans="1:18" customHeight="1" ht="9">
@@ -2265,18 +2268,18 @@
       <c r="A28" s="7" t="s">
         <v>32</v>
       </c>
-      <c r="B28" s="85" t="s">
+      <c r="B28" s="56" t="s">
         <v>33</v>
       </c>
-      <c r="C28" s="85"/>
-      <c r="D28" s="85"/>
-      <c r="E28" s="85"/>
-      <c r="F28" s="85"/>
-      <c r="G28" s="61" t="s">
+      <c r="C28" s="56"/>
+      <c r="D28" s="56"/>
+      <c r="E28" s="56"/>
+      <c r="F28" s="56"/>
+      <c r="G28" s="83" t="s">
         <v>34</v>
       </c>
-      <c r="H28" s="61"/>
-      <c r="I28" s="61"/>
+      <c r="H28" s="83"/>
+      <c r="I28" s="83"/>
       <c r="J28" s="10"/>
       <c r="K28" s="10"/>
     </row>
@@ -2284,15 +2287,15 @@
       <c r="A29" s="7" t="s">
         <v>35</v>
       </c>
-      <c r="D29" s="54" t="s">
+      <c r="D29" s="76" t="s">
         <v>36</v>
       </c>
-      <c r="E29" s="54"/>
-      <c r="F29" s="54"/>
-      <c r="G29" s="55" t="s">
+      <c r="E29" s="76"/>
+      <c r="F29" s="76"/>
+      <c r="G29" s="77" t="s">
         <v>37</v>
       </c>
-      <c r="H29" s="55"/>
+      <c r="H29" s="77"/>
       <c r="I29" s="2"/>
       <c r="J29" s="2"/>
     </row>
@@ -2300,11 +2303,11 @@
       <c r="A30" s="12" t="s">
         <v>38</v>
       </c>
-      <c r="D30" s="54"/>
-      <c r="E30" s="54"/>
-      <c r="F30" s="54"/>
-      <c r="G30" s="55"/>
-      <c r="H30" s="55"/>
+      <c r="D30" s="76"/>
+      <c r="E30" s="76"/>
+      <c r="F30" s="76"/>
+      <c r="G30" s="77"/>
+      <c r="H30" s="77"/>
       <c r="I30" s="23"/>
       <c r="J30" s="23"/>
       <c r="K30" s="10"/>
@@ -2316,12 +2319,12 @@
       <c r="G31" t="s">
         <v>40</v>
       </c>
-      <c r="H31" s="81" t="s">
+      <c r="H31" s="52" t="s">
         <v>41</v>
       </c>
-      <c r="I31" s="81"/>
-      <c r="J31" s="81"/>
-      <c r="K31" s="81"/>
+      <c r="I31" s="52"/>
+      <c r="J31" s="52"/>
+      <c r="K31" s="52"/>
     </row>
     <row r="32" spans="1:18" customHeight="1" ht="4.5"/>
     <row r="33" spans="1:18" customHeight="1" ht="13.5" s="36" customFormat="1">
@@ -2345,19 +2348,19 @@
       </c>
     </row>
     <row r="35" spans="1:18" customHeight="1" ht="12">
-      <c r="A35" s="81" t="s">
+      <c r="A35" s="52" t="s">
         <v>44</v>
       </c>
-      <c r="B35" s="81"/>
-      <c r="C35" s="81"/>
-      <c r="D35" s="81"/>
-      <c r="E35" s="81"/>
-      <c r="F35" s="81"/>
-      <c r="G35" s="81"/>
-      <c r="H35" s="81"/>
-      <c r="I35" s="81"/>
-      <c r="J35" s="81"/>
-      <c r="K35" s="81"/>
+      <c r="B35" s="52"/>
+      <c r="C35" s="52"/>
+      <c r="D35" s="52"/>
+      <c r="E35" s="52"/>
+      <c r="F35" s="52"/>
+      <c r="G35" s="52"/>
+      <c r="H35" s="52"/>
+      <c r="I35" s="52"/>
+      <c r="J35" s="52"/>
+      <c r="K35" s="52"/>
     </row>
     <row r="36" spans="1:18" customHeight="1" ht="12">
       <c r="A36" s="24" t="s">
@@ -2366,19 +2369,19 @@
       <c r="B36" s="16"/>
     </row>
     <row r="37" spans="1:18">
-      <c r="A37" s="81" t="s">
+      <c r="A37" s="52" t="s">
         <v>46</v>
       </c>
-      <c r="B37" s="81"/>
-      <c r="C37" s="81"/>
-      <c r="D37" s="81"/>
-      <c r="E37" s="81"/>
-      <c r="F37" s="81"/>
-      <c r="G37" s="81"/>
-      <c r="H37" s="81"/>
-      <c r="I37" s="81"/>
-      <c r="J37" s="81"/>
-      <c r="K37" s="81"/>
+      <c r="B37" s="52"/>
+      <c r="C37" s="52"/>
+      <c r="D37" s="52"/>
+      <c r="E37" s="52"/>
+      <c r="F37" s="52"/>
+      <c r="G37" s="52"/>
+      <c r="H37" s="52"/>
+      <c r="I37" s="52"/>
+      <c r="J37" s="52"/>
+      <c r="K37" s="52"/>
     </row>
     <row r="38" spans="1:18" customHeight="1" ht="12.75">
       <c r="A38" s="11" t="s">
@@ -2388,37 +2391,37 @@
       <c r="C38" s="7"/>
       <c r="D38" s="7"/>
       <c r="E38" s="7"/>
-      <c r="H38" s="48" t="s">
+      <c r="H38" s="70" t="s">
         <v>48</v>
       </c>
     </row>
     <row r="39" spans="1:18" customHeight="1" ht="13.5">
-      <c r="A39" s="81" t="s">
+      <c r="A39" s="52" t="s">
         <v>49</v>
       </c>
-      <c r="B39" s="81"/>
-      <c r="C39" s="81"/>
-      <c r="D39" s="81"/>
-      <c r="E39" s="81"/>
-      <c r="F39" s="81"/>
-      <c r="G39" s="81"/>
-      <c r="H39" s="48"/>
+      <c r="B39" s="52"/>
+      <c r="C39" s="52"/>
+      <c r="D39" s="52"/>
+      <c r="E39" s="52"/>
+      <c r="F39" s="52"/>
+      <c r="G39" s="52"/>
+      <c r="H39" s="70"/>
     </row>
     <row r="40" spans="1:18" customHeight="1" ht="3.75"/>
     <row r="41" spans="1:18" customHeight="1" ht="15">
-      <c r="A41" s="67" t="s">
+      <c r="A41" s="62" t="s">
         <v>50</v>
       </c>
-      <c r="B41" s="68"/>
-      <c r="C41" s="68"/>
-      <c r="D41" s="68"/>
-      <c r="E41" s="68"/>
-      <c r="F41" s="68"/>
-      <c r="G41" s="68"/>
-      <c r="H41" s="68"/>
-      <c r="I41" s="68"/>
-      <c r="J41" s="68"/>
-      <c r="K41" s="69"/>
+      <c r="B41" s="63"/>
+      <c r="C41" s="63"/>
+      <c r="D41" s="63"/>
+      <c r="E41" s="63"/>
+      <c r="F41" s="63"/>
+      <c r="G41" s="63"/>
+      <c r="H41" s="63"/>
+      <c r="I41" s="63"/>
+      <c r="J41" s="63"/>
+      <c r="K41" s="64"/>
     </row>
     <row r="42" spans="1:18" customHeight="1" ht="10.5">
       <c r="A42" s="31" t="s">
@@ -2433,37 +2436,35 @@
       <c r="K42" s="12"/>
     </row>
     <row r="43" spans="1:18" customHeight="1" ht="16.5">
-      <c r="A43" s="81" t="s">
+      <c r="A43" s="52" t="s">
         <v>53</v>
       </c>
-      <c r="B43" s="81"/>
-      <c r="C43" s="81" t="s">
+      <c r="B43" s="52"/>
+      <c r="C43" s="52" t="s">
         <v>54</v>
       </c>
-      <c r="D43" s="81"/>
-      <c r="E43" s="86" t="s">
+      <c r="D43" s="52"/>
+      <c r="E43" s="51"/>
+      <c r="G43" s="52" t="s">
         <v>55</v>
       </c>
-      <c r="G43" s="81" t="s">
+      <c r="H43" s="52"/>
+      <c r="I43" s="52" t="s">
         <v>56</v>
       </c>
-      <c r="H43" s="81"/>
-      <c r="I43" s="81" t="s">
+      <c r="J43" s="52"/>
+      <c r="K43" s="51"/>
+    </row>
+    <row r="44" spans="1:18" customHeight="1" ht="16.5">
+      <c r="A44" s="61" t="s">
         <v>57</v>
       </c>
-      <c r="J43" s="81"/>
-      <c r="K43" s="86"/>
-    </row>
-    <row r="44" spans="1:18" customHeight="1" ht="16.5">
-      <c r="A44" s="66" t="s">
+      <c r="B44" s="61"/>
+      <c r="C44" s="61"/>
+      <c r="D44" s="61"/>
+      <c r="E44" s="61"/>
+      <c r="G44" s="29" t="s">
         <v>58</v>
-      </c>
-      <c r="B44" s="66"/>
-      <c r="C44" s="66"/>
-      <c r="D44" s="66"/>
-      <c r="E44" s="66"/>
-      <c r="G44" s="29" t="s">
-        <v>59</v>
       </c>
       <c r="H44" s="29"/>
       <c r="I44" s="29"/>
@@ -2471,157 +2472,166 @@
     </row>
     <row r="45" spans="1:18" customHeight="1" ht="11.25">
       <c r="A45" s="42" t="s">
+        <v>59</v>
+      </c>
+      <c r="G45" s="42" t="s">
         <v>60</v>
-      </c>
-      <c r="G45" s="42" t="s">
-        <v>61</v>
       </c>
       <c r="H45" s="30"/>
       <c r="I45" s="30"/>
       <c r="J45" s="30"/>
     </row>
     <row r="46" spans="1:18" customHeight="1" ht="15">
-      <c r="A46" s="81" t="s">
+      <c r="A46" s="52" t="s">
+        <v>61</v>
+      </c>
+      <c r="B46" s="52"/>
+      <c r="C46" s="52"/>
+      <c r="D46" s="52"/>
+      <c r="E46" s="52"/>
+      <c r="G46" s="69" t="s">
         <v>62</v>
       </c>
-      <c r="B46" s="81"/>
-      <c r="C46" s="81"/>
-      <c r="D46" s="81"/>
-      <c r="E46" s="81"/>
-      <c r="G46" s="87" t="s">
-        <v>63</v>
-      </c>
-      <c r="H46" s="87"/>
-      <c r="I46" s="87"/>
-      <c r="J46" s="87"/>
-      <c r="K46" s="87"/>
+      <c r="H46" s="69"/>
+      <c r="I46" s="69"/>
+      <c r="J46" s="69"/>
+      <c r="K46" s="69"/>
     </row>
     <row r="47" spans="1:18" customHeight="1" ht="11.25">
       <c r="A47" s="43" t="s">
+        <v>63</v>
+      </c>
+      <c r="G47" s="42" t="s">
         <v>64</v>
-      </c>
-      <c r="G47" s="42" t="s">
-        <v>65</v>
       </c>
       <c r="H47" s="30"/>
       <c r="I47" s="30"/>
       <c r="J47" s="30"/>
     </row>
     <row r="48" spans="1:18" customHeight="1" ht="15">
-      <c r="A48" s="81" t="s">
-        <v>66</v>
-      </c>
-      <c r="B48" s="81"/>
-      <c r="C48" s="81"/>
-      <c r="D48" s="81"/>
-      <c r="E48" s="81"/>
-      <c r="G48" s="81" t="s">
-        <v>67</v>
-      </c>
-      <c r="H48" s="81"/>
-      <c r="I48" s="81"/>
-      <c r="J48" s="81"/>
-      <c r="K48" s="81"/>
+      <c r="A48" s="52" t="s">
+        <v>65</v>
+      </c>
+      <c r="B48" s="52"/>
+      <c r="C48" s="52"/>
+      <c r="D48" s="52"/>
+      <c r="E48" s="52"/>
+      <c r="G48" s="52" t="s">
+        <v>65</v>
+      </c>
+      <c r="H48" s="52"/>
+      <c r="I48" s="52"/>
+      <c r="J48" s="52"/>
+      <c r="K48" s="52"/>
     </row>
     <row r="49" spans="1:18" customHeight="1" ht="15.75">
       <c r="A49" s="44" t="s">
+        <v>66</v>
+      </c>
+      <c r="B49" s="53" t="s">
+        <v>67</v>
+      </c>
+      <c r="C49" s="53"/>
+      <c r="D49" s="53"/>
+      <c r="E49" s="53"/>
+      <c r="G49" s="45" t="s">
+        <v>66</v>
+      </c>
+      <c r="H49" s="53" t="s">
         <v>68</v>
       </c>
-      <c r="B49" s="82" t="s">
-        <v>69</v>
-      </c>
-      <c r="C49" s="82"/>
-      <c r="D49" s="82"/>
-      <c r="E49" s="82"/>
-      <c r="G49" s="45" t="s">
-        <v>68</v>
-      </c>
-      <c r="H49" s="82" t="s">
-        <v>70</v>
-      </c>
-      <c r="I49" s="82"/>
-      <c r="J49" s="82"/>
-      <c r="K49" s="82"/>
+      <c r="I49" s="53"/>
+      <c r="J49" s="53"/>
+      <c r="K49" s="53"/>
     </row>
     <row r="50" spans="1:18" customHeight="1" ht="15.75">
       <c r="A50" s="44" t="s">
+        <v>69</v>
+      </c>
+      <c r="B50" s="68" t="s">
+        <v>70</v>
+      </c>
+      <c r="C50" s="68"/>
+      <c r="D50" s="68"/>
+      <c r="E50" s="68"/>
+      <c r="G50" s="44" t="s">
+        <v>69</v>
+      </c>
+      <c r="H50" s="53" t="s">
         <v>71</v>
       </c>
-      <c r="B50" s="88" t="s">
-        <v>72</v>
-      </c>
-      <c r="C50" s="88"/>
-      <c r="D50" s="88"/>
-      <c r="E50" s="88"/>
-      <c r="G50" s="44" t="s">
-        <v>71</v>
-      </c>
-      <c r="H50" s="82" t="s">
-        <v>73</v>
-      </c>
-      <c r="I50" s="82"/>
-      <c r="J50" s="82"/>
-      <c r="K50" s="82"/>
+      <c r="I50" s="53"/>
+      <c r="J50" s="53"/>
+      <c r="K50" s="53"/>
     </row>
     <row r="51" spans="1:18" customHeight="1" ht="16.5">
       <c r="A51" s="31" t="s">
+        <v>72</v>
+      </c>
+      <c r="G51" s="31" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="52" spans="1:18" customHeight="1" ht="17.25">
+      <c r="A52" s="52" t="s">
         <v>74</v>
       </c>
-      <c r="G51" s="31" t="s">
+      <c r="B52" s="52"/>
+      <c r="C52" s="52" t="s">
         <v>75</v>
       </c>
-    </row>
-    <row r="52" spans="1:18" customHeight="1" ht="17.25">
-      <c r="A52" t="s">
+      <c r="D52" s="52"/>
+      <c r="E52" s="51"/>
+      <c r="H52" s="52" t="s">
         <v>76</v>
       </c>
-      <c r="E52" s="10"/>
-      <c r="H52" s="10"/>
-      <c r="I52" s="10"/>
-      <c r="J52" s="10"/>
-      <c r="K52" s="10"/>
+      <c r="I52" s="52"/>
+      <c r="J52" s="52"/>
+      <c r="K52" s="52"/>
     </row>
     <row r="53" spans="1:18" customHeight="1" ht="18">
-      <c r="A53" s="66" t="s">
+      <c r="A53" s="61" t="s">
         <v>77</v>
       </c>
-      <c r="B53" s="66"/>
-      <c r="C53" s="66"/>
-      <c r="D53" s="66"/>
-      <c r="E53" s="66"/>
+      <c r="B53" s="61"/>
+      <c r="C53" s="61"/>
+      <c r="D53" s="61"/>
+      <c r="E53" s="61"/>
       <c r="G53" s="45" t="s">
-        <v>68</v>
-      </c>
-      <c r="H53" s="10"/>
+        <v>66</v>
+      </c>
+      <c r="H53" s="10" t="s">
+        <v>78</v>
+      </c>
       <c r="I53" s="10"/>
       <c r="J53" s="10"/>
       <c r="K53" s="40"/>
     </row>
     <row r="54" spans="1:18" customHeight="1" ht="4.5"/>
     <row r="55" spans="1:18" customHeight="1" ht="13.5">
-      <c r="A55" s="70" t="s">
-        <v>78</v>
-      </c>
-      <c r="B55" s="71"/>
-      <c r="C55" s="71"/>
-      <c r="D55" s="71"/>
-      <c r="E55" s="71"/>
-      <c r="F55" s="71"/>
-      <c r="G55" s="71"/>
-      <c r="H55" s="71"/>
-      <c r="I55" s="71"/>
-      <c r="J55" s="71"/>
-      <c r="K55" s="72"/>
+      <c r="A55" s="65" t="s">
+        <v>79</v>
+      </c>
+      <c r="B55" s="66"/>
+      <c r="C55" s="66"/>
+      <c r="D55" s="66"/>
+      <c r="E55" s="66"/>
+      <c r="F55" s="66"/>
+      <c r="G55" s="66"/>
+      <c r="H55" s="66"/>
+      <c r="I55" s="66"/>
+      <c r="J55" s="66"/>
+      <c r="K55" s="67"/>
     </row>
     <row r="56" spans="1:18" customHeight="1" ht="15.75">
       <c r="A56" s="7" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="B56" s="7"/>
       <c r="C56" s="17"/>
       <c r="D56" s="10"/>
       <c r="E56" s="7" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="F56" s="3"/>
       <c r="G56" s="3"/>
@@ -2630,26 +2640,26 @@
     </row>
     <row r="57" spans="1:18" customHeight="1" ht="14.25">
       <c r="A57" s="7" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="B57" s="10"/>
       <c r="C57" s="10"/>
       <c r="D57" s="10"/>
       <c r="E57" s="10"/>
       <c r="F57" s="10"/>
-      <c r="G57" s="62" t="s">
-        <v>82</v>
+      <c r="G57" s="57" t="s">
+        <v>83</v>
       </c>
       <c r="H57" s="34"/>
     </row>
     <row r="58" spans="1:18" customHeight="1" ht="8.25">
       <c r="A58" s="7"/>
-      <c r="G58" s="62"/>
+      <c r="G58" s="57"/>
       <c r="H58" s="34"/>
     </row>
     <row r="59" spans="1:18" customHeight="1" ht="15">
       <c r="A59" s="7" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="B59" s="10"/>
       <c r="C59" s="10"/>
@@ -2662,41 +2672,41 @@
       <c r="A60" s="7"/>
     </row>
     <row r="61" spans="1:18" customHeight="1" ht="13.5">
-      <c r="A61" s="63" t="s">
-        <v>84</v>
-      </c>
-      <c r="B61" s="64"/>
-      <c r="C61" s="64"/>
-      <c r="D61" s="64"/>
-      <c r="E61" s="64"/>
-      <c r="F61" s="64"/>
-      <c r="G61" s="64"/>
-      <c r="H61" s="64"/>
-      <c r="I61" s="64"/>
-      <c r="J61" s="64"/>
-      <c r="K61" s="65"/>
+      <c r="A61" s="58" t="s">
+        <v>85</v>
+      </c>
+      <c r="B61" s="59"/>
+      <c r="C61" s="59"/>
+      <c r="D61" s="59"/>
+      <c r="E61" s="59"/>
+      <c r="F61" s="59"/>
+      <c r="G61" s="59"/>
+      <c r="H61" s="59"/>
+      <c r="I61" s="59"/>
+      <c r="J61" s="59"/>
+      <c r="K61" s="60"/>
     </row>
     <row r="62" spans="1:18" customHeight="1" ht="11.25">
       <c r="A62" s="7" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="B62" s="18" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="D62" s="18" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="E62" s="18"/>
     </row>
     <row r="63" spans="1:18" customHeight="1" ht="14.25">
       <c r="A63" s="7" t="s">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="B63" s="10"/>
       <c r="C63" s="10"/>
       <c r="D63" s="10"/>
       <c r="F63" s="7" t="s">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="G63" s="17"/>
       <c r="H63" s="10"/>
@@ -2706,45 +2716,45 @@
     </row>
     <row r="64" spans="1:18" customHeight="1" ht="12"/>
     <row r="65" spans="1:18" customHeight="1" ht="13.5">
-      <c r="A65" s="89" t="s">
-        <v>90</v>
-      </c>
-      <c r="B65" s="89"/>
-      <c r="C65" s="89"/>
-      <c r="D65" s="89"/>
-      <c r="E65" s="89"/>
-      <c r="F65" s="89"/>
-      <c r="G65" s="89"/>
-      <c r="H65" s="89"/>
-      <c r="I65" s="89"/>
-      <c r="J65" s="89"/>
-      <c r="K65" s="89"/>
+      <c r="A65" s="54" t="s">
+        <v>91</v>
+      </c>
+      <c r="B65" s="54"/>
+      <c r="C65" s="54"/>
+      <c r="D65" s="54"/>
+      <c r="E65" s="54"/>
+      <c r="F65" s="54"/>
+      <c r="G65" s="54"/>
+      <c r="H65" s="54"/>
+      <c r="I65" s="54"/>
+      <c r="J65" s="54"/>
+      <c r="K65" s="54"/>
     </row>
     <row r="66" spans="1:18" customHeight="1" ht="13.5">
-      <c r="A66" s="89"/>
-      <c r="B66" s="89"/>
-      <c r="C66" s="89"/>
-      <c r="D66" s="89"/>
-      <c r="E66" s="89"/>
-      <c r="F66" s="89"/>
-      <c r="G66" s="89"/>
-      <c r="H66" s="89"/>
-      <c r="I66" s="89"/>
-      <c r="J66" s="89"/>
-      <c r="K66" s="89"/>
+      <c r="A66" s="54"/>
+      <c r="B66" s="54"/>
+      <c r="C66" s="54"/>
+      <c r="D66" s="54"/>
+      <c r="E66" s="54"/>
+      <c r="F66" s="54"/>
+      <c r="G66" s="54"/>
+      <c r="H66" s="54"/>
+      <c r="I66" s="54"/>
+      <c r="J66" s="54"/>
+      <c r="K66" s="54"/>
     </row>
     <row r="67" spans="1:18" customHeight="1" ht="12.75">
-      <c r="A67" s="89"/>
-      <c r="B67" s="89"/>
-      <c r="C67" s="89"/>
-      <c r="D67" s="89"/>
-      <c r="E67" s="89"/>
-      <c r="F67" s="89"/>
-      <c r="G67" s="89"/>
-      <c r="H67" s="89"/>
-      <c r="I67" s="89"/>
-      <c r="J67" s="89"/>
-      <c r="K67" s="89"/>
+      <c r="A67" s="54"/>
+      <c r="B67" s="54"/>
+      <c r="C67" s="54"/>
+      <c r="D67" s="54"/>
+      <c r="E67" s="54"/>
+      <c r="F67" s="54"/>
+      <c r="G67" s="54"/>
+      <c r="H67" s="54"/>
+      <c r="I67" s="54"/>
+      <c r="J67" s="54"/>
+      <c r="K67" s="54"/>
     </row>
     <row r="68" spans="1:18">
       <c r="A68" s="4"/>
@@ -2764,7 +2774,7 @@
     <row r="70" spans="1:18">
       <c r="A70" s="21"/>
       <c r="B70" s="32" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="C70" s="21"/>
       <c r="D70" s="21"/>
@@ -2773,21 +2783,21 @@
       <c r="G70" s="21"/>
       <c r="I70" s="33"/>
       <c r="J70" s="41" t="s">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="K70" s="21"/>
     </row>
     <row r="71" spans="1:18">
       <c r="A71" s="19" t="s">
-        <v>93</v>
+        <v>94</v>
       </c>
     </row>
     <row r="72" spans="1:18">
       <c r="B72" s="7" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="F72" s="14" t="s">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="G72" s="14"/>
     </row>
@@ -2798,14 +2808,14 @@
     </row>
     <row r="74" spans="1:18">
       <c r="B74" s="7" t="s">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="C74" s="10"/>
       <c r="D74" s="10"/>
       <c r="E74" s="10"/>
       <c r="F74" s="10"/>
       <c r="G74" s="7" t="s">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="H74" s="10"/>
       <c r="I74" s="10"/>
@@ -2814,7 +2824,7 @@
     </row>
     <row r="75" spans="1:18">
       <c r="J75" s="31" t="s">
-        <v>98</v>
+        <v>99</v>
       </c>
     </row>
     <row r="82" spans="1:18" hidden="true">
@@ -2828,6 +2838,33 @@
   </sheetData>
   <sheetProtection formatCells="0" formatColumns="0" formatRows="0"/>
   <mergeCells>
+    <mergeCell ref="A52:B52"/>
+    <mergeCell ref="C52:D52"/>
+    <mergeCell ref="H52:K52"/>
+    <mergeCell ref="H38:H39"/>
+    <mergeCell ref="J2:K2"/>
+    <mergeCell ref="A14:K14"/>
+    <mergeCell ref="D29:F30"/>
+    <mergeCell ref="G29:H30"/>
+    <mergeCell ref="C4:I4"/>
+    <mergeCell ref="D5:H5"/>
+    <mergeCell ref="A9:B9"/>
+    <mergeCell ref="C6:I6"/>
+    <mergeCell ref="G28:I28"/>
+    <mergeCell ref="B18:I18"/>
+    <mergeCell ref="B20:I20"/>
+    <mergeCell ref="C9:E9"/>
+    <mergeCell ref="D16:H16"/>
+    <mergeCell ref="B22:I22"/>
+    <mergeCell ref="H50:K50"/>
+    <mergeCell ref="A43:B43"/>
+    <mergeCell ref="C43:D43"/>
+    <mergeCell ref="G43:H43"/>
+    <mergeCell ref="I43:J43"/>
+    <mergeCell ref="A46:E46"/>
+    <mergeCell ref="G46:K46"/>
+    <mergeCell ref="A48:E48"/>
+    <mergeCell ref="B49:E49"/>
     <mergeCell ref="G48:K48"/>
     <mergeCell ref="H49:K49"/>
     <mergeCell ref="A65:K67"/>
@@ -2844,30 +2881,6 @@
     <mergeCell ref="A41:K41"/>
     <mergeCell ref="A55:K55"/>
     <mergeCell ref="B50:E50"/>
-    <mergeCell ref="H50:K50"/>
-    <mergeCell ref="A43:B43"/>
-    <mergeCell ref="C43:D43"/>
-    <mergeCell ref="G43:H43"/>
-    <mergeCell ref="I43:J43"/>
-    <mergeCell ref="A46:E46"/>
-    <mergeCell ref="G46:K46"/>
-    <mergeCell ref="A48:E48"/>
-    <mergeCell ref="B49:E49"/>
-    <mergeCell ref="H38:H39"/>
-    <mergeCell ref="J2:K2"/>
-    <mergeCell ref="A14:K14"/>
-    <mergeCell ref="D29:F30"/>
-    <mergeCell ref="G29:H30"/>
-    <mergeCell ref="C4:I4"/>
-    <mergeCell ref="D5:H5"/>
-    <mergeCell ref="A9:B9"/>
-    <mergeCell ref="C6:I6"/>
-    <mergeCell ref="G28:I28"/>
-    <mergeCell ref="B18:I18"/>
-    <mergeCell ref="B20:I20"/>
-    <mergeCell ref="C9:E9"/>
-    <mergeCell ref="D16:H16"/>
-    <mergeCell ref="B22:I22"/>
   </mergeCells>
   <printOptions gridLines="false" gridLinesSet="true"/>
   <pageMargins left="0.46" right="0.7" top="0.54" bottom="0.3" header="0.3" footer="0.3"/>
@@ -2909,7 +2922,7 @@
         </mc:AlternateContent>
         <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
           <mc:Choice Requires="x14">
-            <control shapeId="19" r:id="rId5" name="Check Box 2">
+            <control shapeId="3" r:id="rId5" name="Check Box 2">
               <controlPr defaultSize="0" autoFill="0" autoLine="0" autoPict="0">
                 <anchor moveWithCells="1">
                   <from>
@@ -2931,7 +2944,7 @@
         </mc:AlternateContent>
         <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
           <mc:Choice Requires="x14">
-            <control shapeId="20" r:id="rId6" name="Check Box 4">
+            <control shapeId="1028" r:id="rId6" name="Check Box 4">
               <controlPr defaultSize="0" autoFill="0" autoLine="0" autoPict="0">
                 <anchor moveWithCells="1">
                   <from>
@@ -3108,410 +3121,410 @@
       <c r="B1" s="46"/>
     </row>
     <row r="3" spans="1:11" customHeight="1" ht="16">
-      <c r="B3" s="73" t="s">
-        <v>99</v>
-      </c>
-      <c r="C3" s="59"/>
-      <c r="D3" s="59"/>
-      <c r="E3" s="59"/>
-      <c r="F3" s="59"/>
-      <c r="G3" s="59"/>
-      <c r="H3" s="59"/>
-      <c r="I3" s="59"/>
-      <c r="J3" s="59"/>
-      <c r="K3" s="59"/>
+      <c r="B3" s="86" t="s">
+        <v>100</v>
+      </c>
+      <c r="C3" s="81"/>
+      <c r="D3" s="81"/>
+      <c r="E3" s="81"/>
+      <c r="F3" s="81"/>
+      <c r="G3" s="81"/>
+      <c r="H3" s="81"/>
+      <c r="I3" s="81"/>
+      <c r="J3" s="81"/>
+      <c r="K3" s="81"/>
     </row>
     <row r="4" spans="1:11">
-      <c r="A4" s="74" t="s">
-        <v>100</v>
-      </c>
-      <c r="B4" s="75"/>
-      <c r="C4" s="75"/>
-      <c r="D4" s="75"/>
-      <c r="E4" s="75"/>
-      <c r="F4" s="75"/>
-      <c r="G4" s="75"/>
-      <c r="H4" s="75"/>
-      <c r="I4" s="75"/>
-      <c r="J4" s="75"/>
-      <c r="K4" s="75"/>
+      <c r="A4" s="87" t="s">
+        <v>101</v>
+      </c>
+      <c r="B4" s="88"/>
+      <c r="C4" s="88"/>
+      <c r="D4" s="88"/>
+      <c r="E4" s="88"/>
+      <c r="F4" s="88"/>
+      <c r="G4" s="88"/>
+      <c r="H4" s="88"/>
+      <c r="I4" s="88"/>
+      <c r="J4" s="88"/>
+      <c r="K4" s="88"/>
     </row>
     <row r="5" spans="1:11">
-      <c r="A5" s="75"/>
-      <c r="B5" s="75"/>
-      <c r="C5" s="75"/>
-      <c r="D5" s="75"/>
-      <c r="E5" s="75"/>
-      <c r="F5" s="75"/>
-      <c r="G5" s="75"/>
-      <c r="H5" s="75"/>
-      <c r="I5" s="75"/>
-      <c r="J5" s="75"/>
-      <c r="K5" s="75"/>
+      <c r="A5" s="88"/>
+      <c r="B5" s="88"/>
+      <c r="C5" s="88"/>
+      <c r="D5" s="88"/>
+      <c r="E5" s="88"/>
+      <c r="F5" s="88"/>
+      <c r="G5" s="88"/>
+      <c r="H5" s="88"/>
+      <c r="I5" s="88"/>
+      <c r="J5" s="88"/>
+      <c r="K5" s="88"/>
     </row>
     <row r="6" spans="1:11">
-      <c r="A6" s="75"/>
-      <c r="B6" s="75"/>
-      <c r="C6" s="75"/>
-      <c r="D6" s="75"/>
-      <c r="E6" s="75"/>
-      <c r="F6" s="75"/>
-      <c r="G6" s="75"/>
-      <c r="H6" s="75"/>
-      <c r="I6" s="75"/>
-      <c r="J6" s="75"/>
-      <c r="K6" s="75"/>
+      <c r="A6" s="88"/>
+      <c r="B6" s="88"/>
+      <c r="C6" s="88"/>
+      <c r="D6" s="88"/>
+      <c r="E6" s="88"/>
+      <c r="F6" s="88"/>
+      <c r="G6" s="88"/>
+      <c r="H6" s="88"/>
+      <c r="I6" s="88"/>
+      <c r="J6" s="88"/>
+      <c r="K6" s="88"/>
     </row>
     <row r="7" spans="1:11">
-      <c r="A7" s="75"/>
-      <c r="B7" s="75"/>
-      <c r="C7" s="75"/>
-      <c r="D7" s="75"/>
-      <c r="E7" s="75"/>
-      <c r="F7" s="75"/>
-      <c r="G7" s="75"/>
-      <c r="H7" s="75"/>
-      <c r="I7" s="75"/>
-      <c r="J7" s="75"/>
-      <c r="K7" s="75"/>
+      <c r="A7" s="88"/>
+      <c r="B7" s="88"/>
+      <c r="C7" s="88"/>
+      <c r="D7" s="88"/>
+      <c r="E7" s="88"/>
+      <c r="F7" s="88"/>
+      <c r="G7" s="88"/>
+      <c r="H7" s="88"/>
+      <c r="I7" s="88"/>
+      <c r="J7" s="88"/>
+      <c r="K7" s="88"/>
     </row>
     <row r="8" spans="1:11">
-      <c r="A8" s="75"/>
-      <c r="B8" s="75"/>
-      <c r="C8" s="75"/>
-      <c r="D8" s="75"/>
-      <c r="E8" s="75"/>
-      <c r="F8" s="75"/>
-      <c r="G8" s="75"/>
-      <c r="H8" s="75"/>
-      <c r="I8" s="75"/>
-      <c r="J8" s="75"/>
-      <c r="K8" s="75"/>
+      <c r="A8" s="88"/>
+      <c r="B8" s="88"/>
+      <c r="C8" s="88"/>
+      <c r="D8" s="88"/>
+      <c r="E8" s="88"/>
+      <c r="F8" s="88"/>
+      <c r="G8" s="88"/>
+      <c r="H8" s="88"/>
+      <c r="I8" s="88"/>
+      <c r="J8" s="88"/>
+      <c r="K8" s="88"/>
     </row>
     <row r="9" spans="1:11">
-      <c r="A9" s="75"/>
-      <c r="B9" s="75"/>
-      <c r="C9" s="75"/>
-      <c r="D9" s="75"/>
-      <c r="E9" s="75"/>
-      <c r="F9" s="75"/>
-      <c r="G9" s="75"/>
-      <c r="H9" s="75"/>
-      <c r="I9" s="75"/>
-      <c r="J9" s="75"/>
-      <c r="K9" s="75"/>
+      <c r="A9" s="88"/>
+      <c r="B9" s="88"/>
+      <c r="C9" s="88"/>
+      <c r="D9" s="88"/>
+      <c r="E9" s="88"/>
+      <c r="F9" s="88"/>
+      <c r="G9" s="88"/>
+      <c r="H9" s="88"/>
+      <c r="I9" s="88"/>
+      <c r="J9" s="88"/>
+      <c r="K9" s="88"/>
     </row>
     <row r="10" spans="1:11">
-      <c r="A10" s="75"/>
-      <c r="B10" s="75"/>
-      <c r="C10" s="75"/>
-      <c r="D10" s="75"/>
-      <c r="E10" s="75"/>
-      <c r="F10" s="75"/>
-      <c r="G10" s="75"/>
-      <c r="H10" s="75"/>
-      <c r="I10" s="75"/>
-      <c r="J10" s="75"/>
-      <c r="K10" s="75"/>
+      <c r="A10" s="88"/>
+      <c r="B10" s="88"/>
+      <c r="C10" s="88"/>
+      <c r="D10" s="88"/>
+      <c r="E10" s="88"/>
+      <c r="F10" s="88"/>
+      <c r="G10" s="88"/>
+      <c r="H10" s="88"/>
+      <c r="I10" s="88"/>
+      <c r="J10" s="88"/>
+      <c r="K10" s="88"/>
     </row>
     <row r="11" spans="1:11">
-      <c r="A11" s="75"/>
-      <c r="B11" s="75"/>
-      <c r="C11" s="75"/>
-      <c r="D11" s="75"/>
-      <c r="E11" s="75"/>
-      <c r="F11" s="75"/>
-      <c r="G11" s="75"/>
-      <c r="H11" s="75"/>
-      <c r="I11" s="75"/>
-      <c r="J11" s="75"/>
-      <c r="K11" s="75"/>
+      <c r="A11" s="88"/>
+      <c r="B11" s="88"/>
+      <c r="C11" s="88"/>
+      <c r="D11" s="88"/>
+      <c r="E11" s="88"/>
+      <c r="F11" s="88"/>
+      <c r="G11" s="88"/>
+      <c r="H11" s="88"/>
+      <c r="I11" s="88"/>
+      <c r="J11" s="88"/>
+      <c r="K11" s="88"/>
     </row>
     <row r="12" spans="1:11">
-      <c r="A12" s="75"/>
-      <c r="B12" s="75"/>
-      <c r="C12" s="75"/>
-      <c r="D12" s="75"/>
-      <c r="E12" s="75"/>
-      <c r="F12" s="75"/>
-      <c r="G12" s="75"/>
-      <c r="H12" s="75"/>
-      <c r="I12" s="75"/>
-      <c r="J12" s="75"/>
-      <c r="K12" s="75"/>
+      <c r="A12" s="88"/>
+      <c r="B12" s="88"/>
+      <c r="C12" s="88"/>
+      <c r="D12" s="88"/>
+      <c r="E12" s="88"/>
+      <c r="F12" s="88"/>
+      <c r="G12" s="88"/>
+      <c r="H12" s="88"/>
+      <c r="I12" s="88"/>
+      <c r="J12" s="88"/>
+      <c r="K12" s="88"/>
     </row>
     <row r="13" spans="1:11">
-      <c r="A13" s="75"/>
-      <c r="B13" s="75"/>
-      <c r="C13" s="75"/>
-      <c r="D13" s="75"/>
-      <c r="E13" s="75"/>
-      <c r="F13" s="75"/>
-      <c r="G13" s="75"/>
-      <c r="H13" s="75"/>
-      <c r="I13" s="75"/>
-      <c r="J13" s="75"/>
-      <c r="K13" s="75"/>
+      <c r="A13" s="88"/>
+      <c r="B13" s="88"/>
+      <c r="C13" s="88"/>
+      <c r="D13" s="88"/>
+      <c r="E13" s="88"/>
+      <c r="F13" s="88"/>
+      <c r="G13" s="88"/>
+      <c r="H13" s="88"/>
+      <c r="I13" s="88"/>
+      <c r="J13" s="88"/>
+      <c r="K13" s="88"/>
     </row>
     <row r="14" spans="1:11">
-      <c r="A14" s="75"/>
-      <c r="B14" s="75"/>
-      <c r="C14" s="75"/>
-      <c r="D14" s="75"/>
-      <c r="E14" s="75"/>
-      <c r="F14" s="75"/>
-      <c r="G14" s="75"/>
-      <c r="H14" s="75"/>
-      <c r="I14" s="75"/>
-      <c r="J14" s="75"/>
-      <c r="K14" s="75"/>
+      <c r="A14" s="88"/>
+      <c r="B14" s="88"/>
+      <c r="C14" s="88"/>
+      <c r="D14" s="88"/>
+      <c r="E14" s="88"/>
+      <c r="F14" s="88"/>
+      <c r="G14" s="88"/>
+      <c r="H14" s="88"/>
+      <c r="I14" s="88"/>
+      <c r="J14" s="88"/>
+      <c r="K14" s="88"/>
     </row>
     <row r="15" spans="1:11">
-      <c r="A15" s="75"/>
-      <c r="B15" s="75"/>
-      <c r="C15" s="75"/>
-      <c r="D15" s="75"/>
-      <c r="E15" s="75"/>
-      <c r="F15" s="75"/>
-      <c r="G15" s="75"/>
-      <c r="H15" s="75"/>
-      <c r="I15" s="75"/>
-      <c r="J15" s="75"/>
-      <c r="K15" s="75"/>
+      <c r="A15" s="88"/>
+      <c r="B15" s="88"/>
+      <c r="C15" s="88"/>
+      <c r="D15" s="88"/>
+      <c r="E15" s="88"/>
+      <c r="F15" s="88"/>
+      <c r="G15" s="88"/>
+      <c r="H15" s="88"/>
+      <c r="I15" s="88"/>
+      <c r="J15" s="88"/>
+      <c r="K15" s="88"/>
     </row>
     <row r="16" spans="1:11">
-      <c r="A16" s="75"/>
-      <c r="B16" s="75"/>
-      <c r="C16" s="75"/>
-      <c r="D16" s="75"/>
-      <c r="E16" s="75"/>
-      <c r="F16" s="75"/>
-      <c r="G16" s="75"/>
-      <c r="H16" s="75"/>
-      <c r="I16" s="75"/>
-      <c r="J16" s="75"/>
-      <c r="K16" s="75"/>
+      <c r="A16" s="88"/>
+      <c r="B16" s="88"/>
+      <c r="C16" s="88"/>
+      <c r="D16" s="88"/>
+      <c r="E16" s="88"/>
+      <c r="F16" s="88"/>
+      <c r="G16" s="88"/>
+      <c r="H16" s="88"/>
+      <c r="I16" s="88"/>
+      <c r="J16" s="88"/>
+      <c r="K16" s="88"/>
     </row>
     <row r="17" spans="1:11">
-      <c r="A17" s="75"/>
-      <c r="B17" s="75"/>
-      <c r="C17" s="75"/>
-      <c r="D17" s="75"/>
-      <c r="E17" s="75"/>
-      <c r="F17" s="75"/>
-      <c r="G17" s="75"/>
-      <c r="H17" s="75"/>
-      <c r="I17" s="75"/>
-      <c r="J17" s="75"/>
-      <c r="K17" s="75"/>
+      <c r="A17" s="88"/>
+      <c r="B17" s="88"/>
+      <c r="C17" s="88"/>
+      <c r="D17" s="88"/>
+      <c r="E17" s="88"/>
+      <c r="F17" s="88"/>
+      <c r="G17" s="88"/>
+      <c r="H17" s="88"/>
+      <c r="I17" s="88"/>
+      <c r="J17" s="88"/>
+      <c r="K17" s="88"/>
     </row>
     <row r="18" spans="1:11">
-      <c r="A18" s="75"/>
-      <c r="B18" s="75"/>
-      <c r="C18" s="75"/>
-      <c r="D18" s="75"/>
-      <c r="E18" s="75"/>
-      <c r="F18" s="75"/>
-      <c r="G18" s="75"/>
-      <c r="H18" s="75"/>
-      <c r="I18" s="75"/>
-      <c r="J18" s="75"/>
-      <c r="K18" s="75"/>
+      <c r="A18" s="88"/>
+      <c r="B18" s="88"/>
+      <c r="C18" s="88"/>
+      <c r="D18" s="88"/>
+      <c r="E18" s="88"/>
+      <c r="F18" s="88"/>
+      <c r="G18" s="88"/>
+      <c r="H18" s="88"/>
+      <c r="I18" s="88"/>
+      <c r="J18" s="88"/>
+      <c r="K18" s="88"/>
     </row>
     <row r="19" spans="1:11">
-      <c r="A19" s="75"/>
-      <c r="B19" s="75"/>
-      <c r="C19" s="75"/>
-      <c r="D19" s="75"/>
-      <c r="E19" s="75"/>
-      <c r="F19" s="75"/>
-      <c r="G19" s="75"/>
-      <c r="H19" s="75"/>
-      <c r="I19" s="75"/>
-      <c r="J19" s="75"/>
-      <c r="K19" s="75"/>
+      <c r="A19" s="88"/>
+      <c r="B19" s="88"/>
+      <c r="C19" s="88"/>
+      <c r="D19" s="88"/>
+      <c r="E19" s="88"/>
+      <c r="F19" s="88"/>
+      <c r="G19" s="88"/>
+      <c r="H19" s="88"/>
+      <c r="I19" s="88"/>
+      <c r="J19" s="88"/>
+      <c r="K19" s="88"/>
     </row>
     <row r="20" spans="1:11">
-      <c r="A20" s="75"/>
-      <c r="B20" s="75"/>
-      <c r="C20" s="75"/>
-      <c r="D20" s="75"/>
-      <c r="E20" s="75"/>
-      <c r="F20" s="75"/>
-      <c r="G20" s="75"/>
-      <c r="H20" s="75"/>
-      <c r="I20" s="75"/>
-      <c r="J20" s="75"/>
-      <c r="K20" s="75"/>
+      <c r="A20" s="88"/>
+      <c r="B20" s="88"/>
+      <c r="C20" s="88"/>
+      <c r="D20" s="88"/>
+      <c r="E20" s="88"/>
+      <c r="F20" s="88"/>
+      <c r="G20" s="88"/>
+      <c r="H20" s="88"/>
+      <c r="I20" s="88"/>
+      <c r="J20" s="88"/>
+      <c r="K20" s="88"/>
     </row>
     <row r="21" spans="1:11">
-      <c r="A21" s="75"/>
-      <c r="B21" s="75"/>
-      <c r="C21" s="75"/>
-      <c r="D21" s="75"/>
-      <c r="E21" s="75"/>
-      <c r="F21" s="75"/>
-      <c r="G21" s="75"/>
-      <c r="H21" s="75"/>
-      <c r="I21" s="75"/>
-      <c r="J21" s="75"/>
-      <c r="K21" s="75"/>
+      <c r="A21" s="88"/>
+      <c r="B21" s="88"/>
+      <c r="C21" s="88"/>
+      <c r="D21" s="88"/>
+      <c r="E21" s="88"/>
+      <c r="F21" s="88"/>
+      <c r="G21" s="88"/>
+      <c r="H21" s="88"/>
+      <c r="I21" s="88"/>
+      <c r="J21" s="88"/>
+      <c r="K21" s="88"/>
     </row>
     <row r="22" spans="1:11">
-      <c r="A22" s="75"/>
-      <c r="B22" s="75"/>
-      <c r="C22" s="75"/>
-      <c r="D22" s="75"/>
-      <c r="E22" s="75"/>
-      <c r="F22" s="75"/>
-      <c r="G22" s="75"/>
-      <c r="H22" s="75"/>
-      <c r="I22" s="75"/>
-      <c r="J22" s="75"/>
-      <c r="K22" s="75"/>
+      <c r="A22" s="88"/>
+      <c r="B22" s="88"/>
+      <c r="C22" s="88"/>
+      <c r="D22" s="88"/>
+      <c r="E22" s="88"/>
+      <c r="F22" s="88"/>
+      <c r="G22" s="88"/>
+      <c r="H22" s="88"/>
+      <c r="I22" s="88"/>
+      <c r="J22" s="88"/>
+      <c r="K22" s="88"/>
     </row>
     <row r="23" spans="1:11">
-      <c r="A23" s="75"/>
-      <c r="B23" s="75"/>
-      <c r="C23" s="75"/>
-      <c r="D23" s="75"/>
-      <c r="E23" s="75"/>
-      <c r="F23" s="75"/>
-      <c r="G23" s="75"/>
-      <c r="H23" s="75"/>
-      <c r="I23" s="75"/>
-      <c r="J23" s="75"/>
-      <c r="K23" s="75"/>
+      <c r="A23" s="88"/>
+      <c r="B23" s="88"/>
+      <c r="C23" s="88"/>
+      <c r="D23" s="88"/>
+      <c r="E23" s="88"/>
+      <c r="F23" s="88"/>
+      <c r="G23" s="88"/>
+      <c r="H23" s="88"/>
+      <c r="I23" s="88"/>
+      <c r="J23" s="88"/>
+      <c r="K23" s="88"/>
     </row>
     <row r="24" spans="1:11">
-      <c r="A24" s="75"/>
-      <c r="B24" s="75"/>
-      <c r="C24" s="75"/>
-      <c r="D24" s="75"/>
-      <c r="E24" s="75"/>
-      <c r="F24" s="75"/>
-      <c r="G24" s="75"/>
-      <c r="H24" s="75"/>
-      <c r="I24" s="75"/>
-      <c r="J24" s="75"/>
-      <c r="K24" s="75"/>
+      <c r="A24" s="88"/>
+      <c r="B24" s="88"/>
+      <c r="C24" s="88"/>
+      <c r="D24" s="88"/>
+      <c r="E24" s="88"/>
+      <c r="F24" s="88"/>
+      <c r="G24" s="88"/>
+      <c r="H24" s="88"/>
+      <c r="I24" s="88"/>
+      <c r="J24" s="88"/>
+      <c r="K24" s="88"/>
     </row>
     <row r="25" spans="1:11">
-      <c r="A25" s="75"/>
-      <c r="B25" s="75"/>
-      <c r="C25" s="75"/>
-      <c r="D25" s="75"/>
-      <c r="E25" s="75"/>
-      <c r="F25" s="75"/>
-      <c r="G25" s="75"/>
-      <c r="H25" s="75"/>
-      <c r="I25" s="75"/>
-      <c r="J25" s="75"/>
-      <c r="K25" s="75"/>
+      <c r="A25" s="88"/>
+      <c r="B25" s="88"/>
+      <c r="C25" s="88"/>
+      <c r="D25" s="88"/>
+      <c r="E25" s="88"/>
+      <c r="F25" s="88"/>
+      <c r="G25" s="88"/>
+      <c r="H25" s="88"/>
+      <c r="I25" s="88"/>
+      <c r="J25" s="88"/>
+      <c r="K25" s="88"/>
     </row>
     <row r="26" spans="1:11">
-      <c r="A26" s="75"/>
-      <c r="B26" s="75"/>
-      <c r="C26" s="75"/>
-      <c r="D26" s="75"/>
-      <c r="E26" s="75"/>
-      <c r="F26" s="75"/>
-      <c r="G26" s="75"/>
-      <c r="H26" s="75"/>
-      <c r="I26" s="75"/>
-      <c r="J26" s="75"/>
-      <c r="K26" s="75"/>
+      <c r="A26" s="88"/>
+      <c r="B26" s="88"/>
+      <c r="C26" s="88"/>
+      <c r="D26" s="88"/>
+      <c r="E26" s="88"/>
+      <c r="F26" s="88"/>
+      <c r="G26" s="88"/>
+      <c r="H26" s="88"/>
+      <c r="I26" s="88"/>
+      <c r="J26" s="88"/>
+      <c r="K26" s="88"/>
     </row>
     <row r="27" spans="1:11">
-      <c r="A27" s="75"/>
-      <c r="B27" s="75"/>
-      <c r="C27" s="75"/>
-      <c r="D27" s="75"/>
-      <c r="E27" s="75"/>
-      <c r="F27" s="75"/>
-      <c r="G27" s="75"/>
-      <c r="H27" s="75"/>
-      <c r="I27" s="75"/>
-      <c r="J27" s="75"/>
-      <c r="K27" s="75"/>
+      <c r="A27" s="88"/>
+      <c r="B27" s="88"/>
+      <c r="C27" s="88"/>
+      <c r="D27" s="88"/>
+      <c r="E27" s="88"/>
+      <c r="F27" s="88"/>
+      <c r="G27" s="88"/>
+      <c r="H27" s="88"/>
+      <c r="I27" s="88"/>
+      <c r="J27" s="88"/>
+      <c r="K27" s="88"/>
     </row>
     <row r="28" spans="1:11">
-      <c r="A28" s="75"/>
-      <c r="B28" s="75"/>
-      <c r="C28" s="75"/>
-      <c r="D28" s="75"/>
-      <c r="E28" s="75"/>
-      <c r="F28" s="75"/>
-      <c r="G28" s="75"/>
-      <c r="H28" s="75"/>
-      <c r="I28" s="75"/>
-      <c r="J28" s="75"/>
-      <c r="K28" s="75"/>
+      <c r="A28" s="88"/>
+      <c r="B28" s="88"/>
+      <c r="C28" s="88"/>
+      <c r="D28" s="88"/>
+      <c r="E28" s="88"/>
+      <c r="F28" s="88"/>
+      <c r="G28" s="88"/>
+      <c r="H28" s="88"/>
+      <c r="I28" s="88"/>
+      <c r="J28" s="88"/>
+      <c r="K28" s="88"/>
     </row>
     <row r="29" spans="1:11">
-      <c r="A29" s="75"/>
-      <c r="B29" s="75"/>
-      <c r="C29" s="75"/>
-      <c r="D29" s="75"/>
-      <c r="E29" s="75"/>
-      <c r="F29" s="75"/>
-      <c r="G29" s="75"/>
-      <c r="H29" s="75"/>
-      <c r="I29" s="75"/>
-      <c r="J29" s="75"/>
-      <c r="K29" s="75"/>
+      <c r="A29" s="88"/>
+      <c r="B29" s="88"/>
+      <c r="C29" s="88"/>
+      <c r="D29" s="88"/>
+      <c r="E29" s="88"/>
+      <c r="F29" s="88"/>
+      <c r="G29" s="88"/>
+      <c r="H29" s="88"/>
+      <c r="I29" s="88"/>
+      <c r="J29" s="88"/>
+      <c r="K29" s="88"/>
     </row>
     <row r="30" spans="1:11">
-      <c r="A30" s="75"/>
-      <c r="B30" s="75"/>
-      <c r="C30" s="75"/>
-      <c r="D30" s="75"/>
-      <c r="E30" s="75"/>
-      <c r="F30" s="75"/>
-      <c r="G30" s="75"/>
-      <c r="H30" s="75"/>
-      <c r="I30" s="75"/>
-      <c r="J30" s="75"/>
-      <c r="K30" s="75"/>
+      <c r="A30" s="88"/>
+      <c r="B30" s="88"/>
+      <c r="C30" s="88"/>
+      <c r="D30" s="88"/>
+      <c r="E30" s="88"/>
+      <c r="F30" s="88"/>
+      <c r="G30" s="88"/>
+      <c r="H30" s="88"/>
+      <c r="I30" s="88"/>
+      <c r="J30" s="88"/>
+      <c r="K30" s="88"/>
     </row>
     <row r="31" spans="1:11">
-      <c r="A31" s="75"/>
-      <c r="B31" s="75"/>
-      <c r="C31" s="75"/>
-      <c r="D31" s="75"/>
-      <c r="E31" s="75"/>
-      <c r="F31" s="75"/>
-      <c r="G31" s="75"/>
-      <c r="H31" s="75"/>
-      <c r="I31" s="75"/>
-      <c r="J31" s="75"/>
-      <c r="K31" s="75"/>
+      <c r="A31" s="88"/>
+      <c r="B31" s="88"/>
+      <c r="C31" s="88"/>
+      <c r="D31" s="88"/>
+      <c r="E31" s="88"/>
+      <c r="F31" s="88"/>
+      <c r="G31" s="88"/>
+      <c r="H31" s="88"/>
+      <c r="I31" s="88"/>
+      <c r="J31" s="88"/>
+      <c r="K31" s="88"/>
     </row>
     <row r="32" spans="1:11">
-      <c r="A32" s="75"/>
-      <c r="B32" s="75"/>
-      <c r="C32" s="75"/>
-      <c r="D32" s="75"/>
-      <c r="E32" s="75"/>
-      <c r="F32" s="75"/>
-      <c r="G32" s="75"/>
-      <c r="H32" s="75"/>
-      <c r="I32" s="75"/>
-      <c r="J32" s="75"/>
-      <c r="K32" s="75"/>
+      <c r="A32" s="88"/>
+      <c r="B32" s="88"/>
+      <c r="C32" s="88"/>
+      <c r="D32" s="88"/>
+      <c r="E32" s="88"/>
+      <c r="F32" s="88"/>
+      <c r="G32" s="88"/>
+      <c r="H32" s="88"/>
+      <c r="I32" s="88"/>
+      <c r="J32" s="88"/>
+      <c r="K32" s="88"/>
     </row>
     <row r="33" spans="1:11">
-      <c r="A33" s="75"/>
-      <c r="B33" s="75"/>
-      <c r="C33" s="75"/>
-      <c r="D33" s="75"/>
-      <c r="E33" s="75"/>
-      <c r="F33" s="75"/>
-      <c r="G33" s="75"/>
-      <c r="H33" s="75"/>
-      <c r="I33" s="75"/>
-      <c r="J33" s="75"/>
-      <c r="K33" s="75"/>
+      <c r="A33" s="88"/>
+      <c r="B33" s="88"/>
+      <c r="C33" s="88"/>
+      <c r="D33" s="88"/>
+      <c r="E33" s="88"/>
+      <c r="F33" s="88"/>
+      <c r="G33" s="88"/>
+      <c r="H33" s="88"/>
+      <c r="I33" s="88"/>
+      <c r="J33" s="88"/>
+      <c r="K33" s="88"/>
     </row>
     <row r="37" spans="1:11">
       <c r="A37" s="10"/>
@@ -3521,13 +3534,13 @@
       <c r="E37" s="10"/>
     </row>
     <row r="38" spans="1:11" s="47" customFormat="1">
-      <c r="A38" s="76" t="s">
-        <v>101</v>
-      </c>
-      <c r="B38" s="76"/>
-      <c r="C38" s="76"/>
-      <c r="D38" s="76"/>
-      <c r="E38" s="76"/>
+      <c r="A38" s="89" t="s">
+        <v>102</v>
+      </c>
+      <c r="B38" s="89"/>
+      <c r="C38" s="89"/>
+      <c r="D38" s="89"/>
+      <c r="E38" s="89"/>
     </row>
   </sheetData>
   <mergeCells>

--- a/reports/report.xlsx
+++ b/reports/report.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="103">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="100">
   <si>
     <t>ANNEX 2</t>
   </si>
@@ -121,22 +121,22 @@
     <t>Learner Reference No. (LRN)</t>
   </si>
   <si>
-    <t>LRN40559200000004</t>
-  </si>
-  <si>
-    <t>GRADE 1</t>
+    <t>LRN40559200000001</t>
+  </si>
+  <si>
+    <t>GRADE 5</t>
   </si>
   <si>
     <t>LAST NAME:</t>
   </si>
   <si>
-    <t>TOWNS</t>
+    <t>IRVING</t>
   </si>
   <si>
     <t>FIRST NAME</t>
   </si>
   <si>
-    <t>KARL ANTONY</t>
+    <t>KYRIE</t>
   </si>
   <si>
     <t>MIDDLE NAME</t>
@@ -148,9 +148,6 @@
     <t xml:space="preserve">DATE OF BIRTH     </t>
   </si>
   <si>
-    <t>08</t>
-  </si>
-  <si>
     <t>/</t>
   </si>
   <si>
@@ -172,7 +169,7 @@
     <t>PLACE OF BIRTH</t>
   </si>
   <si>
-    <t>CARMEN DDN</t>
+    <t>DAVAO CITY</t>
   </si>
   <si>
     <t>CONDITION OF CHILD'S HEALTH</t>
@@ -219,13 +216,13 @@
     <t>House Number and Street</t>
   </si>
   <si>
-    <t>LAGUNA STORE</t>
+    <t>CABILI</t>
   </si>
   <si>
     <t>Barangay</t>
   </si>
   <si>
-    <t>GREDU (POB.)</t>
+    <t>QUEZON</t>
   </si>
   <si>
     <t>City/Municipality/Province/Country</t>
@@ -246,16 +243,19 @@
     <t xml:space="preserve">Mother's (Maiden Name) </t>
   </si>
   <si>
-    <t>DONCIC</t>
-  </si>
-  <si>
-    <t>LUCA</t>
-  </si>
-  <si>
-    <t>MADONNA</t>
-  </si>
-  <si>
-    <t>KAYRI</t>
+    <t>JAMES</t>
+  </si>
+  <si>
+    <t>LEBRON</t>
+  </si>
+  <si>
+    <t>TERESA</t>
+  </si>
+  <si>
+    <t>MAMA</t>
+  </si>
+  <si>
+    <t>STA</t>
   </si>
   <si>
     <t>(Last Name)                                            (First Name)                             (Middle Name)</t>
@@ -298,10 +298,10 @@
     </r>
   </si>
   <si>
-    <t>BARANGAY POLICE</t>
-  </si>
-  <si>
-    <t>BUSINESS WOMAN</t>
+    <t>BUSINESSMAN</t>
+  </si>
+  <si>
+    <t>HOUSEWIFE</t>
   </si>
   <si>
     <t>Educational Attainment (Father)</t>
@@ -324,25 +324,28 @@
     </r>
   </si>
   <si>
-    <t>HIGH SCHOOL GRADUATE</t>
+    <t>COLLEGE GRADUATE</t>
+  </si>
+  <si>
+    <t>ELEMENTARY GRADUATE</t>
   </si>
   <si>
     <t>Cellphone No.</t>
   </si>
   <si>
-    <t>(+63) 9912021900</t>
-  </si>
-  <si>
-    <t>(+63) 9912029192</t>
+    <t>09912021990</t>
+  </si>
+  <si>
+    <t>0991020202</t>
   </si>
   <si>
     <t>FB acccount:</t>
   </si>
   <si>
-    <t>LUKA LUKA</t>
-  </si>
-  <si>
-    <t>KAIRI</t>
+    <t>KALYE IRVING</t>
+  </si>
+  <si>
+    <t>MOTHER TERESA</t>
   </si>
   <si>
     <t xml:space="preserve">Guardian's Name </t>
@@ -351,19 +354,7 @@
     <t>Guardian's Occupation</t>
   </si>
   <si>
-    <t>LIVELY</t>
-  </si>
-  <si>
-    <t>DEREK</t>
-  </si>
-  <si>
-    <t>NONE</t>
-  </si>
-  <si>
     <t>(Last Name)                                               (First Name)                                (Middle Name)</t>
-  </si>
-  <si>
-    <t>(+63) 9910202022</t>
   </si>
   <si>
     <t>For Returning Learners (Balik-Aral) and Those Who Shall Transfer/Move In</t>
@@ -2223,32 +2214,32 @@
       <c r="A26" t="s">
         <v>24</v>
       </c>
-      <c r="B26" s="48" t="s">
+      <c r="B26" s="48">
+        <v>12</v>
+      </c>
+      <c r="C26" s="48" t="s">
         <v>25</v>
       </c>
-      <c r="C26" s="48" t="s">
-        <v>26</v>
-      </c>
-      <c r="D26" s="48" t="s">
+      <c r="D26" s="48">
+        <v>12</v>
+      </c>
+      <c r="E26" s="48" t="s">
         <v>25</v>
-      </c>
-      <c r="E26" s="48" t="s">
-        <v>26</v>
       </c>
       <c r="F26" s="48">
         <v>2015</v>
       </c>
       <c r="G26" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="H26" s="15" t="s">
         <v>27</v>
       </c>
-      <c r="H26" s="15" t="s">
+      <c r="I26" s="6" t="s">
         <v>28</v>
       </c>
-      <c r="I26" s="6" t="s">
+      <c r="J26" s="49" t="s">
         <v>29</v>
-      </c>
-      <c r="J26" s="49" t="s">
-        <v>30</v>
       </c>
       <c r="K26" s="50">
         <v>8</v>
@@ -2256,7 +2247,7 @@
     </row>
     <row r="27" spans="1:18" customHeight="1" ht="9">
       <c r="A27" s="13" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="C27" s="14"/>
       <c r="G27" s="1"/>
@@ -2266,17 +2257,17 @@
     </row>
     <row r="28" spans="1:18" customHeight="1" ht="15">
       <c r="A28" s="7" t="s">
+        <v>31</v>
+      </c>
+      <c r="B28" s="56" t="s">
         <v>32</v>
-      </c>
-      <c r="B28" s="56" t="s">
-        <v>33</v>
       </c>
       <c r="C28" s="56"/>
       <c r="D28" s="56"/>
       <c r="E28" s="56"/>
       <c r="F28" s="56"/>
       <c r="G28" s="83" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="H28" s="83"/>
       <c r="I28" s="83"/>
@@ -2285,15 +2276,15 @@
     </row>
     <row r="29" spans="1:18" customHeight="1" ht="16.5">
       <c r="A29" s="7" t="s">
+        <v>34</v>
+      </c>
+      <c r="D29" s="76" t="s">
         <v>35</v>
-      </c>
-      <c r="D29" s="76" t="s">
-        <v>36</v>
       </c>
       <c r="E29" s="76"/>
       <c r="F29" s="76"/>
       <c r="G29" s="77" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="H29" s="77"/>
       <c r="I29" s="2"/>
@@ -2301,7 +2292,7 @@
     </row>
     <row r="30" spans="1:18" customHeight="1" ht="11.25">
       <c r="A30" s="12" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="D30" s="76"/>
       <c r="E30" s="76"/>
@@ -2314,13 +2305,13 @@
     </row>
     <row r="31" spans="1:18" customHeight="1" ht="18">
       <c r="A31" s="28" t="s">
+        <v>38</v>
+      </c>
+      <c r="G31" t="s">
         <v>39</v>
       </c>
-      <c r="G31" t="s">
+      <c r="H31" s="52" t="s">
         <v>40</v>
-      </c>
-      <c r="H31" s="52" t="s">
-        <v>41</v>
       </c>
       <c r="I31" s="52"/>
       <c r="J31" s="52"/>
@@ -2329,7 +2320,7 @@
     <row r="32" spans="1:18" customHeight="1" ht="4.5"/>
     <row r="33" spans="1:18" customHeight="1" ht="13.5" s="36" customFormat="1">
       <c r="A33" s="37" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="B33" s="38"/>
       <c r="C33" s="38"/>
@@ -2344,12 +2335,12 @@
     </row>
     <row r="34" spans="1:18" customHeight="1" ht="10.5">
       <c r="A34" s="5" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
     </row>
     <row r="35" spans="1:18" customHeight="1" ht="12">
       <c r="A35" s="52" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="B35" s="52"/>
       <c r="C35" s="52"/>
@@ -2364,13 +2355,13 @@
     </row>
     <row r="36" spans="1:18" customHeight="1" ht="12">
       <c r="A36" s="24" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="B36" s="16"/>
     </row>
     <row r="37" spans="1:18">
       <c r="A37" s="52" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="B37" s="52"/>
       <c r="C37" s="52"/>
@@ -2385,19 +2376,19 @@
     </row>
     <row r="38" spans="1:18" customHeight="1" ht="12.75">
       <c r="A38" s="11" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="B38" s="7"/>
       <c r="C38" s="7"/>
       <c r="D38" s="7"/>
       <c r="E38" s="7"/>
       <c r="H38" s="70" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
     </row>
     <row r="39" spans="1:18" customHeight="1" ht="13.5">
       <c r="A39" s="52" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="B39" s="52"/>
       <c r="C39" s="52"/>
@@ -2410,7 +2401,7 @@
     <row r="40" spans="1:18" customHeight="1" ht="3.75"/>
     <row r="41" spans="1:18" customHeight="1" ht="15">
       <c r="A41" s="62" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="B41" s="63"/>
       <c r="C41" s="63"/>
@@ -2425,10 +2416,10 @@
     </row>
     <row r="42" spans="1:18" customHeight="1" ht="10.5">
       <c r="A42" s="31" t="s">
+        <v>50</v>
+      </c>
+      <c r="G42" s="31" t="s">
         <v>51</v>
-      </c>
-      <c r="G42" s="31" t="s">
-        <v>52</v>
       </c>
       <c r="H42" s="35"/>
       <c r="I42" s="35"/>
@@ -2437,23 +2428,25 @@
     </row>
     <row r="43" spans="1:18" customHeight="1" ht="16.5">
       <c r="A43" s="52" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="B43" s="52"/>
       <c r="C43" s="52" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="D43" s="52"/>
       <c r="E43" s="51"/>
       <c r="G43" s="52" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="H43" s="52"/>
       <c r="I43" s="52" t="s">
+        <v>55</v>
+      </c>
+      <c r="J43" s="52"/>
+      <c r="K43" s="51" t="s">
         <v>56</v>
       </c>
-      <c r="J43" s="52"/>
-      <c r="K43" s="51"/>
     </row>
     <row r="44" spans="1:18" customHeight="1" ht="16.5">
       <c r="A44" s="61" t="s">
@@ -2517,7 +2510,7 @@
       <c r="D48" s="52"/>
       <c r="E48" s="52"/>
       <c r="G48" s="52" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="H48" s="52"/>
       <c r="I48" s="52"/>
@@ -2526,19 +2519,19 @@
     </row>
     <row r="49" spans="1:18" customHeight="1" ht="15.75">
       <c r="A49" s="44" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="B49" s="53" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="C49" s="53"/>
       <c r="D49" s="53"/>
       <c r="E49" s="53"/>
       <c r="G49" s="45" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="H49" s="53" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="I49" s="53"/>
       <c r="J49" s="53"/>
@@ -2546,19 +2539,19 @@
     </row>
     <row r="50" spans="1:18" customHeight="1" ht="15.75">
       <c r="A50" s="44" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="B50" s="68" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="C50" s="68"/>
       <c r="D50" s="68"/>
       <c r="E50" s="68"/>
       <c r="G50" s="44" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="H50" s="53" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="I50" s="53"/>
       <c r="J50" s="53"/>
@@ -2566,43 +2559,35 @@
     </row>
     <row r="51" spans="1:18" customHeight="1" ht="16.5">
       <c r="A51" s="31" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="G51" s="31" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
     </row>
     <row r="52" spans="1:18" customHeight="1" ht="17.25">
-      <c r="A52" s="52" t="s">
-        <v>74</v>
-      </c>
+      <c r="A52" s="52"/>
       <c r="B52" s="52"/>
-      <c r="C52" s="52" t="s">
-        <v>75</v>
-      </c>
+      <c r="C52" s="52"/>
       <c r="D52" s="52"/>
       <c r="E52" s="51"/>
-      <c r="H52" s="52" t="s">
-        <v>76</v>
-      </c>
+      <c r="H52" s="52"/>
       <c r="I52" s="52"/>
       <c r="J52" s="52"/>
       <c r="K52" s="52"/>
     </row>
     <row r="53" spans="1:18" customHeight="1" ht="18">
       <c r="A53" s="61" t="s">
-        <v>77</v>
+        <v>75</v>
       </c>
       <c r="B53" s="61"/>
       <c r="C53" s="61"/>
       <c r="D53" s="61"/>
       <c r="E53" s="61"/>
       <c r="G53" s="45" t="s">
-        <v>66</v>
-      </c>
-      <c r="H53" s="10" t="s">
-        <v>78</v>
-      </c>
+        <v>67</v>
+      </c>
+      <c r="H53" s="10"/>
       <c r="I53" s="10"/>
       <c r="J53" s="10"/>
       <c r="K53" s="40"/>
@@ -2610,7 +2595,7 @@
     <row r="54" spans="1:18" customHeight="1" ht="4.5"/>
     <row r="55" spans="1:18" customHeight="1" ht="13.5">
       <c r="A55" s="65" t="s">
-        <v>79</v>
+        <v>76</v>
       </c>
       <c r="B55" s="66"/>
       <c r="C55" s="66"/>
@@ -2625,13 +2610,13 @@
     </row>
     <row r="56" spans="1:18" customHeight="1" ht="15.75">
       <c r="A56" s="7" t="s">
-        <v>80</v>
+        <v>77</v>
       </c>
       <c r="B56" s="7"/>
       <c r="C56" s="17"/>
       <c r="D56" s="10"/>
       <c r="E56" s="7" t="s">
-        <v>81</v>
+        <v>78</v>
       </c>
       <c r="F56" s="3"/>
       <c r="G56" s="3"/>
@@ -2640,7 +2625,7 @@
     </row>
     <row r="57" spans="1:18" customHeight="1" ht="14.25">
       <c r="A57" s="7" t="s">
-        <v>82</v>
+        <v>79</v>
       </c>
       <c r="B57" s="10"/>
       <c r="C57" s="10"/>
@@ -2648,7 +2633,7 @@
       <c r="E57" s="10"/>
       <c r="F57" s="10"/>
       <c r="G57" s="57" t="s">
-        <v>83</v>
+        <v>80</v>
       </c>
       <c r="H57" s="34"/>
     </row>
@@ -2659,7 +2644,7 @@
     </row>
     <row r="59" spans="1:18" customHeight="1" ht="15">
       <c r="A59" s="7" t="s">
-        <v>84</v>
+        <v>81</v>
       </c>
       <c r="B59" s="10"/>
       <c r="C59" s="10"/>
@@ -2673,7 +2658,7 @@
     </row>
     <row r="61" spans="1:18" customHeight="1" ht="13.5">
       <c r="A61" s="58" t="s">
-        <v>85</v>
+        <v>82</v>
       </c>
       <c r="B61" s="59"/>
       <c r="C61" s="59"/>
@@ -2688,25 +2673,25 @@
     </row>
     <row r="62" spans="1:18" customHeight="1" ht="11.25">
       <c r="A62" s="7" t="s">
-        <v>86</v>
+        <v>83</v>
       </c>
       <c r="B62" s="18" t="s">
-        <v>87</v>
+        <v>84</v>
       </c>
       <c r="D62" s="18" t="s">
-        <v>88</v>
+        <v>85</v>
       </c>
       <c r="E62" s="18"/>
     </row>
     <row r="63" spans="1:18" customHeight="1" ht="14.25">
       <c r="A63" s="7" t="s">
-        <v>89</v>
+        <v>86</v>
       </c>
       <c r="B63" s="10"/>
       <c r="C63" s="10"/>
       <c r="D63" s="10"/>
       <c r="F63" s="7" t="s">
-        <v>90</v>
+        <v>87</v>
       </c>
       <c r="G63" s="17"/>
       <c r="H63" s="10"/>
@@ -2717,7 +2702,7 @@
     <row r="64" spans="1:18" customHeight="1" ht="12"/>
     <row r="65" spans="1:18" customHeight="1" ht="13.5">
       <c r="A65" s="54" t="s">
-        <v>91</v>
+        <v>88</v>
       </c>
       <c r="B65" s="54"/>
       <c r="C65" s="54"/>
@@ -2774,7 +2759,7 @@
     <row r="70" spans="1:18">
       <c r="A70" s="21"/>
       <c r="B70" s="32" t="s">
-        <v>92</v>
+        <v>89</v>
       </c>
       <c r="C70" s="21"/>
       <c r="D70" s="21"/>
@@ -2783,39 +2768,39 @@
       <c r="G70" s="21"/>
       <c r="I70" s="33"/>
       <c r="J70" s="41" t="s">
-        <v>93</v>
+        <v>90</v>
       </c>
       <c r="K70" s="21"/>
     </row>
     <row r="71" spans="1:18">
       <c r="A71" s="19" t="s">
-        <v>94</v>
+        <v>91</v>
       </c>
     </row>
     <row r="72" spans="1:18">
       <c r="B72" s="7" t="s">
-        <v>95</v>
+        <v>92</v>
       </c>
       <c r="F72" s="14" t="s">
-        <v>96</v>
+        <v>93</v>
       </c>
       <c r="G72" s="14"/>
     </row>
     <row r="73" spans="1:18">
       <c r="B73" s="22" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
     </row>
     <row r="74" spans="1:18">
       <c r="B74" s="7" t="s">
-        <v>97</v>
+        <v>94</v>
       </c>
       <c r="C74" s="10"/>
       <c r="D74" s="10"/>
       <c r="E74" s="10"/>
       <c r="F74" s="10"/>
       <c r="G74" s="7" t="s">
-        <v>98</v>
+        <v>95</v>
       </c>
       <c r="H74" s="10"/>
       <c r="I74" s="10"/>
@@ -2824,7 +2809,7 @@
     </row>
     <row r="75" spans="1:18">
       <c r="J75" s="31" t="s">
-        <v>99</v>
+        <v>96</v>
       </c>
     </row>
     <row r="82" spans="1:18" hidden="true">
@@ -3122,7 +3107,7 @@
     </row>
     <row r="3" spans="1:11" customHeight="1" ht="16">
       <c r="B3" s="86" t="s">
-        <v>100</v>
+        <v>97</v>
       </c>
       <c r="C3" s="81"/>
       <c r="D3" s="81"/>
@@ -3136,7 +3121,7 @@
     </row>
     <row r="4" spans="1:11">
       <c r="A4" s="87" t="s">
-        <v>101</v>
+        <v>98</v>
       </c>
       <c r="B4" s="88"/>
       <c r="C4" s="88"/>
@@ -3535,7 +3520,7 @@
     </row>
     <row r="38" spans="1:11" s="47" customFormat="1">
       <c r="A38" s="89" t="s">
-        <v>102</v>
+        <v>99</v>
       </c>
       <c r="B38" s="89"/>
       <c r="C38" s="89"/>

--- a/reports/report.xlsx
+++ b/reports/report.xlsx
@@ -121,22 +121,22 @@
     <t>Learner Reference No. (LRN)</t>
   </si>
   <si>
-    <t>LRN40559200000001</t>
-  </si>
-  <si>
-    <t>GRADE 5</t>
+    <t>LRN40559200000005</t>
+  </si>
+  <si>
+    <t>GRADE 1</t>
   </si>
   <si>
     <t>LAST NAME:</t>
   </si>
   <si>
-    <t>IRVING</t>
+    <t>GELLER</t>
   </si>
   <si>
     <t>FIRST NAME</t>
   </si>
   <si>
-    <t>KYRIE</t>
+    <t>EMMA</t>
   </si>
   <si>
     <t>MIDDLE NAME</t>
@@ -146,6 +146,9 @@
   </si>
   <si>
     <t xml:space="preserve">DATE OF BIRTH     </t>
+  </si>
+  <si>
+    <t>01</t>
   </si>
   <si>
     <t>/</t>
@@ -207,7 +210,7 @@
     <t>RELIGION</t>
   </si>
   <si>
-    <t>ROMAN CATHOLIC</t>
+    <t>NONE</t>
   </si>
   <si>
     <t>ADDRESS</t>
@@ -216,13 +219,13 @@
     <t>House Number and Street</t>
   </si>
   <si>
-    <t>CABILI</t>
+    <t>PUROK 3</t>
   </si>
   <si>
     <t>Barangay</t>
   </si>
   <si>
-    <t>QUEZON</t>
+    <t>CAGANGOHAN</t>
   </si>
   <si>
     <t>City/Municipality/Province/Country</t>
@@ -243,19 +246,19 @@
     <t xml:space="preserve">Mother's (Maiden Name) </t>
   </si>
   <si>
-    <t>JAMES</t>
-  </si>
-  <si>
-    <t>LEBRON</t>
-  </si>
-  <si>
-    <t>TERESA</t>
-  </si>
-  <si>
-    <t>MAMA</t>
-  </si>
-  <si>
-    <t>STA</t>
+    <t>ROSS</t>
+  </si>
+  <si>
+    <t>EUSTACE</t>
+  </si>
+  <si>
+    <t>GREEN</t>
+  </si>
+  <si>
+    <t>RACHEL</t>
+  </si>
+  <si>
+    <t>KAREN</t>
   </si>
   <si>
     <t>(Last Name)                                            (First Name)                             (Middle Name)</t>
@@ -298,10 +301,10 @@
     </r>
   </si>
   <si>
-    <t>BUSINESSMAN</t>
-  </si>
-  <si>
-    <t>HOUSEWIFE</t>
+    <t>PALEONTOLOGIST</t>
+  </si>
+  <si>
+    <t>FASHION DESIGNER AT RALPH LAUREN</t>
   </si>
   <si>
     <t>Educational Attainment (Father)</t>
@@ -324,28 +327,25 @@
     </r>
   </si>
   <si>
-    <t>COLLEGE GRADUATE</t>
-  </si>
-  <si>
-    <t>ELEMENTARY GRADUATE</t>
+    <t>MASTERS IN PALEONTOLOGY</t>
+  </si>
+  <si>
+    <t>COLLEGE</t>
   </si>
   <si>
     <t>Cellphone No.</t>
   </si>
   <si>
-    <t>09912021990</t>
-  </si>
-  <si>
-    <t>0991020202</t>
+    <t>(+63) 9919191919</t>
+  </si>
+  <si>
+    <t>(+63) 9191991111</t>
   </si>
   <si>
     <t>FB acccount:</t>
   </si>
   <si>
-    <t>KALYE IRVING</t>
-  </si>
-  <si>
-    <t>MOTHER TERESA</t>
+    <t>N/A</t>
   </si>
   <si>
     <t xml:space="preserve">Guardian's Name </t>
@@ -2214,40 +2214,40 @@
       <c r="A26" t="s">
         <v>24</v>
       </c>
-      <c r="B26" s="48">
-        <v>12</v>
+      <c r="B26" s="48" t="s">
+        <v>25</v>
       </c>
       <c r="C26" s="48" t="s">
+        <v>26</v>
+      </c>
+      <c r="D26" s="48" t="s">
         <v>25</v>
       </c>
-      <c r="D26" s="48">
-        <v>12</v>
-      </c>
       <c r="E26" s="48" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="F26" s="48">
-        <v>2015</v>
+        <v>2010</v>
       </c>
       <c r="G26" s="1" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="H26" s="15" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="I26" s="6" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="J26" s="49" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="K26" s="50">
-        <v>8</v>
+        <v>14</v>
       </c>
     </row>
     <row r="27" spans="1:18" customHeight="1" ht="9">
       <c r="A27" s="13" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="C27" s="14"/>
       <c r="G27" s="1"/>
@@ -2257,17 +2257,17 @@
     </row>
     <row r="28" spans="1:18" customHeight="1" ht="15">
       <c r="A28" s="7" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="B28" s="56" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="C28" s="56"/>
       <c r="D28" s="56"/>
       <c r="E28" s="56"/>
       <c r="F28" s="56"/>
       <c r="G28" s="83" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="H28" s="83"/>
       <c r="I28" s="83"/>
@@ -2276,15 +2276,15 @@
     </row>
     <row r="29" spans="1:18" customHeight="1" ht="16.5">
       <c r="A29" s="7" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="D29" s="76" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="E29" s="76"/>
       <c r="F29" s="76"/>
       <c r="G29" s="77" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="H29" s="77"/>
       <c r="I29" s="2"/>
@@ -2292,7 +2292,7 @@
     </row>
     <row r="30" spans="1:18" customHeight="1" ht="11.25">
       <c r="A30" s="12" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="D30" s="76"/>
       <c r="E30" s="76"/>
@@ -2305,13 +2305,13 @@
     </row>
     <row r="31" spans="1:18" customHeight="1" ht="18">
       <c r="A31" s="28" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="G31" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="H31" s="52" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="I31" s="52"/>
       <c r="J31" s="52"/>
@@ -2320,7 +2320,7 @@
     <row r="32" spans="1:18" customHeight="1" ht="4.5"/>
     <row r="33" spans="1:18" customHeight="1" ht="13.5" s="36" customFormat="1">
       <c r="A33" s="37" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="B33" s="38"/>
       <c r="C33" s="38"/>
@@ -2335,12 +2335,12 @@
     </row>
     <row r="34" spans="1:18" customHeight="1" ht="10.5">
       <c r="A34" s="5" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
     </row>
     <row r="35" spans="1:18" customHeight="1" ht="12">
       <c r="A35" s="52" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="B35" s="52"/>
       <c r="C35" s="52"/>
@@ -2355,13 +2355,13 @@
     </row>
     <row r="36" spans="1:18" customHeight="1" ht="12">
       <c r="A36" s="24" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="B36" s="16"/>
     </row>
     <row r="37" spans="1:18">
       <c r="A37" s="52" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="B37" s="52"/>
       <c r="C37" s="52"/>
@@ -2376,19 +2376,19 @@
     </row>
     <row r="38" spans="1:18" customHeight="1" ht="12.75">
       <c r="A38" s="11" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="B38" s="7"/>
       <c r="C38" s="7"/>
       <c r="D38" s="7"/>
       <c r="E38" s="7"/>
       <c r="H38" s="70" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
     </row>
     <row r="39" spans="1:18" customHeight="1" ht="13.5">
       <c r="A39" s="52" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="B39" s="52"/>
       <c r="C39" s="52"/>
@@ -2401,7 +2401,7 @@
     <row r="40" spans="1:18" customHeight="1" ht="3.75"/>
     <row r="41" spans="1:18" customHeight="1" ht="15">
       <c r="A41" s="62" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="B41" s="63"/>
       <c r="C41" s="63"/>
@@ -2416,10 +2416,10 @@
     </row>
     <row r="42" spans="1:18" customHeight="1" ht="10.5">
       <c r="A42" s="31" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="G42" s="31" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="H42" s="35"/>
       <c r="I42" s="35"/>
@@ -2428,36 +2428,38 @@
     </row>
     <row r="43" spans="1:18" customHeight="1" ht="16.5">
       <c r="A43" s="52" t="s">
-        <v>52</v>
+        <v>19</v>
       </c>
       <c r="B43" s="52"/>
       <c r="C43" s="52" t="s">
         <v>53</v>
       </c>
       <c r="D43" s="52"/>
-      <c r="E43" s="51"/>
+      <c r="E43" s="51" t="s">
+        <v>54</v>
+      </c>
       <c r="G43" s="52" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="H43" s="52"/>
       <c r="I43" s="52" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="J43" s="52"/>
       <c r="K43" s="51" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
     </row>
     <row r="44" spans="1:18" customHeight="1" ht="16.5">
       <c r="A44" s="61" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="B44" s="61"/>
       <c r="C44" s="61"/>
       <c r="D44" s="61"/>
       <c r="E44" s="61"/>
       <c r="G44" s="29" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="H44" s="29"/>
       <c r="I44" s="29"/>
@@ -2465,10 +2467,10 @@
     </row>
     <row r="45" spans="1:18" customHeight="1" ht="11.25">
       <c r="A45" s="42" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="G45" s="42" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="H45" s="30"/>
       <c r="I45" s="30"/>
@@ -2476,14 +2478,14 @@
     </row>
     <row r="46" spans="1:18" customHeight="1" ht="15">
       <c r="A46" s="52" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="B46" s="52"/>
       <c r="C46" s="52"/>
       <c r="D46" s="52"/>
       <c r="E46" s="52"/>
       <c r="G46" s="69" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="H46" s="69"/>
       <c r="I46" s="69"/>
@@ -2492,10 +2494,10 @@
     </row>
     <row r="47" spans="1:18" customHeight="1" ht="11.25">
       <c r="A47" s="43" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="G47" s="42" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="H47" s="30"/>
       <c r="I47" s="30"/>
@@ -2503,14 +2505,14 @@
     </row>
     <row r="48" spans="1:18" customHeight="1" ht="15">
       <c r="A48" s="52" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="B48" s="52"/>
       <c r="C48" s="52"/>
       <c r="D48" s="52"/>
       <c r="E48" s="52"/>
       <c r="G48" s="52" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="H48" s="52"/>
       <c r="I48" s="52"/>
@@ -2519,19 +2521,19 @@
     </row>
     <row r="49" spans="1:18" customHeight="1" ht="15.75">
       <c r="A49" s="44" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="B49" s="53" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="C49" s="53"/>
       <c r="D49" s="53"/>
       <c r="E49" s="53"/>
       <c r="G49" s="45" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="H49" s="53" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="I49" s="53"/>
       <c r="J49" s="53"/>
@@ -2539,16 +2541,16 @@
     </row>
     <row r="50" spans="1:18" customHeight="1" ht="15.75">
       <c r="A50" s="44" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="B50" s="68" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="C50" s="68"/>
       <c r="D50" s="68"/>
       <c r="E50" s="68"/>
       <c r="G50" s="44" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="H50" s="53" t="s">
         <v>72</v>
@@ -2585,7 +2587,7 @@
       <c r="D53" s="61"/>
       <c r="E53" s="61"/>
       <c r="G53" s="45" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="H53" s="10"/>
       <c r="I53" s="10"/>
@@ -2788,7 +2790,7 @@
     </row>
     <row r="73" spans="1:18">
       <c r="B73" s="22" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
     </row>
     <row r="74" spans="1:18">
@@ -2814,10 +2816,10 @@
     </row>
     <row r="82" spans="1:18" hidden="true">
       <c r="A82">
+        <v>0</v>
+      </c>
+      <c r="B82">
         <v>1</v>
-      </c>
-      <c r="B82">
-        <v>0</v>
       </c>
     </row>
   </sheetData>

--- a/reports/report.xlsx
+++ b/reports/report.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="100">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="95">
   <si>
     <t>ANNEX 2</t>
   </si>
@@ -121,22 +121,22 @@
     <t>Learner Reference No. (LRN)</t>
   </si>
   <si>
-    <t>LRN40559200000001</t>
-  </si>
-  <si>
-    <t>GRADE 1</t>
+    <t>LRN40559200000013</t>
+  </si>
+  <si>
+    <t>GRADE 2</t>
   </si>
   <si>
     <t>LAST NAME:</t>
   </si>
   <si>
-    <t>GELLER</t>
+    <t>ERICKSEN</t>
   </si>
   <si>
     <t>FIRST NAME</t>
   </si>
   <si>
-    <t>EMMA</t>
+    <t>MARSHALL</t>
   </si>
   <si>
     <t>MIDDLE NAME</t>
@@ -146,9 +146,6 @@
   </si>
   <si>
     <t xml:space="preserve">DATE OF BIRTH     </t>
-  </si>
-  <si>
-    <t>01</t>
   </si>
   <si>
     <t>/</t>
@@ -210,7 +207,7 @@
     <t>RELIGION</t>
   </si>
   <si>
-    <t>NONE</t>
+    <t>ROMAN CATHOLIC</t>
   </si>
   <si>
     <t>ADDRESS</t>
@@ -219,13 +216,13 @@
     <t>House Number and Street</t>
   </si>
   <si>
-    <t>PUROK 3</t>
+    <t>PUROK 4</t>
   </si>
   <si>
     <t>Barangay</t>
   </si>
   <si>
-    <t>CAGANGOHAN</t>
+    <t>CACAO</t>
   </si>
   <si>
     <t>City/Municipality/Province/Country</t>
@@ -246,19 +243,10 @@
     <t xml:space="preserve">Mother's (Maiden Name) </t>
   </si>
   <si>
-    <t>ROSS</t>
-  </si>
-  <si>
-    <t>EUSTACE</t>
-  </si>
-  <si>
-    <t>GREEN</t>
-  </si>
-  <si>
-    <t>RACHEL</t>
-  </si>
-  <si>
-    <t>KAREN</t>
+    <t>PAPA</t>
+  </si>
+  <si>
+    <t>MAMA</t>
   </si>
   <si>
     <t>(Last Name)                                            (First Name)                             (Middle Name)</t>
@@ -301,10 +289,10 @@
     </r>
   </si>
   <si>
-    <t>PALEONTOLOGIST</t>
-  </si>
-  <si>
-    <t>FASHION DESIGNER AT RALPH LAUREN</t>
+    <t>CARPENTER</t>
+  </si>
+  <si>
+    <t>HOUSEWIFE</t>
   </si>
   <si>
     <t>Educational Attainment (Father)</t>
@@ -327,25 +315,22 @@
     </r>
   </si>
   <si>
-    <t>MASTERS IN PALEONTOLOGY</t>
-  </si>
-  <si>
-    <t>COLLEGE</t>
+    <t>COLLEGE GRADUATE</t>
   </si>
   <si>
     <t>Cellphone No.</t>
   </si>
   <si>
-    <t>(+63) 9919191919</t>
-  </si>
-  <si>
-    <t>(+63) 9191991111</t>
+    <t>(+63) 1231231312</t>
+  </si>
+  <si>
+    <t>(+63) 1231231231</t>
   </si>
   <si>
     <t>FB acccount:</t>
   </si>
   <si>
-    <t>N/A</t>
+    <t>PAPA ERICKSEN OFFICIAL</t>
   </si>
   <si>
     <t xml:space="preserve">Guardian's Name </t>
@@ -2214,40 +2199,40 @@
       <c r="A26" t="s">
         <v>24</v>
       </c>
-      <c r="B26" s="48" t="s">
+      <c r="B26" s="48">
+        <v>11</v>
+      </c>
+      <c r="C26" s="48" t="s">
         <v>25</v>
       </c>
-      <c r="C26" s="48" t="s">
+      <c r="D26" s="48">
+        <v>12</v>
+      </c>
+      <c r="E26" s="48" t="s">
+        <v>25</v>
+      </c>
+      <c r="F26" s="48">
+        <v>2017</v>
+      </c>
+      <c r="G26" s="1" t="s">
         <v>26</v>
       </c>
-      <c r="D26" s="48" t="s">
-        <v>25</v>
-      </c>
-      <c r="E26" s="48" t="s">
-        <v>26</v>
-      </c>
-      <c r="F26" s="48">
-        <v>2010</v>
-      </c>
-      <c r="G26" s="1" t="s">
+      <c r="H26" s="15" t="s">
         <v>27</v>
       </c>
-      <c r="H26" s="15" t="s">
+      <c r="I26" s="6" t="s">
         <v>28</v>
       </c>
-      <c r="I26" s="6" t="s">
+      <c r="J26" s="49" t="s">
         <v>29</v>
       </c>
-      <c r="J26" s="49" t="s">
-        <v>30</v>
-      </c>
       <c r="K26" s="50">
-        <v>14</v>
+        <v>7</v>
       </c>
     </row>
     <row r="27" spans="1:18" customHeight="1" ht="9">
       <c r="A27" s="13" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="C27" s="14"/>
       <c r="G27" s="1"/>
@@ -2257,17 +2242,17 @@
     </row>
     <row r="28" spans="1:18" customHeight="1" ht="15">
       <c r="A28" s="7" t="s">
+        <v>31</v>
+      </c>
+      <c r="B28" s="56" t="s">
         <v>32</v>
-      </c>
-      <c r="B28" s="56" t="s">
-        <v>33</v>
       </c>
       <c r="C28" s="56"/>
       <c r="D28" s="56"/>
       <c r="E28" s="56"/>
       <c r="F28" s="56"/>
       <c r="G28" s="83" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="H28" s="83"/>
       <c r="I28" s="83"/>
@@ -2276,15 +2261,15 @@
     </row>
     <row r="29" spans="1:18" customHeight="1" ht="16.5">
       <c r="A29" s="7" t="s">
+        <v>34</v>
+      </c>
+      <c r="D29" s="76" t="s">
         <v>35</v>
-      </c>
-      <c r="D29" s="76" t="s">
-        <v>36</v>
       </c>
       <c r="E29" s="76"/>
       <c r="F29" s="76"/>
       <c r="G29" s="77" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="H29" s="77"/>
       <c r="I29" s="2"/>
@@ -2292,7 +2277,7 @@
     </row>
     <row r="30" spans="1:18" customHeight="1" ht="11.25">
       <c r="A30" s="12" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="D30" s="76"/>
       <c r="E30" s="76"/>
@@ -2305,13 +2290,13 @@
     </row>
     <row r="31" spans="1:18" customHeight="1" ht="18">
       <c r="A31" s="28" t="s">
+        <v>38</v>
+      </c>
+      <c r="G31" t="s">
         <v>39</v>
       </c>
-      <c r="G31" t="s">
+      <c r="H31" s="52" t="s">
         <v>40</v>
-      </c>
-      <c r="H31" s="52" t="s">
-        <v>41</v>
       </c>
       <c r="I31" s="52"/>
       <c r="J31" s="52"/>
@@ -2320,7 +2305,7 @@
     <row r="32" spans="1:18" customHeight="1" ht="4.5"/>
     <row r="33" spans="1:18" customHeight="1" ht="13.5" s="36" customFormat="1">
       <c r="A33" s="37" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="B33" s="38"/>
       <c r="C33" s="38"/>
@@ -2335,12 +2320,12 @@
     </row>
     <row r="34" spans="1:18" customHeight="1" ht="10.5">
       <c r="A34" s="5" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
     </row>
     <row r="35" spans="1:18" customHeight="1" ht="12">
       <c r="A35" s="52" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="B35" s="52"/>
       <c r="C35" s="52"/>
@@ -2355,13 +2340,13 @@
     </row>
     <row r="36" spans="1:18" customHeight="1" ht="12">
       <c r="A36" s="24" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="B36" s="16"/>
     </row>
     <row r="37" spans="1:18">
       <c r="A37" s="52" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="B37" s="52"/>
       <c r="C37" s="52"/>
@@ -2376,19 +2361,19 @@
     </row>
     <row r="38" spans="1:18" customHeight="1" ht="12.75">
       <c r="A38" s="11" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="B38" s="7"/>
       <c r="C38" s="7"/>
       <c r="D38" s="7"/>
       <c r="E38" s="7"/>
       <c r="H38" s="70" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
     </row>
     <row r="39" spans="1:18" customHeight="1" ht="13.5">
       <c r="A39" s="52" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="B39" s="52"/>
       <c r="C39" s="52"/>
@@ -2401,7 +2386,7 @@
     <row r="40" spans="1:18" customHeight="1" ht="3.75"/>
     <row r="41" spans="1:18" customHeight="1" ht="15">
       <c r="A41" s="62" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="B41" s="63"/>
       <c r="C41" s="63"/>
@@ -2416,10 +2401,10 @@
     </row>
     <row r="42" spans="1:18" customHeight="1" ht="10.5">
       <c r="A42" s="31" t="s">
+        <v>50</v>
+      </c>
+      <c r="G42" s="31" t="s">
         <v>51</v>
-      </c>
-      <c r="G42" s="31" t="s">
-        <v>52</v>
       </c>
       <c r="H42" s="35"/>
       <c r="I42" s="35"/>
@@ -2432,34 +2417,30 @@
       </c>
       <c r="B43" s="52"/>
       <c r="C43" s="52" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="D43" s="52"/>
-      <c r="E43" s="51" t="s">
-        <v>54</v>
-      </c>
+      <c r="E43" s="51"/>
       <c r="G43" s="52" t="s">
-        <v>55</v>
+        <v>19</v>
       </c>
       <c r="H43" s="52"/>
       <c r="I43" s="52" t="s">
-        <v>56</v>
+        <v>53</v>
       </c>
       <c r="J43" s="52"/>
-      <c r="K43" s="51" t="s">
-        <v>57</v>
-      </c>
+      <c r="K43" s="51"/>
     </row>
     <row r="44" spans="1:18" customHeight="1" ht="16.5">
       <c r="A44" s="61" t="s">
-        <v>58</v>
+        <v>54</v>
       </c>
       <c r="B44" s="61"/>
       <c r="C44" s="61"/>
       <c r="D44" s="61"/>
       <c r="E44" s="61"/>
       <c r="G44" s="29" t="s">
-        <v>59</v>
+        <v>55</v>
       </c>
       <c r="H44" s="29"/>
       <c r="I44" s="29"/>
@@ -2467,10 +2448,10 @@
     </row>
     <row r="45" spans="1:18" customHeight="1" ht="11.25">
       <c r="A45" s="42" t="s">
-        <v>60</v>
+        <v>56</v>
       </c>
       <c r="G45" s="42" t="s">
-        <v>61</v>
+        <v>57</v>
       </c>
       <c r="H45" s="30"/>
       <c r="I45" s="30"/>
@@ -2478,14 +2459,14 @@
     </row>
     <row r="46" spans="1:18" customHeight="1" ht="15">
       <c r="A46" s="52" t="s">
-        <v>62</v>
+        <v>58</v>
       </c>
       <c r="B46" s="52"/>
       <c r="C46" s="52"/>
       <c r="D46" s="52"/>
       <c r="E46" s="52"/>
       <c r="G46" s="69" t="s">
-        <v>63</v>
+        <v>59</v>
       </c>
       <c r="H46" s="69"/>
       <c r="I46" s="69"/>
@@ -2494,10 +2475,10 @@
     </row>
     <row r="47" spans="1:18" customHeight="1" ht="11.25">
       <c r="A47" s="43" t="s">
-        <v>64</v>
+        <v>60</v>
       </c>
       <c r="G47" s="42" t="s">
-        <v>65</v>
+        <v>61</v>
       </c>
       <c r="H47" s="30"/>
       <c r="I47" s="30"/>
@@ -2505,14 +2486,14 @@
     </row>
     <row r="48" spans="1:18" customHeight="1" ht="15">
       <c r="A48" s="52" t="s">
-        <v>66</v>
+        <v>62</v>
       </c>
       <c r="B48" s="52"/>
       <c r="C48" s="52"/>
       <c r="D48" s="52"/>
       <c r="E48" s="52"/>
       <c r="G48" s="52" t="s">
-        <v>67</v>
+        <v>62</v>
       </c>
       <c r="H48" s="52"/>
       <c r="I48" s="52"/>
@@ -2521,19 +2502,19 @@
     </row>
     <row r="49" spans="1:18" customHeight="1" ht="15.75">
       <c r="A49" s="44" t="s">
-        <v>68</v>
+        <v>63</v>
       </c>
       <c r="B49" s="53" t="s">
-        <v>69</v>
+        <v>64</v>
       </c>
       <c r="C49" s="53"/>
       <c r="D49" s="53"/>
       <c r="E49" s="53"/>
       <c r="G49" s="45" t="s">
-        <v>68</v>
+        <v>63</v>
       </c>
       <c r="H49" s="53" t="s">
-        <v>70</v>
+        <v>65</v>
       </c>
       <c r="I49" s="53"/>
       <c r="J49" s="53"/>
@@ -2541,30 +2522,28 @@
     </row>
     <row r="50" spans="1:18" customHeight="1" ht="15.75">
       <c r="A50" s="44" t="s">
-        <v>71</v>
+        <v>66</v>
       </c>
       <c r="B50" s="68" t="s">
-        <v>72</v>
+        <v>67</v>
       </c>
       <c r="C50" s="68"/>
       <c r="D50" s="68"/>
       <c r="E50" s="68"/>
       <c r="G50" s="44" t="s">
-        <v>71</v>
-      </c>
-      <c r="H50" s="53" t="s">
-        <v>72</v>
-      </c>
+        <v>66</v>
+      </c>
+      <c r="H50" s="53"/>
       <c r="I50" s="53"/>
       <c r="J50" s="53"/>
       <c r="K50" s="53"/>
     </row>
     <row r="51" spans="1:18" customHeight="1" ht="16.5">
       <c r="A51" s="31" t="s">
-        <v>73</v>
+        <v>68</v>
       </c>
       <c r="G51" s="31" t="s">
-        <v>74</v>
+        <v>69</v>
       </c>
     </row>
     <row r="52" spans="1:18" customHeight="1" ht="17.25">
@@ -2580,14 +2559,14 @@
     </row>
     <row r="53" spans="1:18" customHeight="1" ht="18">
       <c r="A53" s="61" t="s">
-        <v>75</v>
+        <v>70</v>
       </c>
       <c r="B53" s="61"/>
       <c r="C53" s="61"/>
       <c r="D53" s="61"/>
       <c r="E53" s="61"/>
       <c r="G53" s="45" t="s">
-        <v>68</v>
+        <v>63</v>
       </c>
       <c r="H53" s="10"/>
       <c r="I53" s="10"/>
@@ -2597,7 +2576,7 @@
     <row r="54" spans="1:18" customHeight="1" ht="4.5"/>
     <row r="55" spans="1:18" customHeight="1" ht="13.5">
       <c r="A55" s="65" t="s">
-        <v>76</v>
+        <v>71</v>
       </c>
       <c r="B55" s="66"/>
       <c r="C55" s="66"/>
@@ -2612,13 +2591,13 @@
     </row>
     <row r="56" spans="1:18" customHeight="1" ht="15.75">
       <c r="A56" s="7" t="s">
-        <v>77</v>
+        <v>72</v>
       </c>
       <c r="B56" s="7"/>
       <c r="C56" s="17"/>
       <c r="D56" s="10"/>
       <c r="E56" s="7" t="s">
-        <v>78</v>
+        <v>73</v>
       </c>
       <c r="F56" s="3"/>
       <c r="G56" s="3"/>
@@ -2627,7 +2606,7 @@
     </row>
     <row r="57" spans="1:18" customHeight="1" ht="14.25">
       <c r="A57" s="7" t="s">
-        <v>79</v>
+        <v>74</v>
       </c>
       <c r="B57" s="10"/>
       <c r="C57" s="10"/>
@@ -2635,7 +2614,7 @@
       <c r="E57" s="10"/>
       <c r="F57" s="10"/>
       <c r="G57" s="57" t="s">
-        <v>80</v>
+        <v>75</v>
       </c>
       <c r="H57" s="34"/>
     </row>
@@ -2646,7 +2625,7 @@
     </row>
     <row r="59" spans="1:18" customHeight="1" ht="15">
       <c r="A59" s="7" t="s">
-        <v>81</v>
+        <v>76</v>
       </c>
       <c r="B59" s="10"/>
       <c r="C59" s="10"/>
@@ -2660,7 +2639,7 @@
     </row>
     <row r="61" spans="1:18" customHeight="1" ht="13.5">
       <c r="A61" s="58" t="s">
-        <v>82</v>
+        <v>77</v>
       </c>
       <c r="B61" s="59"/>
       <c r="C61" s="59"/>
@@ -2675,25 +2654,25 @@
     </row>
     <row r="62" spans="1:18" customHeight="1" ht="11.25">
       <c r="A62" s="7" t="s">
-        <v>83</v>
+        <v>78</v>
       </c>
       <c r="B62" s="18" t="s">
-        <v>84</v>
+        <v>79</v>
       </c>
       <c r="D62" s="18" t="s">
-        <v>85</v>
+        <v>80</v>
       </c>
       <c r="E62" s="18"/>
     </row>
     <row r="63" spans="1:18" customHeight="1" ht="14.25">
       <c r="A63" s="7" t="s">
-        <v>86</v>
+        <v>81</v>
       </c>
       <c r="B63" s="10"/>
       <c r="C63" s="10"/>
       <c r="D63" s="10"/>
       <c r="F63" s="7" t="s">
-        <v>87</v>
+        <v>82</v>
       </c>
       <c r="G63" s="17"/>
       <c r="H63" s="10"/>
@@ -2704,7 +2683,7 @@
     <row r="64" spans="1:18" customHeight="1" ht="12"/>
     <row r="65" spans="1:18" customHeight="1" ht="13.5">
       <c r="A65" s="54" t="s">
-        <v>88</v>
+        <v>83</v>
       </c>
       <c r="B65" s="54"/>
       <c r="C65" s="54"/>
@@ -2761,7 +2740,7 @@
     <row r="70" spans="1:18">
       <c r="A70" s="21"/>
       <c r="B70" s="32" t="s">
-        <v>89</v>
+        <v>84</v>
       </c>
       <c r="C70" s="21"/>
       <c r="D70" s="21"/>
@@ -2770,39 +2749,39 @@
       <c r="G70" s="21"/>
       <c r="I70" s="33"/>
       <c r="J70" s="41" t="s">
-        <v>90</v>
+        <v>85</v>
       </c>
       <c r="K70" s="21"/>
     </row>
     <row r="71" spans="1:18">
       <c r="A71" s="19" t="s">
-        <v>91</v>
+        <v>86</v>
       </c>
     </row>
     <row r="72" spans="1:18">
       <c r="B72" s="7" t="s">
-        <v>92</v>
+        <v>87</v>
       </c>
       <c r="F72" s="14" t="s">
-        <v>93</v>
+        <v>88</v>
       </c>
       <c r="G72" s="14"/>
     </row>
     <row r="73" spans="1:18">
       <c r="B73" s="22" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
     </row>
     <row r="74" spans="1:18">
       <c r="B74" s="7" t="s">
-        <v>94</v>
+        <v>89</v>
       </c>
       <c r="C74" s="10"/>
       <c r="D74" s="10"/>
       <c r="E74" s="10"/>
       <c r="F74" s="10"/>
       <c r="G74" s="7" t="s">
-        <v>95</v>
+        <v>90</v>
       </c>
       <c r="H74" s="10"/>
       <c r="I74" s="10"/>
@@ -2811,15 +2790,15 @@
     </row>
     <row r="75" spans="1:18">
       <c r="J75" s="31" t="s">
-        <v>96</v>
+        <v>91</v>
       </c>
     </row>
     <row r="82" spans="1:18" hidden="true">
       <c r="A82">
+        <v>1</v>
+      </c>
+      <c r="B82">
         <v>0</v>
-      </c>
-      <c r="B82">
-        <v>1</v>
       </c>
     </row>
   </sheetData>
@@ -3109,7 +3088,7 @@
     </row>
     <row r="3" spans="1:11" customHeight="1" ht="16">
       <c r="B3" s="86" t="s">
-        <v>97</v>
+        <v>92</v>
       </c>
       <c r="C3" s="81"/>
       <c r="D3" s="81"/>
@@ -3123,7 +3102,7 @@
     </row>
     <row r="4" spans="1:11">
       <c r="A4" s="87" t="s">
-        <v>98</v>
+        <v>93</v>
       </c>
       <c r="B4" s="88"/>
       <c r="C4" s="88"/>
@@ -3522,7 +3501,7 @@
     </row>
     <row r="38" spans="1:11" s="47" customFormat="1">
       <c r="A38" s="89" t="s">
-        <v>99</v>
+        <v>94</v>
       </c>
       <c r="B38" s="89"/>
       <c r="C38" s="89"/>

--- a/reports/report.xlsx
+++ b/reports/report.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="95">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="98">
   <si>
     <t>ANNEX 2</t>
   </si>
@@ -121,31 +121,37 @@
     <t>Learner Reference No. (LRN)</t>
   </si>
   <si>
-    <t>LRN40559200000013</t>
-  </si>
-  <si>
-    <t>GRADE 2</t>
+    <t>LRN40559200000011</t>
+  </si>
+  <si>
+    <t>GRADE 1</t>
   </si>
   <si>
     <t>LAST NAME:</t>
   </si>
   <si>
-    <t>ERICKSEN</t>
+    <t>STINSON</t>
   </si>
   <si>
     <t>FIRST NAME</t>
   </si>
   <si>
-    <t>MARSHALL</t>
+    <t>BARNEY</t>
   </si>
   <si>
     <t>MIDDLE NAME</t>
   </si>
   <si>
+    <t>WAITFORIT</t>
+  </si>
+  <si>
     <t>EXTENSION NAME e.g. Jr., III (If applicable)</t>
   </si>
   <si>
     <t xml:space="preserve">DATE OF BIRTH     </t>
+  </si>
+  <si>
+    <t>01</t>
   </si>
   <si>
     <t>/</t>
@@ -216,13 +222,13 @@
     <t>House Number and Street</t>
   </si>
   <si>
-    <t>PUROK 4</t>
+    <t>PUROK 11</t>
   </si>
   <si>
     <t>Barangay</t>
   </si>
   <si>
-    <t>CACAO</t>
+    <t>CAGANGOHAN</t>
   </si>
   <si>
     <t>City/Municipality/Province/Country</t>
@@ -243,10 +249,13 @@
     <t xml:space="preserve">Mother's (Maiden Name) </t>
   </si>
   <si>
-    <t>PAPA</t>
-  </si>
-  <si>
-    <t>MAMA</t>
+    <t>TRUMP</t>
+  </si>
+  <si>
+    <t>DONALD</t>
+  </si>
+  <si>
+    <t>MELANIA</t>
   </si>
   <si>
     <t>(Last Name)                                            (First Name)                             (Middle Name)</t>
@@ -289,10 +298,10 @@
     </r>
   </si>
   <si>
-    <t>CARPENTER</t>
-  </si>
-  <si>
-    <t>HOUSEWIFE</t>
+    <t>BUSINESS MAN</t>
+  </si>
+  <si>
+    <t>HOUSE WIFE</t>
   </si>
   <si>
     <t>Educational Attainment (Father)</t>
@@ -321,16 +330,16 @@
     <t>Cellphone No.</t>
   </si>
   <si>
-    <t>(+63) 1231231312</t>
-  </si>
-  <si>
     <t>(+63) 1231231231</t>
   </si>
   <si>
     <t>FB acccount:</t>
   </si>
   <si>
-    <t>PAPA ERICKSEN OFFICIAL</t>
+    <t>DONALD TRUMP OFFICIAL</t>
+  </si>
+  <si>
+    <t>MELANIA TRUMP OFFICIAL</t>
   </si>
   <si>
     <t xml:space="preserve">Guardian's Name </t>
@@ -2177,7 +2186,9 @@
       <c r="A22" t="s">
         <v>22</v>
       </c>
-      <c r="B22" s="85"/>
+      <c r="B22" s="85" t="s">
+        <v>23</v>
+      </c>
       <c r="C22" s="85"/>
       <c r="D22" s="85"/>
       <c r="E22" s="85"/>
@@ -2189,7 +2200,7 @@
     <row r="23" spans="1:18" customHeight="1" ht="9.75"/>
     <row r="24" spans="1:18" customHeight="1" ht="11.25">
       <c r="A24" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="F24" s="10"/>
       <c r="G24" s="10"/>
@@ -2197,42 +2208,42 @@
     <row r="25" spans="1:18" customHeight="1" ht="6"/>
     <row r="26" spans="1:18" customHeight="1" ht="12.75">
       <c r="A26" t="s">
-        <v>24</v>
-      </c>
-      <c r="B26" s="48">
-        <v>11</v>
+        <v>25</v>
+      </c>
+      <c r="B26" s="48" t="s">
+        <v>26</v>
       </c>
       <c r="C26" s="48" t="s">
-        <v>25</v>
-      </c>
-      <c r="D26" s="48">
-        <v>12</v>
+        <v>27</v>
+      </c>
+      <c r="D26" s="48" t="s">
+        <v>26</v>
       </c>
       <c r="E26" s="48" t="s">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="F26" s="48">
-        <v>2017</v>
+        <v>1990</v>
       </c>
       <c r="G26" s="1" t="s">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="H26" s="15" t="s">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="I26" s="6" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="J26" s="49" t="s">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="K26" s="50">
-        <v>7</v>
+        <v>34</v>
       </c>
     </row>
     <row r="27" spans="1:18" customHeight="1" ht="9">
       <c r="A27" s="13" t="s">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="C27" s="14"/>
       <c r="G27" s="1"/>
@@ -2242,17 +2253,17 @@
     </row>
     <row r="28" spans="1:18" customHeight="1" ht="15">
       <c r="A28" s="7" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="B28" s="56" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="C28" s="56"/>
       <c r="D28" s="56"/>
       <c r="E28" s="56"/>
       <c r="F28" s="56"/>
       <c r="G28" s="83" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="H28" s="83"/>
       <c r="I28" s="83"/>
@@ -2261,15 +2272,15 @@
     </row>
     <row r="29" spans="1:18" customHeight="1" ht="16.5">
       <c r="A29" s="7" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="D29" s="76" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="E29" s="76"/>
       <c r="F29" s="76"/>
       <c r="G29" s="77" t="s">
-        <v>36</v>
+        <v>38</v>
       </c>
       <c r="H29" s="77"/>
       <c r="I29" s="2"/>
@@ -2277,7 +2288,7 @@
     </row>
     <row r="30" spans="1:18" customHeight="1" ht="11.25">
       <c r="A30" s="12" t="s">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="D30" s="76"/>
       <c r="E30" s="76"/>
@@ -2290,13 +2301,13 @@
     </row>
     <row r="31" spans="1:18" customHeight="1" ht="18">
       <c r="A31" s="28" t="s">
-        <v>38</v>
+        <v>40</v>
       </c>
       <c r="G31" t="s">
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="H31" s="52" t="s">
-        <v>40</v>
+        <v>42</v>
       </c>
       <c r="I31" s="52"/>
       <c r="J31" s="52"/>
@@ -2305,7 +2316,7 @@
     <row r="32" spans="1:18" customHeight="1" ht="4.5"/>
     <row r="33" spans="1:18" customHeight="1" ht="13.5" s="36" customFormat="1">
       <c r="A33" s="37" t="s">
-        <v>41</v>
+        <v>43</v>
       </c>
       <c r="B33" s="38"/>
       <c r="C33" s="38"/>
@@ -2320,12 +2331,12 @@
     </row>
     <row r="34" spans="1:18" customHeight="1" ht="10.5">
       <c r="A34" s="5" t="s">
-        <v>42</v>
+        <v>44</v>
       </c>
     </row>
     <row r="35" spans="1:18" customHeight="1" ht="12">
       <c r="A35" s="52" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="B35" s="52"/>
       <c r="C35" s="52"/>
@@ -2340,13 +2351,13 @@
     </row>
     <row r="36" spans="1:18" customHeight="1" ht="12">
       <c r="A36" s="24" t="s">
-        <v>44</v>
+        <v>46</v>
       </c>
       <c r="B36" s="16"/>
     </row>
     <row r="37" spans="1:18">
       <c r="A37" s="52" t="s">
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="B37" s="52"/>
       <c r="C37" s="52"/>
@@ -2361,19 +2372,19 @@
     </row>
     <row r="38" spans="1:18" customHeight="1" ht="12.75">
       <c r="A38" s="11" t="s">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="B38" s="7"/>
       <c r="C38" s="7"/>
       <c r="D38" s="7"/>
       <c r="E38" s="7"/>
       <c r="H38" s="70" t="s">
-        <v>47</v>
+        <v>49</v>
       </c>
     </row>
     <row r="39" spans="1:18" customHeight="1" ht="13.5">
       <c r="A39" s="52" t="s">
-        <v>48</v>
+        <v>50</v>
       </c>
       <c r="B39" s="52"/>
       <c r="C39" s="52"/>
@@ -2386,7 +2397,7 @@
     <row r="40" spans="1:18" customHeight="1" ht="3.75"/>
     <row r="41" spans="1:18" customHeight="1" ht="15">
       <c r="A41" s="62" t="s">
-        <v>49</v>
+        <v>51</v>
       </c>
       <c r="B41" s="63"/>
       <c r="C41" s="63"/>
@@ -2401,10 +2412,10 @@
     </row>
     <row r="42" spans="1:18" customHeight="1" ht="10.5">
       <c r="A42" s="31" t="s">
-        <v>50</v>
+        <v>52</v>
       </c>
       <c r="G42" s="31" t="s">
-        <v>51</v>
+        <v>53</v>
       </c>
       <c r="H42" s="35"/>
       <c r="I42" s="35"/>
@@ -2413,34 +2424,34 @@
     </row>
     <row r="43" spans="1:18" customHeight="1" ht="16.5">
       <c r="A43" s="52" t="s">
-        <v>19</v>
+        <v>54</v>
       </c>
       <c r="B43" s="52"/>
       <c r="C43" s="52" t="s">
-        <v>52</v>
+        <v>55</v>
       </c>
       <c r="D43" s="52"/>
       <c r="E43" s="51"/>
       <c r="G43" s="52" t="s">
-        <v>19</v>
+        <v>54</v>
       </c>
       <c r="H43" s="52"/>
       <c r="I43" s="52" t="s">
-        <v>53</v>
+        <v>56</v>
       </c>
       <c r="J43" s="52"/>
       <c r="K43" s="51"/>
     </row>
     <row r="44" spans="1:18" customHeight="1" ht="16.5">
       <c r="A44" s="61" t="s">
-        <v>54</v>
+        <v>57</v>
       </c>
       <c r="B44" s="61"/>
       <c r="C44" s="61"/>
       <c r="D44" s="61"/>
       <c r="E44" s="61"/>
       <c r="G44" s="29" t="s">
-        <v>55</v>
+        <v>58</v>
       </c>
       <c r="H44" s="29"/>
       <c r="I44" s="29"/>
@@ -2448,10 +2459,10 @@
     </row>
     <row r="45" spans="1:18" customHeight="1" ht="11.25">
       <c r="A45" s="42" t="s">
-        <v>56</v>
+        <v>59</v>
       </c>
       <c r="G45" s="42" t="s">
-        <v>57</v>
+        <v>60</v>
       </c>
       <c r="H45" s="30"/>
       <c r="I45" s="30"/>
@@ -2459,14 +2470,14 @@
     </row>
     <row r="46" spans="1:18" customHeight="1" ht="15">
       <c r="A46" s="52" t="s">
-        <v>58</v>
+        <v>61</v>
       </c>
       <c r="B46" s="52"/>
       <c r="C46" s="52"/>
       <c r="D46" s="52"/>
       <c r="E46" s="52"/>
       <c r="G46" s="69" t="s">
-        <v>59</v>
+        <v>62</v>
       </c>
       <c r="H46" s="69"/>
       <c r="I46" s="69"/>
@@ -2475,10 +2486,10 @@
     </row>
     <row r="47" spans="1:18" customHeight="1" ht="11.25">
       <c r="A47" s="43" t="s">
-        <v>60</v>
+        <v>63</v>
       </c>
       <c r="G47" s="42" t="s">
-        <v>61</v>
+        <v>64</v>
       </c>
       <c r="H47" s="30"/>
       <c r="I47" s="30"/>
@@ -2486,14 +2497,14 @@
     </row>
     <row r="48" spans="1:18" customHeight="1" ht="15">
       <c r="A48" s="52" t="s">
-        <v>62</v>
+        <v>65</v>
       </c>
       <c r="B48" s="52"/>
       <c r="C48" s="52"/>
       <c r="D48" s="52"/>
       <c r="E48" s="52"/>
       <c r="G48" s="52" t="s">
-        <v>62</v>
+        <v>65</v>
       </c>
       <c r="H48" s="52"/>
       <c r="I48" s="52"/>
@@ -2502,19 +2513,19 @@
     </row>
     <row r="49" spans="1:18" customHeight="1" ht="15.75">
       <c r="A49" s="44" t="s">
-        <v>63</v>
+        <v>66</v>
       </c>
       <c r="B49" s="53" t="s">
-        <v>64</v>
+        <v>67</v>
       </c>
       <c r="C49" s="53"/>
       <c r="D49" s="53"/>
       <c r="E49" s="53"/>
       <c r="G49" s="45" t="s">
-        <v>63</v>
+        <v>66</v>
       </c>
       <c r="H49" s="53" t="s">
-        <v>65</v>
+        <v>67</v>
       </c>
       <c r="I49" s="53"/>
       <c r="J49" s="53"/>
@@ -2522,28 +2533,30 @@
     </row>
     <row r="50" spans="1:18" customHeight="1" ht="15.75">
       <c r="A50" s="44" t="s">
-        <v>66</v>
+        <v>68</v>
       </c>
       <c r="B50" s="68" t="s">
-        <v>67</v>
+        <v>69</v>
       </c>
       <c r="C50" s="68"/>
       <c r="D50" s="68"/>
       <c r="E50" s="68"/>
       <c r="G50" s="44" t="s">
-        <v>66</v>
-      </c>
-      <c r="H50" s="53"/>
+        <v>68</v>
+      </c>
+      <c r="H50" s="53" t="s">
+        <v>70</v>
+      </c>
       <c r="I50" s="53"/>
       <c r="J50" s="53"/>
       <c r="K50" s="53"/>
     </row>
     <row r="51" spans="1:18" customHeight="1" ht="16.5">
       <c r="A51" s="31" t="s">
-        <v>68</v>
+        <v>71</v>
       </c>
       <c r="G51" s="31" t="s">
-        <v>69</v>
+        <v>72</v>
       </c>
     </row>
     <row r="52" spans="1:18" customHeight="1" ht="17.25">
@@ -2559,14 +2572,14 @@
     </row>
     <row r="53" spans="1:18" customHeight="1" ht="18">
       <c r="A53" s="61" t="s">
-        <v>70</v>
+        <v>73</v>
       </c>
       <c r="B53" s="61"/>
       <c r="C53" s="61"/>
       <c r="D53" s="61"/>
       <c r="E53" s="61"/>
       <c r="G53" s="45" t="s">
-        <v>63</v>
+        <v>66</v>
       </c>
       <c r="H53" s="10"/>
       <c r="I53" s="10"/>
@@ -2576,7 +2589,7 @@
     <row r="54" spans="1:18" customHeight="1" ht="4.5"/>
     <row r="55" spans="1:18" customHeight="1" ht="13.5">
       <c r="A55" s="65" t="s">
-        <v>71</v>
+        <v>74</v>
       </c>
       <c r="B55" s="66"/>
       <c r="C55" s="66"/>
@@ -2591,13 +2604,13 @@
     </row>
     <row r="56" spans="1:18" customHeight="1" ht="15.75">
       <c r="A56" s="7" t="s">
-        <v>72</v>
+        <v>75</v>
       </c>
       <c r="B56" s="7"/>
       <c r="C56" s="17"/>
       <c r="D56" s="10"/>
       <c r="E56" s="7" t="s">
-        <v>73</v>
+        <v>76</v>
       </c>
       <c r="F56" s="3"/>
       <c r="G56" s="3"/>
@@ -2606,7 +2619,7 @@
     </row>
     <row r="57" spans="1:18" customHeight="1" ht="14.25">
       <c r="A57" s="7" t="s">
-        <v>74</v>
+        <v>77</v>
       </c>
       <c r="B57" s="10"/>
       <c r="C57" s="10"/>
@@ -2614,7 +2627,7 @@
       <c r="E57" s="10"/>
       <c r="F57" s="10"/>
       <c r="G57" s="57" t="s">
-        <v>75</v>
+        <v>78</v>
       </c>
       <c r="H57" s="34"/>
     </row>
@@ -2625,7 +2638,7 @@
     </row>
     <row r="59" spans="1:18" customHeight="1" ht="15">
       <c r="A59" s="7" t="s">
-        <v>76</v>
+        <v>79</v>
       </c>
       <c r="B59" s="10"/>
       <c r="C59" s="10"/>
@@ -2639,7 +2652,7 @@
     </row>
     <row r="61" spans="1:18" customHeight="1" ht="13.5">
       <c r="A61" s="58" t="s">
-        <v>77</v>
+        <v>80</v>
       </c>
       <c r="B61" s="59"/>
       <c r="C61" s="59"/>
@@ -2654,25 +2667,25 @@
     </row>
     <row r="62" spans="1:18" customHeight="1" ht="11.25">
       <c r="A62" s="7" t="s">
-        <v>78</v>
+        <v>81</v>
       </c>
       <c r="B62" s="18" t="s">
-        <v>79</v>
+        <v>82</v>
       </c>
       <c r="D62" s="18" t="s">
-        <v>80</v>
+        <v>83</v>
       </c>
       <c r="E62" s="18"/>
     </row>
     <row r="63" spans="1:18" customHeight="1" ht="14.25">
       <c r="A63" s="7" t="s">
-        <v>81</v>
+        <v>84</v>
       </c>
       <c r="B63" s="10"/>
       <c r="C63" s="10"/>
       <c r="D63" s="10"/>
       <c r="F63" s="7" t="s">
-        <v>82</v>
+        <v>85</v>
       </c>
       <c r="G63" s="17"/>
       <c r="H63" s="10"/>
@@ -2683,7 +2696,7 @@
     <row r="64" spans="1:18" customHeight="1" ht="12"/>
     <row r="65" spans="1:18" customHeight="1" ht="13.5">
       <c r="A65" s="54" t="s">
-        <v>83</v>
+        <v>86</v>
       </c>
       <c r="B65" s="54"/>
       <c r="C65" s="54"/>
@@ -2740,7 +2753,7 @@
     <row r="70" spans="1:18">
       <c r="A70" s="21"/>
       <c r="B70" s="32" t="s">
-        <v>84</v>
+        <v>87</v>
       </c>
       <c r="C70" s="21"/>
       <c r="D70" s="21"/>
@@ -2749,39 +2762,39 @@
       <c r="G70" s="21"/>
       <c r="I70" s="33"/>
       <c r="J70" s="41" t="s">
-        <v>85</v>
+        <v>88</v>
       </c>
       <c r="K70" s="21"/>
     </row>
     <row r="71" spans="1:18">
       <c r="A71" s="19" t="s">
-        <v>86</v>
+        <v>89</v>
       </c>
     </row>
     <row r="72" spans="1:18">
       <c r="B72" s="7" t="s">
-        <v>87</v>
+        <v>90</v>
       </c>
       <c r="F72" s="14" t="s">
-        <v>88</v>
+        <v>91</v>
       </c>
       <c r="G72" s="14"/>
     </row>
     <row r="73" spans="1:18">
       <c r="B73" s="22" t="s">
-        <v>30</v>
+        <v>32</v>
       </c>
     </row>
     <row r="74" spans="1:18">
       <c r="B74" s="7" t="s">
-        <v>89</v>
+        <v>92</v>
       </c>
       <c r="C74" s="10"/>
       <c r="D74" s="10"/>
       <c r="E74" s="10"/>
       <c r="F74" s="10"/>
       <c r="G74" s="7" t="s">
-        <v>90</v>
+        <v>93</v>
       </c>
       <c r="H74" s="10"/>
       <c r="I74" s="10"/>
@@ -2790,7 +2803,7 @@
     </row>
     <row r="75" spans="1:18">
       <c r="J75" s="31" t="s">
-        <v>91</v>
+        <v>94</v>
       </c>
     </row>
     <row r="82" spans="1:18" hidden="true">
@@ -3088,7 +3101,7 @@
     </row>
     <row r="3" spans="1:11" customHeight="1" ht="16">
       <c r="B3" s="86" t="s">
-        <v>92</v>
+        <v>95</v>
       </c>
       <c r="C3" s="81"/>
       <c r="D3" s="81"/>
@@ -3102,7 +3115,7 @@
     </row>
     <row r="4" spans="1:11">
       <c r="A4" s="87" t="s">
-        <v>93</v>
+        <v>96</v>
       </c>
       <c r="B4" s="88"/>
       <c r="C4" s="88"/>
@@ -3501,7 +3514,7 @@
     </row>
     <row r="38" spans="1:11" s="47" customFormat="1">
       <c r="A38" s="89" t="s">
-        <v>94</v>
+        <v>97</v>
       </c>
       <c r="B38" s="89"/>
       <c r="C38" s="89"/>

--- a/reports/report.xlsx
+++ b/reports/report.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="98">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="91">
   <si>
     <t>ANNEX 2</t>
   </si>
@@ -121,7 +121,7 @@
     <t>Learner Reference No. (LRN)</t>
   </si>
   <si>
-    <t>LRN40559200000011</t>
+    <t>LRN40559200000015</t>
   </si>
   <si>
     <t>GRADE 1</t>
@@ -130,28 +130,22 @@
     <t>LAST NAME:</t>
   </si>
   <si>
-    <t>STINSON</t>
+    <t>ALDRIN</t>
   </si>
   <si>
     <t>FIRST NAME</t>
   </si>
   <si>
-    <t>BARNEY</t>
+    <t>LILY</t>
   </si>
   <si>
     <t>MIDDLE NAME</t>
   </si>
   <si>
-    <t>WAITFORIT</t>
-  </si>
-  <si>
     <t>EXTENSION NAME e.g. Jr., III (If applicable)</t>
   </si>
   <si>
     <t xml:space="preserve">DATE OF BIRTH     </t>
-  </si>
-  <si>
-    <t>01</t>
   </si>
   <si>
     <t>/</t>
@@ -222,13 +216,13 @@
     <t>House Number and Street</t>
   </si>
   <si>
-    <t>PUROK 11</t>
+    <t>PUROK 4</t>
   </si>
   <si>
     <t>Barangay</t>
   </si>
   <si>
-    <t>CAGANGOHAN</t>
+    <t>MABAUS</t>
   </si>
   <si>
     <t>City/Municipality/Province/Country</t>
@@ -237,7 +231,7 @@
     <t>Zip Code</t>
   </si>
   <si>
-    <t>CITY OF PANABO , DAVAO DEL NORTE, PHILIPPINES</t>
+    <t>CARMEN , DAVAO DEL NORTE, PHILIPPINES</t>
   </si>
   <si>
     <t>PARENT'S /GUARDIAN'S INFORMATION</t>
@@ -247,15 +241,6 @@
   </si>
   <si>
     <t xml:space="preserve">Mother's (Maiden Name) </t>
-  </si>
-  <si>
-    <t>TRUMP</t>
-  </si>
-  <si>
-    <t>DONALD</t>
-  </si>
-  <si>
-    <t>MELANIA</t>
   </si>
   <si>
     <t>(Last Name)                                            (First Name)                             (Middle Name)</t>
@@ -298,12 +283,6 @@
     </r>
   </si>
   <si>
-    <t>BUSINESS MAN</t>
-  </si>
-  <si>
-    <t>HOUSE WIFE</t>
-  </si>
-  <si>
     <t>Educational Attainment (Father)</t>
   </si>
   <si>
@@ -324,31 +303,31 @@
     </r>
   </si>
   <si>
-    <t>COLLEGE GRADUATE</t>
-  </si>
-  <si>
     <t>Cellphone No.</t>
   </si>
   <si>
+    <t>FB acccount:</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Guardian's Name </t>
+  </si>
+  <si>
+    <t>Guardian's Occupation</t>
+  </si>
+  <si>
+    <t>GUARDIAN LILY</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> </t>
+  </si>
+  <si>
+    <t>HOUSEWIFE</t>
+  </si>
+  <si>
+    <t>(Last Name)                                               (First Name)                                (Middle Name)</t>
+  </si>
+  <si>
     <t>(+63) 1231231231</t>
-  </si>
-  <si>
-    <t>FB acccount:</t>
-  </si>
-  <si>
-    <t>DONALD TRUMP OFFICIAL</t>
-  </si>
-  <si>
-    <t>MELANIA TRUMP OFFICIAL</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Guardian's Name </t>
-  </si>
-  <si>
-    <t>Guardian's Occupation</t>
-  </si>
-  <si>
-    <t>(Last Name)                                               (First Name)                                (Middle Name)</t>
   </si>
   <si>
     <t>For Returning Learners (Balik-Aral) and Those Who Shall Transfer/Move In</t>
@@ -2186,9 +2165,7 @@
       <c r="A22" t="s">
         <v>22</v>
       </c>
-      <c r="B22" s="85" t="s">
-        <v>23</v>
-      </c>
+      <c r="B22" s="85"/>
       <c r="C22" s="85"/>
       <c r="D22" s="85"/>
       <c r="E22" s="85"/>
@@ -2200,7 +2177,7 @@
     <row r="23" spans="1:18" customHeight="1" ht="9.75"/>
     <row r="24" spans="1:18" customHeight="1" ht="11.25">
       <c r="A24" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="F24" s="10"/>
       <c r="G24" s="10"/>
@@ -2208,42 +2185,42 @@
     <row r="25" spans="1:18" customHeight="1" ht="6"/>
     <row r="26" spans="1:18" customHeight="1" ht="12.75">
       <c r="A26" t="s">
+        <v>24</v>
+      </c>
+      <c r="B26" s="48">
+        <v>10</v>
+      </c>
+      <c r="C26" s="48" t="s">
         <v>25</v>
       </c>
-      <c r="B26" s="48" t="s">
+      <c r="D26" s="48">
+        <v>10</v>
+      </c>
+      <c r="E26" s="48" t="s">
+        <v>25</v>
+      </c>
+      <c r="F26" s="48">
+        <v>2018</v>
+      </c>
+      <c r="G26" s="1" t="s">
         <v>26</v>
       </c>
-      <c r="C26" s="48" t="s">
+      <c r="H26" s="15" t="s">
         <v>27</v>
       </c>
-      <c r="D26" s="48" t="s">
-        <v>26</v>
-      </c>
-      <c r="E26" s="48" t="s">
-        <v>27</v>
-      </c>
-      <c r="F26" s="48">
-        <v>1990</v>
-      </c>
-      <c r="G26" s="1" t="s">
+      <c r="I26" s="6" t="s">
         <v>28</v>
       </c>
-      <c r="H26" s="15" t="s">
+      <c r="J26" s="49" t="s">
         <v>29</v>
       </c>
-      <c r="I26" s="6" t="s">
-        <v>30</v>
-      </c>
-      <c r="J26" s="49" t="s">
-        <v>31</v>
-      </c>
       <c r="K26" s="50">
-        <v>34</v>
+        <v>6</v>
       </c>
     </row>
     <row r="27" spans="1:18" customHeight="1" ht="9">
       <c r="A27" s="13" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="C27" s="14"/>
       <c r="G27" s="1"/>
@@ -2253,17 +2230,17 @@
     </row>
     <row r="28" spans="1:18" customHeight="1" ht="15">
       <c r="A28" s="7" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="B28" s="56" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="C28" s="56"/>
       <c r="D28" s="56"/>
       <c r="E28" s="56"/>
       <c r="F28" s="56"/>
       <c r="G28" s="83" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="H28" s="83"/>
       <c r="I28" s="83"/>
@@ -2272,15 +2249,15 @@
     </row>
     <row r="29" spans="1:18" customHeight="1" ht="16.5">
       <c r="A29" s="7" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="D29" s="76" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="E29" s="76"/>
       <c r="F29" s="76"/>
       <c r="G29" s="77" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="H29" s="77"/>
       <c r="I29" s="2"/>
@@ -2288,7 +2265,7 @@
     </row>
     <row r="30" spans="1:18" customHeight="1" ht="11.25">
       <c r="A30" s="12" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="D30" s="76"/>
       <c r="E30" s="76"/>
@@ -2301,13 +2278,13 @@
     </row>
     <row r="31" spans="1:18" customHeight="1" ht="18">
       <c r="A31" s="28" t="s">
+        <v>38</v>
+      </c>
+      <c r="G31" t="s">
+        <v>39</v>
+      </c>
+      <c r="H31" s="52" t="s">
         <v>40</v>
-      </c>
-      <c r="G31" t="s">
-        <v>41</v>
-      </c>
-      <c r="H31" s="52" t="s">
-        <v>42</v>
       </c>
       <c r="I31" s="52"/>
       <c r="J31" s="52"/>
@@ -2316,7 +2293,7 @@
     <row r="32" spans="1:18" customHeight="1" ht="4.5"/>
     <row r="33" spans="1:18" customHeight="1" ht="13.5" s="36" customFormat="1">
       <c r="A33" s="37" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="B33" s="38"/>
       <c r="C33" s="38"/>
@@ -2331,12 +2308,12 @@
     </row>
     <row r="34" spans="1:18" customHeight="1" ht="10.5">
       <c r="A34" s="5" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
     </row>
     <row r="35" spans="1:18" customHeight="1" ht="12">
       <c r="A35" s="52" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="B35" s="52"/>
       <c r="C35" s="52"/>
@@ -2351,13 +2328,13 @@
     </row>
     <row r="36" spans="1:18" customHeight="1" ht="12">
       <c r="A36" s="24" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="B36" s="16"/>
     </row>
     <row r="37" spans="1:18">
       <c r="A37" s="52" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="B37" s="52"/>
       <c r="C37" s="52"/>
@@ -2372,19 +2349,19 @@
     </row>
     <row r="38" spans="1:18" customHeight="1" ht="12.75">
       <c r="A38" s="11" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="B38" s="7"/>
       <c r="C38" s="7"/>
       <c r="D38" s="7"/>
       <c r="E38" s="7"/>
       <c r="H38" s="70" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
     </row>
     <row r="39" spans="1:18" customHeight="1" ht="13.5">
       <c r="A39" s="52" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="B39" s="52"/>
       <c r="C39" s="52"/>
@@ -2397,7 +2374,7 @@
     <row r="40" spans="1:18" customHeight="1" ht="3.75"/>
     <row r="41" spans="1:18" customHeight="1" ht="15">
       <c r="A41" s="62" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="B41" s="63"/>
       <c r="C41" s="63"/>
@@ -2412,10 +2389,10 @@
     </row>
     <row r="42" spans="1:18" customHeight="1" ht="10.5">
       <c r="A42" s="31" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="G42" s="31" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="H42" s="35"/>
       <c r="I42" s="35"/>
@@ -2423,35 +2400,27 @@
       <c r="K42" s="12"/>
     </row>
     <row r="43" spans="1:18" customHeight="1" ht="16.5">
-      <c r="A43" s="52" t="s">
-        <v>54</v>
-      </c>
+      <c r="A43" s="52"/>
       <c r="B43" s="52"/>
-      <c r="C43" s="52" t="s">
-        <v>55</v>
-      </c>
+      <c r="C43" s="52"/>
       <c r="D43" s="52"/>
       <c r="E43" s="51"/>
-      <c r="G43" s="52" t="s">
-        <v>54</v>
-      </c>
+      <c r="G43" s="52"/>
       <c r="H43" s="52"/>
-      <c r="I43" s="52" t="s">
-        <v>56</v>
-      </c>
+      <c r="I43" s="52"/>
       <c r="J43" s="52"/>
       <c r="K43" s="51"/>
     </row>
     <row r="44" spans="1:18" customHeight="1" ht="16.5">
       <c r="A44" s="61" t="s">
-        <v>57</v>
+        <v>52</v>
       </c>
       <c r="B44" s="61"/>
       <c r="C44" s="61"/>
       <c r="D44" s="61"/>
       <c r="E44" s="61"/>
       <c r="G44" s="29" t="s">
-        <v>58</v>
+        <v>53</v>
       </c>
       <c r="H44" s="29"/>
       <c r="I44" s="29"/>
@@ -2459,26 +2428,22 @@
     </row>
     <row r="45" spans="1:18" customHeight="1" ht="11.25">
       <c r="A45" s="42" t="s">
-        <v>59</v>
+        <v>54</v>
       </c>
       <c r="G45" s="42" t="s">
-        <v>60</v>
+        <v>55</v>
       </c>
       <c r="H45" s="30"/>
       <c r="I45" s="30"/>
       <c r="J45" s="30"/>
     </row>
     <row r="46" spans="1:18" customHeight="1" ht="15">
-      <c r="A46" s="52" t="s">
-        <v>61</v>
-      </c>
+      <c r="A46" s="52"/>
       <c r="B46" s="52"/>
       <c r="C46" s="52"/>
       <c r="D46" s="52"/>
       <c r="E46" s="52"/>
-      <c r="G46" s="69" t="s">
-        <v>62</v>
-      </c>
+      <c r="G46" s="69"/>
       <c r="H46" s="69"/>
       <c r="I46" s="69"/>
       <c r="J46" s="69"/>
@@ -2486,26 +2451,22 @@
     </row>
     <row r="47" spans="1:18" customHeight="1" ht="11.25">
       <c r="A47" s="43" t="s">
-        <v>63</v>
+        <v>56</v>
       </c>
       <c r="G47" s="42" t="s">
-        <v>64</v>
+        <v>57</v>
       </c>
       <c r="H47" s="30"/>
       <c r="I47" s="30"/>
       <c r="J47" s="30"/>
     </row>
     <row r="48" spans="1:18" customHeight="1" ht="15">
-      <c r="A48" s="52" t="s">
-        <v>65</v>
-      </c>
+      <c r="A48" s="52"/>
       <c r="B48" s="52"/>
       <c r="C48" s="52"/>
       <c r="D48" s="52"/>
       <c r="E48" s="52"/>
-      <c r="G48" s="52" t="s">
-        <v>65</v>
-      </c>
+      <c r="G48" s="52"/>
       <c r="H48" s="52"/>
       <c r="I48" s="52"/>
       <c r="J48" s="52"/>
@@ -2513,75 +2474,77 @@
     </row>
     <row r="49" spans="1:18" customHeight="1" ht="15.75">
       <c r="A49" s="44" t="s">
-        <v>66</v>
-      </c>
-      <c r="B49" s="53" t="s">
-        <v>67</v>
-      </c>
+        <v>58</v>
+      </c>
+      <c r="B49" s="53"/>
       <c r="C49" s="53"/>
       <c r="D49" s="53"/>
       <c r="E49" s="53"/>
       <c r="G49" s="45" t="s">
-        <v>66</v>
-      </c>
-      <c r="H49" s="53" t="s">
-        <v>67</v>
-      </c>
+        <v>58</v>
+      </c>
+      <c r="H49" s="53"/>
       <c r="I49" s="53"/>
       <c r="J49" s="53"/>
       <c r="K49" s="53"/>
     </row>
     <row r="50" spans="1:18" customHeight="1" ht="15.75">
       <c r="A50" s="44" t="s">
-        <v>68</v>
-      </c>
-      <c r="B50" s="68" t="s">
-        <v>69</v>
-      </c>
+        <v>59</v>
+      </c>
+      <c r="B50" s="68"/>
       <c r="C50" s="68"/>
       <c r="D50" s="68"/>
       <c r="E50" s="68"/>
       <c r="G50" s="44" t="s">
-        <v>68</v>
-      </c>
-      <c r="H50" s="53" t="s">
-        <v>70</v>
-      </c>
+        <v>59</v>
+      </c>
+      <c r="H50" s="53"/>
       <c r="I50" s="53"/>
       <c r="J50" s="53"/>
       <c r="K50" s="53"/>
     </row>
     <row r="51" spans="1:18" customHeight="1" ht="16.5">
       <c r="A51" s="31" t="s">
-        <v>71</v>
+        <v>60</v>
       </c>
       <c r="G51" s="31" t="s">
-        <v>72</v>
+        <v>61</v>
       </c>
     </row>
     <row r="52" spans="1:18" customHeight="1" ht="17.25">
-      <c r="A52" s="52"/>
+      <c r="A52" s="52" t="s">
+        <v>19</v>
+      </c>
       <c r="B52" s="52"/>
-      <c r="C52" s="52"/>
+      <c r="C52" s="52" t="s">
+        <v>62</v>
+      </c>
       <c r="D52" s="52"/>
-      <c r="E52" s="51"/>
-      <c r="H52" s="52"/>
+      <c r="E52" s="51" t="s">
+        <v>63</v>
+      </c>
+      <c r="H52" s="52" t="s">
+        <v>64</v>
+      </c>
       <c r="I52" s="52"/>
       <c r="J52" s="52"/>
       <c r="K52" s="52"/>
     </row>
     <row r="53" spans="1:18" customHeight="1" ht="18">
       <c r="A53" s="61" t="s">
-        <v>73</v>
+        <v>65</v>
       </c>
       <c r="B53" s="61"/>
       <c r="C53" s="61"/>
       <c r="D53" s="61"/>
       <c r="E53" s="61"/>
       <c r="G53" s="45" t="s">
+        <v>58</v>
+      </c>
+      <c r="H53" s="10" t="s">
         <v>66</v>
       </c>
-      <c r="H53" s="10"/>
       <c r="I53" s="10"/>
       <c r="J53" s="10"/>
       <c r="K53" s="40"/>
@@ -2589,7 +2552,7 @@
     <row r="54" spans="1:18" customHeight="1" ht="4.5"/>
     <row r="55" spans="1:18" customHeight="1" ht="13.5">
       <c r="A55" s="65" t="s">
-        <v>74</v>
+        <v>67</v>
       </c>
       <c r="B55" s="66"/>
       <c r="C55" s="66"/>
@@ -2604,13 +2567,13 @@
     </row>
     <row r="56" spans="1:18" customHeight="1" ht="15.75">
       <c r="A56" s="7" t="s">
-        <v>75</v>
+        <v>68</v>
       </c>
       <c r="B56" s="7"/>
       <c r="C56" s="17"/>
       <c r="D56" s="10"/>
       <c r="E56" s="7" t="s">
-        <v>76</v>
+        <v>69</v>
       </c>
       <c r="F56" s="3"/>
       <c r="G56" s="3"/>
@@ -2619,7 +2582,7 @@
     </row>
     <row r="57" spans="1:18" customHeight="1" ht="14.25">
       <c r="A57" s="7" t="s">
-        <v>77</v>
+        <v>70</v>
       </c>
       <c r="B57" s="10"/>
       <c r="C57" s="10"/>
@@ -2627,7 +2590,7 @@
       <c r="E57" s="10"/>
       <c r="F57" s="10"/>
       <c r="G57" s="57" t="s">
-        <v>78</v>
+        <v>71</v>
       </c>
       <c r="H57" s="34"/>
     </row>
@@ -2638,7 +2601,7 @@
     </row>
     <row r="59" spans="1:18" customHeight="1" ht="15">
       <c r="A59" s="7" t="s">
-        <v>79</v>
+        <v>72</v>
       </c>
       <c r="B59" s="10"/>
       <c r="C59" s="10"/>
@@ -2652,7 +2615,7 @@
     </row>
     <row r="61" spans="1:18" customHeight="1" ht="13.5">
       <c r="A61" s="58" t="s">
-        <v>80</v>
+        <v>73</v>
       </c>
       <c r="B61" s="59"/>
       <c r="C61" s="59"/>
@@ -2667,25 +2630,25 @@
     </row>
     <row r="62" spans="1:18" customHeight="1" ht="11.25">
       <c r="A62" s="7" t="s">
-        <v>81</v>
+        <v>74</v>
       </c>
       <c r="B62" s="18" t="s">
-        <v>82</v>
+        <v>75</v>
       </c>
       <c r="D62" s="18" t="s">
-        <v>83</v>
+        <v>76</v>
       </c>
       <c r="E62" s="18"/>
     </row>
     <row r="63" spans="1:18" customHeight="1" ht="14.25">
       <c r="A63" s="7" t="s">
-        <v>84</v>
+        <v>77</v>
       </c>
       <c r="B63" s="10"/>
       <c r="C63" s="10"/>
       <c r="D63" s="10"/>
       <c r="F63" s="7" t="s">
-        <v>85</v>
+        <v>78</v>
       </c>
       <c r="G63" s="17"/>
       <c r="H63" s="10"/>
@@ -2696,7 +2659,7 @@
     <row r="64" spans="1:18" customHeight="1" ht="12"/>
     <row r="65" spans="1:18" customHeight="1" ht="13.5">
       <c r="A65" s="54" t="s">
-        <v>86</v>
+        <v>79</v>
       </c>
       <c r="B65" s="54"/>
       <c r="C65" s="54"/>
@@ -2753,7 +2716,7 @@
     <row r="70" spans="1:18">
       <c r="A70" s="21"/>
       <c r="B70" s="32" t="s">
-        <v>87</v>
+        <v>80</v>
       </c>
       <c r="C70" s="21"/>
       <c r="D70" s="21"/>
@@ -2762,39 +2725,39 @@
       <c r="G70" s="21"/>
       <c r="I70" s="33"/>
       <c r="J70" s="41" t="s">
-        <v>88</v>
+        <v>81</v>
       </c>
       <c r="K70" s="21"/>
     </row>
     <row r="71" spans="1:18">
       <c r="A71" s="19" t="s">
-        <v>89</v>
+        <v>82</v>
       </c>
     </row>
     <row r="72" spans="1:18">
       <c r="B72" s="7" t="s">
-        <v>90</v>
+        <v>83</v>
       </c>
       <c r="F72" s="14" t="s">
-        <v>91</v>
+        <v>84</v>
       </c>
       <c r="G72" s="14"/>
     </row>
     <row r="73" spans="1:18">
       <c r="B73" s="22" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
     </row>
     <row r="74" spans="1:18">
       <c r="B74" s="7" t="s">
-        <v>92</v>
+        <v>85</v>
       </c>
       <c r="C74" s="10"/>
       <c r="D74" s="10"/>
       <c r="E74" s="10"/>
       <c r="F74" s="10"/>
       <c r="G74" s="7" t="s">
-        <v>93</v>
+        <v>86</v>
       </c>
       <c r="H74" s="10"/>
       <c r="I74" s="10"/>
@@ -2803,15 +2766,15 @@
     </row>
     <row r="75" spans="1:18">
       <c r="J75" s="31" t="s">
-        <v>94</v>
+        <v>87</v>
       </c>
     </row>
     <row r="82" spans="1:18" hidden="true">
       <c r="A82">
+        <v>0</v>
+      </c>
+      <c r="B82">
         <v>1</v>
-      </c>
-      <c r="B82">
-        <v>0</v>
       </c>
     </row>
   </sheetData>
@@ -3101,7 +3064,7 @@
     </row>
     <row r="3" spans="1:11" customHeight="1" ht="16">
       <c r="B3" s="86" t="s">
-        <v>95</v>
+        <v>88</v>
       </c>
       <c r="C3" s="81"/>
       <c r="D3" s="81"/>
@@ -3115,7 +3078,7 @@
     </row>
     <row r="4" spans="1:11">
       <c r="A4" s="87" t="s">
-        <v>96</v>
+        <v>89</v>
       </c>
       <c r="B4" s="88"/>
       <c r="C4" s="88"/>
@@ -3514,7 +3477,7 @@
     </row>
     <row r="38" spans="1:11" s="47" customFormat="1">
       <c r="A38" s="89" t="s">
-        <v>97</v>
+        <v>90</v>
       </c>
       <c r="B38" s="89"/>
       <c r="C38" s="89"/>

--- a/reports/report.xlsx
+++ b/reports/report.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="91">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="93">
   <si>
     <t>ANNEX 2</t>
   </si>
@@ -39,7 +39,7 @@
     <t>School Year:</t>
   </si>
   <si>
-    <t>2023-2024</t>
+    <t>2024-2025</t>
   </si>
   <si>
     <t xml:space="preserve">     No LRN</t>
@@ -121,33 +121,39 @@
     <t>Learner Reference No. (LRN)</t>
   </si>
   <si>
-    <t>LRN40559200000015</t>
-  </si>
-  <si>
-    <t>GRADE 1</t>
+    <t>LRN40559200000028</t>
+  </si>
+  <si>
+    <t>GRADE 6</t>
   </si>
   <si>
     <t>LAST NAME:</t>
   </si>
   <si>
-    <t>ALDRIN</t>
+    <t>TUSIAS</t>
   </si>
   <si>
     <t>FIRST NAME</t>
   </si>
   <si>
-    <t>LILY</t>
+    <t>DARREN KENT</t>
   </si>
   <si>
     <t>MIDDLE NAME</t>
   </si>
   <si>
+    <t>ABENION</t>
+  </si>
+  <si>
     <t>EXTENSION NAME e.g. Jr., III (If applicable)</t>
   </si>
   <si>
     <t xml:space="preserve">DATE OF BIRTH     </t>
   </si>
   <si>
+    <t>04</t>
+  </si>
+  <si>
     <t>/</t>
   </si>
   <si>
@@ -169,7 +175,7 @@
     <t>PLACE OF BIRTH</t>
   </si>
   <si>
-    <t>DAVAO CITY</t>
+    <t>TAGUM CITY, DAVAO DEL NORTE</t>
   </si>
   <si>
     <t>CONDITION OF CHILD'S HEALTH</t>
@@ -207,7 +213,7 @@
     <t>RELIGION</t>
   </si>
   <si>
-    <t>ROMAN CATHOLIC</t>
+    <t>CATHOLIC</t>
   </si>
   <si>
     <t>ADDRESS</t>
@@ -216,13 +222,13 @@
     <t>House Number and Street</t>
   </si>
   <si>
-    <t>PUROK 4</t>
+    <t>PUROK 3, SALVACION, PANABO CITY</t>
   </si>
   <si>
     <t>Barangay</t>
   </si>
   <si>
-    <t>MABAUS</t>
+    <t>SALVACION</t>
   </si>
   <si>
     <t>City/Municipality/Province/Country</t>
@@ -231,7 +237,7 @@
     <t>Zip Code</t>
   </si>
   <si>
-    <t>CARMEN , DAVAO DEL NORTE, PHILIPPINES</t>
+    <t>CITY OF PANABO , DAVAO DEL NORTE, PHILIPPINES</t>
   </si>
   <si>
     <t>PARENT'S /GUARDIAN'S INFORMATION</t>
@@ -315,19 +321,19 @@
     <t>Guardian's Occupation</t>
   </si>
   <si>
-    <t>GUARDIAN LILY</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> </t>
-  </si>
-  <si>
-    <t>HOUSEWIFE</t>
+    <t>TARAN</t>
+  </si>
+  <si>
+    <t>DASHA</t>
+  </si>
+  <si>
+    <t>CHIEF EXECUTIVE OFFICER</t>
   </si>
   <si>
     <t>(Last Name)                                               (First Name)                                (Middle Name)</t>
   </si>
   <si>
-    <t>(+63) 1231231231</t>
+    <t>(+63) 9770985031</t>
   </si>
   <si>
     <t>For Returning Learners (Balik-Aral) and Those Who Shall Transfer/Move In</t>
@@ -2165,7 +2171,9 @@
       <c r="A22" t="s">
         <v>22</v>
       </c>
-      <c r="B22" s="85"/>
+      <c r="B22" s="85" t="s">
+        <v>23</v>
+      </c>
       <c r="C22" s="85"/>
       <c r="D22" s="85"/>
       <c r="E22" s="85"/>
@@ -2177,7 +2185,7 @@
     <row r="23" spans="1:18" customHeight="1" ht="9.75"/>
     <row r="24" spans="1:18" customHeight="1" ht="11.25">
       <c r="A24" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="F24" s="10"/>
       <c r="G24" s="10"/>
@@ -2185,42 +2193,42 @@
     <row r="25" spans="1:18" customHeight="1" ht="6"/>
     <row r="26" spans="1:18" customHeight="1" ht="12.75">
       <c r="A26" t="s">
-        <v>24</v>
-      </c>
-      <c r="B26" s="48">
-        <v>10</v>
+        <v>25</v>
+      </c>
+      <c r="B26" s="48" t="s">
+        <v>26</v>
       </c>
       <c r="C26" s="48" t="s">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="D26" s="48">
-        <v>10</v>
+        <v>27</v>
       </c>
       <c r="E26" s="48" t="s">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="F26" s="48">
-        <v>2018</v>
+        <v>2002</v>
       </c>
       <c r="G26" s="1" t="s">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="H26" s="15" t="s">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="I26" s="6" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="J26" s="49" t="s">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="K26" s="50">
-        <v>6</v>
+        <v>22</v>
       </c>
     </row>
     <row r="27" spans="1:18" customHeight="1" ht="9">
       <c r="A27" s="13" t="s">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="C27" s="14"/>
       <c r="G27" s="1"/>
@@ -2230,17 +2238,17 @@
     </row>
     <row r="28" spans="1:18" customHeight="1" ht="15">
       <c r="A28" s="7" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="B28" s="56" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="C28" s="56"/>
       <c r="D28" s="56"/>
       <c r="E28" s="56"/>
       <c r="F28" s="56"/>
       <c r="G28" s="83" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="H28" s="83"/>
       <c r="I28" s="83"/>
@@ -2249,15 +2257,15 @@
     </row>
     <row r="29" spans="1:18" customHeight="1" ht="16.5">
       <c r="A29" s="7" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="D29" s="76" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="E29" s="76"/>
       <c r="F29" s="76"/>
       <c r="G29" s="77" t="s">
-        <v>36</v>
+        <v>38</v>
       </c>
       <c r="H29" s="77"/>
       <c r="I29" s="2"/>
@@ -2265,7 +2273,7 @@
     </row>
     <row r="30" spans="1:18" customHeight="1" ht="11.25">
       <c r="A30" s="12" t="s">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="D30" s="76"/>
       <c r="E30" s="76"/>
@@ -2278,13 +2286,13 @@
     </row>
     <row r="31" spans="1:18" customHeight="1" ht="18">
       <c r="A31" s="28" t="s">
-        <v>38</v>
+        <v>40</v>
       </c>
       <c r="G31" t="s">
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="H31" s="52" t="s">
-        <v>40</v>
+        <v>42</v>
       </c>
       <c r="I31" s="52"/>
       <c r="J31" s="52"/>
@@ -2293,7 +2301,7 @@
     <row r="32" spans="1:18" customHeight="1" ht="4.5"/>
     <row r="33" spans="1:18" customHeight="1" ht="13.5" s="36" customFormat="1">
       <c r="A33" s="37" t="s">
-        <v>41</v>
+        <v>43</v>
       </c>
       <c r="B33" s="38"/>
       <c r="C33" s="38"/>
@@ -2308,12 +2316,12 @@
     </row>
     <row r="34" spans="1:18" customHeight="1" ht="10.5">
       <c r="A34" s="5" t="s">
-        <v>42</v>
+        <v>44</v>
       </c>
     </row>
     <row r="35" spans="1:18" customHeight="1" ht="12">
       <c r="A35" s="52" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="B35" s="52"/>
       <c r="C35" s="52"/>
@@ -2328,13 +2336,13 @@
     </row>
     <row r="36" spans="1:18" customHeight="1" ht="12">
       <c r="A36" s="24" t="s">
-        <v>44</v>
+        <v>46</v>
       </c>
       <c r="B36" s="16"/>
     </row>
     <row r="37" spans="1:18">
       <c r="A37" s="52" t="s">
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="B37" s="52"/>
       <c r="C37" s="52"/>
@@ -2349,19 +2357,19 @@
     </row>
     <row r="38" spans="1:18" customHeight="1" ht="12.75">
       <c r="A38" s="11" t="s">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="B38" s="7"/>
       <c r="C38" s="7"/>
       <c r="D38" s="7"/>
       <c r="E38" s="7"/>
       <c r="H38" s="70" t="s">
-        <v>47</v>
+        <v>49</v>
       </c>
     </row>
     <row r="39" spans="1:18" customHeight="1" ht="13.5">
       <c r="A39" s="52" t="s">
-        <v>48</v>
+        <v>50</v>
       </c>
       <c r="B39" s="52"/>
       <c r="C39" s="52"/>
@@ -2374,7 +2382,7 @@
     <row r="40" spans="1:18" customHeight="1" ht="3.75"/>
     <row r="41" spans="1:18" customHeight="1" ht="15">
       <c r="A41" s="62" t="s">
-        <v>49</v>
+        <v>51</v>
       </c>
       <c r="B41" s="63"/>
       <c r="C41" s="63"/>
@@ -2389,10 +2397,10 @@
     </row>
     <row r="42" spans="1:18" customHeight="1" ht="10.5">
       <c r="A42" s="31" t="s">
-        <v>50</v>
+        <v>52</v>
       </c>
       <c r="G42" s="31" t="s">
-        <v>51</v>
+        <v>53</v>
       </c>
       <c r="H42" s="35"/>
       <c r="I42" s="35"/>
@@ -2413,14 +2421,14 @@
     </row>
     <row r="44" spans="1:18" customHeight="1" ht="16.5">
       <c r="A44" s="61" t="s">
-        <v>52</v>
+        <v>54</v>
       </c>
       <c r="B44" s="61"/>
       <c r="C44" s="61"/>
       <c r="D44" s="61"/>
       <c r="E44" s="61"/>
       <c r="G44" s="29" t="s">
-        <v>53</v>
+        <v>55</v>
       </c>
       <c r="H44" s="29"/>
       <c r="I44" s="29"/>
@@ -2428,10 +2436,10 @@
     </row>
     <row r="45" spans="1:18" customHeight="1" ht="11.25">
       <c r="A45" s="42" t="s">
-        <v>54</v>
+        <v>56</v>
       </c>
       <c r="G45" s="42" t="s">
-        <v>55</v>
+        <v>57</v>
       </c>
       <c r="H45" s="30"/>
       <c r="I45" s="30"/>
@@ -2451,10 +2459,10 @@
     </row>
     <row r="47" spans="1:18" customHeight="1" ht="11.25">
       <c r="A47" s="43" t="s">
-        <v>56</v>
+        <v>58</v>
       </c>
       <c r="G47" s="42" t="s">
-        <v>57</v>
+        <v>59</v>
       </c>
       <c r="H47" s="30"/>
       <c r="I47" s="30"/>
@@ -2474,14 +2482,14 @@
     </row>
     <row r="49" spans="1:18" customHeight="1" ht="15.75">
       <c r="A49" s="44" t="s">
-        <v>58</v>
+        <v>60</v>
       </c>
       <c r="B49" s="53"/>
       <c r="C49" s="53"/>
       <c r="D49" s="53"/>
       <c r="E49" s="53"/>
       <c r="G49" s="45" t="s">
-        <v>58</v>
+        <v>60</v>
       </c>
       <c r="H49" s="53"/>
       <c r="I49" s="53"/>
@@ -2490,14 +2498,14 @@
     </row>
     <row r="50" spans="1:18" customHeight="1" ht="15.75">
       <c r="A50" s="44" t="s">
-        <v>59</v>
+        <v>61</v>
       </c>
       <c r="B50" s="68"/>
       <c r="C50" s="68"/>
       <c r="D50" s="68"/>
       <c r="E50" s="68"/>
       <c r="G50" s="44" t="s">
-        <v>59</v>
+        <v>61</v>
       </c>
       <c r="H50" s="53"/>
       <c r="I50" s="53"/>
@@ -2506,26 +2514,26 @@
     </row>
     <row r="51" spans="1:18" customHeight="1" ht="16.5">
       <c r="A51" s="31" t="s">
-        <v>60</v>
+        <v>62</v>
       </c>
       <c r="G51" s="31" t="s">
-        <v>61</v>
+        <v>63</v>
       </c>
     </row>
     <row r="52" spans="1:18" customHeight="1" ht="17.25">
       <c r="A52" s="52" t="s">
-        <v>19</v>
+        <v>64</v>
       </c>
       <c r="B52" s="52"/>
       <c r="C52" s="52" t="s">
-        <v>62</v>
+        <v>65</v>
       </c>
       <c r="D52" s="52"/>
       <c r="E52" s="51" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="H52" s="52" t="s">
-        <v>64</v>
+        <v>66</v>
       </c>
       <c r="I52" s="52"/>
       <c r="J52" s="52"/>
@@ -2533,17 +2541,17 @@
     </row>
     <row r="53" spans="1:18" customHeight="1" ht="18">
       <c r="A53" s="61" t="s">
-        <v>65</v>
+        <v>67</v>
       </c>
       <c r="B53" s="61"/>
       <c r="C53" s="61"/>
       <c r="D53" s="61"/>
       <c r="E53" s="61"/>
       <c r="G53" s="45" t="s">
-        <v>58</v>
+        <v>60</v>
       </c>
       <c r="H53" s="10" t="s">
-        <v>66</v>
+        <v>68</v>
       </c>
       <c r="I53" s="10"/>
       <c r="J53" s="10"/>
@@ -2552,7 +2560,7 @@
     <row r="54" spans="1:18" customHeight="1" ht="4.5"/>
     <row r="55" spans="1:18" customHeight="1" ht="13.5">
       <c r="A55" s="65" t="s">
-        <v>67</v>
+        <v>69</v>
       </c>
       <c r="B55" s="66"/>
       <c r="C55" s="66"/>
@@ -2567,13 +2575,13 @@
     </row>
     <row r="56" spans="1:18" customHeight="1" ht="15.75">
       <c r="A56" s="7" t="s">
-        <v>68</v>
+        <v>70</v>
       </c>
       <c r="B56" s="7"/>
       <c r="C56" s="17"/>
       <c r="D56" s="10"/>
       <c r="E56" s="7" t="s">
-        <v>69</v>
+        <v>71</v>
       </c>
       <c r="F56" s="3"/>
       <c r="G56" s="3"/>
@@ -2582,7 +2590,7 @@
     </row>
     <row r="57" spans="1:18" customHeight="1" ht="14.25">
       <c r="A57" s="7" t="s">
-        <v>70</v>
+        <v>72</v>
       </c>
       <c r="B57" s="10"/>
       <c r="C57" s="10"/>
@@ -2590,7 +2598,7 @@
       <c r="E57" s="10"/>
       <c r="F57" s="10"/>
       <c r="G57" s="57" t="s">
-        <v>71</v>
+        <v>73</v>
       </c>
       <c r="H57" s="34"/>
     </row>
@@ -2601,7 +2609,7 @@
     </row>
     <row r="59" spans="1:18" customHeight="1" ht="15">
       <c r="A59" s="7" t="s">
-        <v>72</v>
+        <v>74</v>
       </c>
       <c r="B59" s="10"/>
       <c r="C59" s="10"/>
@@ -2615,7 +2623,7 @@
     </row>
     <row r="61" spans="1:18" customHeight="1" ht="13.5">
       <c r="A61" s="58" t="s">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="B61" s="59"/>
       <c r="C61" s="59"/>
@@ -2630,25 +2638,25 @@
     </row>
     <row r="62" spans="1:18" customHeight="1" ht="11.25">
       <c r="A62" s="7" t="s">
-        <v>74</v>
+        <v>76</v>
       </c>
       <c r="B62" s="18" t="s">
-        <v>75</v>
+        <v>77</v>
       </c>
       <c r="D62" s="18" t="s">
-        <v>76</v>
+        <v>78</v>
       </c>
       <c r="E62" s="18"/>
     </row>
     <row r="63" spans="1:18" customHeight="1" ht="14.25">
       <c r="A63" s="7" t="s">
-        <v>77</v>
+        <v>79</v>
       </c>
       <c r="B63" s="10"/>
       <c r="C63" s="10"/>
       <c r="D63" s="10"/>
       <c r="F63" s="7" t="s">
-        <v>78</v>
+        <v>80</v>
       </c>
       <c r="G63" s="17"/>
       <c r="H63" s="10"/>
@@ -2659,7 +2667,7 @@
     <row r="64" spans="1:18" customHeight="1" ht="12"/>
     <row r="65" spans="1:18" customHeight="1" ht="13.5">
       <c r="A65" s="54" t="s">
-        <v>79</v>
+        <v>81</v>
       </c>
       <c r="B65" s="54"/>
       <c r="C65" s="54"/>
@@ -2716,7 +2724,7 @@
     <row r="70" spans="1:18">
       <c r="A70" s="21"/>
       <c r="B70" s="32" t="s">
-        <v>80</v>
+        <v>82</v>
       </c>
       <c r="C70" s="21"/>
       <c r="D70" s="21"/>
@@ -2725,39 +2733,39 @@
       <c r="G70" s="21"/>
       <c r="I70" s="33"/>
       <c r="J70" s="41" t="s">
-        <v>81</v>
+        <v>83</v>
       </c>
       <c r="K70" s="21"/>
     </row>
     <row r="71" spans="1:18">
       <c r="A71" s="19" t="s">
-        <v>82</v>
+        <v>84</v>
       </c>
     </row>
     <row r="72" spans="1:18">
       <c r="B72" s="7" t="s">
-        <v>83</v>
+        <v>85</v>
       </c>
       <c r="F72" s="14" t="s">
-        <v>84</v>
+        <v>86</v>
       </c>
       <c r="G72" s="14"/>
     </row>
     <row r="73" spans="1:18">
       <c r="B73" s="22" t="s">
-        <v>30</v>
+        <v>32</v>
       </c>
     </row>
     <row r="74" spans="1:18">
       <c r="B74" s="7" t="s">
-        <v>85</v>
+        <v>87</v>
       </c>
       <c r="C74" s="10"/>
       <c r="D74" s="10"/>
       <c r="E74" s="10"/>
       <c r="F74" s="10"/>
       <c r="G74" s="7" t="s">
-        <v>86</v>
+        <v>88</v>
       </c>
       <c r="H74" s="10"/>
       <c r="I74" s="10"/>
@@ -2766,15 +2774,15 @@
     </row>
     <row r="75" spans="1:18">
       <c r="J75" s="31" t="s">
-        <v>87</v>
+        <v>89</v>
       </c>
     </row>
     <row r="82" spans="1:18" hidden="true">
       <c r="A82">
+        <v>1</v>
+      </c>
+      <c r="B82">
         <v>0</v>
-      </c>
-      <c r="B82">
-        <v>1</v>
       </c>
     </row>
   </sheetData>
@@ -3064,7 +3072,7 @@
     </row>
     <row r="3" spans="1:11" customHeight="1" ht="16">
       <c r="B3" s="86" t="s">
-        <v>88</v>
+        <v>90</v>
       </c>
       <c r="C3" s="81"/>
       <c r="D3" s="81"/>
@@ -3078,7 +3086,7 @@
     </row>
     <row r="4" spans="1:11">
       <c r="A4" s="87" t="s">
-        <v>89</v>
+        <v>91</v>
       </c>
       <c r="B4" s="88"/>
       <c r="C4" s="88"/>
@@ -3477,7 +3485,7 @@
     </row>
     <row r="38" spans="1:11" s="47" customFormat="1">
       <c r="A38" s="89" t="s">
-        <v>90</v>
+        <v>92</v>
       </c>
       <c r="B38" s="89"/>
       <c r="C38" s="89"/>

--- a/reports/report.xlsx
+++ b/reports/report.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="93">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="99">
   <si>
     <t>ANNEX 2</t>
   </si>
@@ -121,28 +121,28 @@
     <t>Learner Reference No. (LRN)</t>
   </si>
   <si>
-    <t>LRN40559200000028</t>
-  </si>
-  <si>
-    <t>GRADE 6</t>
+    <t>LRN40550101010101</t>
+  </si>
+  <si>
+    <t>GRADE 1</t>
   </si>
   <si>
     <t>LAST NAME:</t>
   </si>
   <si>
-    <t>TUSIAS</t>
+    <t>DONCIC</t>
   </si>
   <si>
     <t>FIRST NAME</t>
   </si>
   <si>
-    <t>DARREN KENT</t>
+    <t>LUKA</t>
   </si>
   <si>
     <t>MIDDLE NAME</t>
   </si>
   <si>
-    <t>ABENION</t>
+    <t>SLOVEJIKA</t>
   </si>
   <si>
     <t>EXTENSION NAME e.g. Jr., III (If applicable)</t>
@@ -157,6 +157,9 @@
     <t>/</t>
   </si>
   <si>
+    <t>05</t>
+  </si>
+  <si>
     <t xml:space="preserve">    SEX</t>
   </si>
   <si>
@@ -175,7 +178,7 @@
     <t>PLACE OF BIRTH</t>
   </si>
   <si>
-    <t>TAGUM CITY, DAVAO DEL NORTE</t>
+    <t>DAVAO CITY</t>
   </si>
   <si>
     <t>CONDITION OF CHILD'S HEALTH</t>
@@ -213,7 +216,7 @@
     <t>RELIGION</t>
   </si>
   <si>
-    <t>CATHOLIC</t>
+    <t>ATHEIST</t>
   </si>
   <si>
     <t>ADDRESS</t>
@@ -222,13 +225,13 @@
     <t>House Number and Street</t>
   </si>
   <si>
-    <t>PUROK 3, SALVACION, PANABO CITY</t>
+    <t>AWIT STREET</t>
   </si>
   <si>
     <t>Barangay</t>
   </si>
   <si>
-    <t>SALVACION</t>
+    <t>CACAO</t>
   </si>
   <si>
     <t>City/Municipality/Province/Country</t>
@@ -247,6 +250,12 @@
   </si>
   <si>
     <t xml:space="preserve">Mother's (Maiden Name) </t>
+  </si>
+  <si>
+    <t>PAPA</t>
+  </si>
+  <si>
+    <t>MAMA</t>
   </si>
   <si>
     <t>(Last Name)                                            (First Name)                             (Middle Name)</t>
@@ -289,6 +298,12 @@
     </r>
   </si>
   <si>
+    <t>CONSTRUCTION WORKER</t>
+  </si>
+  <si>
+    <t>TEACHER</t>
+  </si>
+  <si>
     <t>Educational Attainment (Father)</t>
   </si>
   <si>
@@ -309,31 +324,34 @@
     </r>
   </si>
   <si>
+    <t>COLLEGE GRADUATE</t>
+  </si>
+  <si>
     <t>Cellphone No.</t>
   </si>
   <si>
+    <t>(+63) 9191919119</t>
+  </si>
+  <si>
+    <t>(+63) 9191919191</t>
+  </si>
+  <si>
     <t>FB acccount:</t>
   </si>
   <si>
+    <t>PAPA DONCIC TV</t>
+  </si>
+  <si>
+    <t>MAMA DONCIC TV</t>
+  </si>
+  <si>
     <t xml:space="preserve">Guardian's Name </t>
   </si>
   <si>
     <t>Guardian's Occupation</t>
   </si>
   <si>
-    <t>TARAN</t>
-  </si>
-  <si>
-    <t>DASHA</t>
-  </si>
-  <si>
-    <t>CHIEF EXECUTIVE OFFICER</t>
-  </si>
-  <si>
     <t>(Last Name)                                               (First Name)                                (Middle Name)</t>
-  </si>
-  <si>
-    <t>(+63) 9770985031</t>
   </si>
   <si>
     <t>For Returning Learners (Balik-Aral) and Those Who Shall Transfer/Move In</t>
@@ -2201,34 +2219,34 @@
       <c r="C26" s="48" t="s">
         <v>27</v>
       </c>
-      <c r="D26" s="48">
-        <v>27</v>
+      <c r="D26" s="48" t="s">
+        <v>28</v>
       </c>
       <c r="E26" s="48" t="s">
         <v>27</v>
       </c>
       <c r="F26" s="48">
-        <v>2002</v>
+        <v>2018</v>
       </c>
       <c r="G26" s="1" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="H26" s="15" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="I26" s="6" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="J26" s="49" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="K26" s="50">
-        <v>22</v>
+        <v>7</v>
       </c>
     </row>
     <row r="27" spans="1:18" customHeight="1" ht="9">
       <c r="A27" s="13" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="C27" s="14"/>
       <c r="G27" s="1"/>
@@ -2238,17 +2256,17 @@
     </row>
     <row r="28" spans="1:18" customHeight="1" ht="15">
       <c r="A28" s="7" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="B28" s="56" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="C28" s="56"/>
       <c r="D28" s="56"/>
       <c r="E28" s="56"/>
       <c r="F28" s="56"/>
       <c r="G28" s="83" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="H28" s="83"/>
       <c r="I28" s="83"/>
@@ -2257,15 +2275,15 @@
     </row>
     <row r="29" spans="1:18" customHeight="1" ht="16.5">
       <c r="A29" s="7" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="D29" s="76" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="E29" s="76"/>
       <c r="F29" s="76"/>
       <c r="G29" s="77" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="H29" s="77"/>
       <c r="I29" s="2"/>
@@ -2273,7 +2291,7 @@
     </row>
     <row r="30" spans="1:18" customHeight="1" ht="11.25">
       <c r="A30" s="12" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="D30" s="76"/>
       <c r="E30" s="76"/>
@@ -2286,13 +2304,13 @@
     </row>
     <row r="31" spans="1:18" customHeight="1" ht="18">
       <c r="A31" s="28" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="G31" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="H31" s="52" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="I31" s="52"/>
       <c r="J31" s="52"/>
@@ -2301,7 +2319,7 @@
     <row r="32" spans="1:18" customHeight="1" ht="4.5"/>
     <row r="33" spans="1:18" customHeight="1" ht="13.5" s="36" customFormat="1">
       <c r="A33" s="37" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="B33" s="38"/>
       <c r="C33" s="38"/>
@@ -2316,12 +2334,12 @@
     </row>
     <row r="34" spans="1:18" customHeight="1" ht="10.5">
       <c r="A34" s="5" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
     </row>
     <row r="35" spans="1:18" customHeight="1" ht="12">
       <c r="A35" s="52" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="B35" s="52"/>
       <c r="C35" s="52"/>
@@ -2336,13 +2354,13 @@
     </row>
     <row r="36" spans="1:18" customHeight="1" ht="12">
       <c r="A36" s="24" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="B36" s="16"/>
     </row>
     <row r="37" spans="1:18">
       <c r="A37" s="52" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="B37" s="52"/>
       <c r="C37" s="52"/>
@@ -2357,19 +2375,19 @@
     </row>
     <row r="38" spans="1:18" customHeight="1" ht="12.75">
       <c r="A38" s="11" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="B38" s="7"/>
       <c r="C38" s="7"/>
       <c r="D38" s="7"/>
       <c r="E38" s="7"/>
       <c r="H38" s="70" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
     </row>
     <row r="39" spans="1:18" customHeight="1" ht="13.5">
       <c r="A39" s="52" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="B39" s="52"/>
       <c r="C39" s="52"/>
@@ -2382,7 +2400,7 @@
     <row r="40" spans="1:18" customHeight="1" ht="3.75"/>
     <row r="41" spans="1:18" customHeight="1" ht="15">
       <c r="A41" s="62" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="B41" s="63"/>
       <c r="C41" s="63"/>
@@ -2397,10 +2415,10 @@
     </row>
     <row r="42" spans="1:18" customHeight="1" ht="10.5">
       <c r="A42" s="31" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="G42" s="31" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="H42" s="35"/>
       <c r="I42" s="35"/>
@@ -2408,27 +2426,35 @@
       <c r="K42" s="12"/>
     </row>
     <row r="43" spans="1:18" customHeight="1" ht="16.5">
-      <c r="A43" s="52"/>
+      <c r="A43" s="52" t="s">
+        <v>19</v>
+      </c>
       <c r="B43" s="52"/>
-      <c r="C43" s="52"/>
+      <c r="C43" s="52" t="s">
+        <v>55</v>
+      </c>
       <c r="D43" s="52"/>
       <c r="E43" s="51"/>
-      <c r="G43" s="52"/>
+      <c r="G43" s="52" t="s">
+        <v>19</v>
+      </c>
       <c r="H43" s="52"/>
-      <c r="I43" s="52"/>
+      <c r="I43" s="52" t="s">
+        <v>56</v>
+      </c>
       <c r="J43" s="52"/>
       <c r="K43" s="51"/>
     </row>
     <row r="44" spans="1:18" customHeight="1" ht="16.5">
       <c r="A44" s="61" t="s">
-        <v>54</v>
+        <v>57</v>
       </c>
       <c r="B44" s="61"/>
       <c r="C44" s="61"/>
       <c r="D44" s="61"/>
       <c r="E44" s="61"/>
       <c r="G44" s="29" t="s">
-        <v>55</v>
+        <v>58</v>
       </c>
       <c r="H44" s="29"/>
       <c r="I44" s="29"/>
@@ -2436,22 +2462,26 @@
     </row>
     <row r="45" spans="1:18" customHeight="1" ht="11.25">
       <c r="A45" s="42" t="s">
-        <v>56</v>
+        <v>59</v>
       </c>
       <c r="G45" s="42" t="s">
-        <v>57</v>
+        <v>60</v>
       </c>
       <c r="H45" s="30"/>
       <c r="I45" s="30"/>
       <c r="J45" s="30"/>
     </row>
     <row r="46" spans="1:18" customHeight="1" ht="15">
-      <c r="A46" s="52"/>
+      <c r="A46" s="52" t="s">
+        <v>61</v>
+      </c>
       <c r="B46" s="52"/>
       <c r="C46" s="52"/>
       <c r="D46" s="52"/>
       <c r="E46" s="52"/>
-      <c r="G46" s="69"/>
+      <c r="G46" s="69" t="s">
+        <v>62</v>
+      </c>
       <c r="H46" s="69"/>
       <c r="I46" s="69"/>
       <c r="J46" s="69"/>
@@ -2459,22 +2489,26 @@
     </row>
     <row r="47" spans="1:18" customHeight="1" ht="11.25">
       <c r="A47" s="43" t="s">
-        <v>58</v>
+        <v>63</v>
       </c>
       <c r="G47" s="42" t="s">
-        <v>59</v>
+        <v>64</v>
       </c>
       <c r="H47" s="30"/>
       <c r="I47" s="30"/>
       <c r="J47" s="30"/>
     </row>
     <row r="48" spans="1:18" customHeight="1" ht="15">
-      <c r="A48" s="52"/>
+      <c r="A48" s="52" t="s">
+        <v>65</v>
+      </c>
       <c r="B48" s="52"/>
       <c r="C48" s="52"/>
       <c r="D48" s="52"/>
       <c r="E48" s="52"/>
-      <c r="G48" s="52"/>
+      <c r="G48" s="52" t="s">
+        <v>65</v>
+      </c>
       <c r="H48" s="52"/>
       <c r="I48" s="52"/>
       <c r="J48" s="52"/>
@@ -2482,77 +2516,75 @@
     </row>
     <row r="49" spans="1:18" customHeight="1" ht="15.75">
       <c r="A49" s="44" t="s">
-        <v>60</v>
-      </c>
-      <c r="B49" s="53"/>
+        <v>66</v>
+      </c>
+      <c r="B49" s="53" t="s">
+        <v>67</v>
+      </c>
       <c r="C49" s="53"/>
       <c r="D49" s="53"/>
       <c r="E49" s="53"/>
       <c r="G49" s="45" t="s">
-        <v>60</v>
-      </c>
-      <c r="H49" s="53"/>
+        <v>66</v>
+      </c>
+      <c r="H49" s="53" t="s">
+        <v>68</v>
+      </c>
       <c r="I49" s="53"/>
       <c r="J49" s="53"/>
       <c r="K49" s="53"/>
     </row>
     <row r="50" spans="1:18" customHeight="1" ht="15.75">
       <c r="A50" s="44" t="s">
-        <v>61</v>
-      </c>
-      <c r="B50" s="68"/>
+        <v>69</v>
+      </c>
+      <c r="B50" s="68" t="s">
+        <v>70</v>
+      </c>
       <c r="C50" s="68"/>
       <c r="D50" s="68"/>
       <c r="E50" s="68"/>
       <c r="G50" s="44" t="s">
-        <v>61</v>
-      </c>
-      <c r="H50" s="53"/>
+        <v>69</v>
+      </c>
+      <c r="H50" s="53" t="s">
+        <v>71</v>
+      </c>
       <c r="I50" s="53"/>
       <c r="J50" s="53"/>
       <c r="K50" s="53"/>
     </row>
     <row r="51" spans="1:18" customHeight="1" ht="16.5">
       <c r="A51" s="31" t="s">
-        <v>62</v>
+        <v>72</v>
       </c>
       <c r="G51" s="31" t="s">
-        <v>63</v>
+        <v>73</v>
       </c>
     </row>
     <row r="52" spans="1:18" customHeight="1" ht="17.25">
-      <c r="A52" s="52" t="s">
-        <v>64</v>
-      </c>
+      <c r="A52" s="52"/>
       <c r="B52" s="52"/>
-      <c r="C52" s="52" t="s">
-        <v>65</v>
-      </c>
+      <c r="C52" s="52"/>
       <c r="D52" s="52"/>
-      <c r="E52" s="51" t="s">
-        <v>64</v>
-      </c>
-      <c r="H52" s="52" t="s">
-        <v>66</v>
-      </c>
+      <c r="E52" s="51"/>
+      <c r="H52" s="52"/>
       <c r="I52" s="52"/>
       <c r="J52" s="52"/>
       <c r="K52" s="52"/>
     </row>
     <row r="53" spans="1:18" customHeight="1" ht="18">
       <c r="A53" s="61" t="s">
-        <v>67</v>
+        <v>74</v>
       </c>
       <c r="B53" s="61"/>
       <c r="C53" s="61"/>
       <c r="D53" s="61"/>
       <c r="E53" s="61"/>
       <c r="G53" s="45" t="s">
-        <v>60</v>
-      </c>
-      <c r="H53" s="10" t="s">
-        <v>68</v>
-      </c>
+        <v>66</v>
+      </c>
+      <c r="H53" s="10"/>
       <c r="I53" s="10"/>
       <c r="J53" s="10"/>
       <c r="K53" s="40"/>
@@ -2560,7 +2592,7 @@
     <row r="54" spans="1:18" customHeight="1" ht="4.5"/>
     <row r="55" spans="1:18" customHeight="1" ht="13.5">
       <c r="A55" s="65" t="s">
-        <v>69</v>
+        <v>75</v>
       </c>
       <c r="B55" s="66"/>
       <c r="C55" s="66"/>
@@ -2575,13 +2607,13 @@
     </row>
     <row r="56" spans="1:18" customHeight="1" ht="15.75">
       <c r="A56" s="7" t="s">
-        <v>70</v>
+        <v>76</v>
       </c>
       <c r="B56" s="7"/>
       <c r="C56" s="17"/>
       <c r="D56" s="10"/>
       <c r="E56" s="7" t="s">
-        <v>71</v>
+        <v>77</v>
       </c>
       <c r="F56" s="3"/>
       <c r="G56" s="3"/>
@@ -2590,7 +2622,7 @@
     </row>
     <row r="57" spans="1:18" customHeight="1" ht="14.25">
       <c r="A57" s="7" t="s">
-        <v>72</v>
+        <v>78</v>
       </c>
       <c r="B57" s="10"/>
       <c r="C57" s="10"/>
@@ -2598,7 +2630,7 @@
       <c r="E57" s="10"/>
       <c r="F57" s="10"/>
       <c r="G57" s="57" t="s">
-        <v>73</v>
+        <v>79</v>
       </c>
       <c r="H57" s="34"/>
     </row>
@@ -2609,7 +2641,7 @@
     </row>
     <row r="59" spans="1:18" customHeight="1" ht="15">
       <c r="A59" s="7" t="s">
-        <v>74</v>
+        <v>80</v>
       </c>
       <c r="B59" s="10"/>
       <c r="C59" s="10"/>
@@ -2623,7 +2655,7 @@
     </row>
     <row r="61" spans="1:18" customHeight="1" ht="13.5">
       <c r="A61" s="58" t="s">
-        <v>75</v>
+        <v>81</v>
       </c>
       <c r="B61" s="59"/>
       <c r="C61" s="59"/>
@@ -2638,25 +2670,25 @@
     </row>
     <row r="62" spans="1:18" customHeight="1" ht="11.25">
       <c r="A62" s="7" t="s">
-        <v>76</v>
+        <v>82</v>
       </c>
       <c r="B62" s="18" t="s">
-        <v>77</v>
+        <v>83</v>
       </c>
       <c r="D62" s="18" t="s">
-        <v>78</v>
+        <v>84</v>
       </c>
       <c r="E62" s="18"/>
     </row>
     <row r="63" spans="1:18" customHeight="1" ht="14.25">
       <c r="A63" s="7" t="s">
-        <v>79</v>
+        <v>85</v>
       </c>
       <c r="B63" s="10"/>
       <c r="C63" s="10"/>
       <c r="D63" s="10"/>
       <c r="F63" s="7" t="s">
-        <v>80</v>
+        <v>86</v>
       </c>
       <c r="G63" s="17"/>
       <c r="H63" s="10"/>
@@ -2667,7 +2699,7 @@
     <row r="64" spans="1:18" customHeight="1" ht="12"/>
     <row r="65" spans="1:18" customHeight="1" ht="13.5">
       <c r="A65" s="54" t="s">
-        <v>81</v>
+        <v>87</v>
       </c>
       <c r="B65" s="54"/>
       <c r="C65" s="54"/>
@@ -2724,7 +2756,7 @@
     <row r="70" spans="1:18">
       <c r="A70" s="21"/>
       <c r="B70" s="32" t="s">
-        <v>82</v>
+        <v>88</v>
       </c>
       <c r="C70" s="21"/>
       <c r="D70" s="21"/>
@@ -2733,39 +2765,39 @@
       <c r="G70" s="21"/>
       <c r="I70" s="33"/>
       <c r="J70" s="41" t="s">
-        <v>83</v>
+        <v>89</v>
       </c>
       <c r="K70" s="21"/>
     </row>
     <row r="71" spans="1:18">
       <c r="A71" s="19" t="s">
-        <v>84</v>
+        <v>90</v>
       </c>
     </row>
     <row r="72" spans="1:18">
       <c r="B72" s="7" t="s">
-        <v>85</v>
+        <v>91</v>
       </c>
       <c r="F72" s="14" t="s">
-        <v>86</v>
+        <v>92</v>
       </c>
       <c r="G72" s="14"/>
     </row>
     <row r="73" spans="1:18">
       <c r="B73" s="22" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
     </row>
     <row r="74" spans="1:18">
       <c r="B74" s="7" t="s">
-        <v>87</v>
+        <v>93</v>
       </c>
       <c r="C74" s="10"/>
       <c r="D74" s="10"/>
       <c r="E74" s="10"/>
       <c r="F74" s="10"/>
       <c r="G74" s="7" t="s">
-        <v>88</v>
+        <v>94</v>
       </c>
       <c r="H74" s="10"/>
       <c r="I74" s="10"/>
@@ -2774,7 +2806,7 @@
     </row>
     <row r="75" spans="1:18">
       <c r="J75" s="31" t="s">
-        <v>89</v>
+        <v>95</v>
       </c>
     </row>
     <row r="82" spans="1:18" hidden="true">
@@ -3072,7 +3104,7 @@
     </row>
     <row r="3" spans="1:11" customHeight="1" ht="16">
       <c r="B3" s="86" t="s">
-        <v>90</v>
+        <v>96</v>
       </c>
       <c r="C3" s="81"/>
       <c r="D3" s="81"/>
@@ -3086,7 +3118,7 @@
     </row>
     <row r="4" spans="1:11">
       <c r="A4" s="87" t="s">
-        <v>91</v>
+        <v>97</v>
       </c>
       <c r="B4" s="88"/>
       <c r="C4" s="88"/>
@@ -3485,7 +3517,7 @@
     </row>
     <row r="38" spans="1:11" s="47" customFormat="1">
       <c r="A38" s="89" t="s">
-        <v>92</v>
+        <v>98</v>
       </c>
       <c r="B38" s="89"/>
       <c r="C38" s="89"/>
